--- a/input/DOE22/42/Std140_CE_b_Output.xlsx
+++ b/input/DOE22/42/Std140_CE_b_Output.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\JasonGlazer--ashrae-140-automation\input\DOE22\42\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0282F210-74B2-42DA-8951-A5310414913B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA99E6A-8510-498A-B44B-EC120B81DD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8715" yWindow="1725" windowWidth="30675" windowHeight="17970" xr2:uid="{49F4F6A9-A708-4AE5-B3F4-14E3B8248983}"/>
+    <workbookView xWindow="2625" yWindow="3870" windowWidth="40575" windowHeight="15465" xr2:uid="{49F4F6A9-A708-4AE5-B3F4-14E3B8248983}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
   </definedNames>
@@ -1069,15 +1066,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1206,6 +1194,17 @@
     <xf numFmtId="167" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1215,8 +1214,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1232,116 +1229,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Read Me"/>
-      <sheetName val="Adding Results"/>
-      <sheetName val="YourData"/>
-      <sheetName val="Title Page"/>
-      <sheetName val="Program List"/>
-      <sheetName val="Tables List"/>
-      <sheetName val="Figures List"/>
-      <sheetName val="Table-Q"/>
-      <sheetName val="Table-R"/>
-      <sheetName val="Table-S"/>
-      <sheetName val="Table-T"/>
-      <sheetName val="Fig B16.5.2-1 Qtot"/>
-      <sheetName val="Fig B16.5.2-2 dQtot"/>
-      <sheetName val="Fig B16.5.2-3 Ptot"/>
-      <sheetName val="Fig B16.5.2-4 dPtot"/>
-      <sheetName val="Fig B16.5.2-5 Qcomp"/>
-      <sheetName val="Fig B16.5.2-6 dQcomp"/>
-      <sheetName val="Fig B16.5.2-7 Qidfan"/>
-      <sheetName val="Fig B16.5.2-8 dQidfan"/>
-      <sheetName val="Fig B16.5.2-9 Qodfan"/>
-      <sheetName val="Fig B16.5.2-10 dQodfan"/>
-      <sheetName val="Fig B16.5.2-11 QCtot"/>
-      <sheetName val="Fig B16.5.2-12 PCtot"/>
-      <sheetName val="Fig B16.5.2-13 dPCtot"/>
-      <sheetName val="Fig B16.5.2-14 QCSens"/>
-      <sheetName val="Fig B16.5.2-15 dQCsens"/>
-      <sheetName val="Fig B16.5.2-16 PCSens"/>
-      <sheetName val="Fig B16.5.2-17 QClat"/>
-      <sheetName val="Fig B16.5.2-18 dQClat"/>
-      <sheetName val="Fig B16.5.2-19 PClat"/>
-      <sheetName val="Fig B16.5.2-20 dPClat"/>
-      <sheetName val="Fig B16.5.2-21 COP2"/>
-      <sheetName val="Fig B16.5.2-22 dCOP2"/>
-      <sheetName val="Fig B16.5.2-23 MxCOP2"/>
-      <sheetName val="Fig B16.5.2-24 dMxCOP2"/>
-      <sheetName val="Fig B16.5.2-25 MnCOP2"/>
-      <sheetName val="Fig B16.5.2-26 dMnCOP2"/>
-      <sheetName val="Fig B16.5.2-27 IDB"/>
-      <sheetName val="Fig B16.5.2-28 dIDB"/>
-      <sheetName val="Fig B16.5.2-29 MxIDB"/>
-      <sheetName val="Fig B16.5.2-30 dMxIDB"/>
-      <sheetName val="Fig B16.5.2-31 MnIDB"/>
-      <sheetName val="Fig B16.5.2-32 Humrat"/>
-      <sheetName val="Fig B16.5.2-33 dHumrat"/>
-      <sheetName val="Fig B16.5.2-34 MxHum"/>
-      <sheetName val="Fig B16.5.2-35 dMxHumrat"/>
-      <sheetName val="Fig B16.5.2-36 MnHum"/>
-      <sheetName val="Fig B16.5.2-37 RelHum"/>
-      <sheetName val="Fig B16.5.2-38 dRelHum"/>
-      <sheetName val="Fig B16.5.2-39 MxRelHum"/>
-      <sheetName val="Fig B16.5.2-40 dMxRelHum"/>
-      <sheetName val="Fig B16.5.2-41 MnRelHum"/>
-      <sheetName val="Fig B16.5.2-42 Qf(ODB)"/>
-      <sheetName val="Fig B16.5.2-43 QCf(ODB)"/>
-      <sheetName val="Fig B16.5.2-44 COP2f(ODB)"/>
-      <sheetName val="Fig B16.5.2-45 Humratf(ODB)"/>
-      <sheetName val="Fig B16.5.2-46 HrQ"/>
-      <sheetName val="Fig B16.5.2-47 HrQC"/>
-      <sheetName val="Fig B16.5.2-48 HrCOP2"/>
-      <sheetName val="Fig B16.5.2-49 HrHum"/>
-      <sheetName val="Fig B16.5.2-50 HrEDB,EWB"/>
-      <sheetName val="Fig B16.5.2-51 HrODB"/>
-      <sheetName val="Fig B16.5.2-52 HrOHR"/>
-      <sheetName val="A"/>
-      <sheetName val="Qdata"/>
-      <sheetName val="Rdata"/>
-      <sheetName val="Sdata"/>
-      <sheetName val="Tdata"/>
-      <sheetName val="TRNSYS-TUD"/>
-      <sheetName val="DOE22"/>
-      <sheetName val="DOE21E"/>
-      <sheetName val="EnergyPlus1.0"/>
-      <sheetName val="CodyRun"/>
-      <sheetName val="HOT3000"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1666,8 +1553,8 @@
   </sheetPr>
   <dimension ref="A1:AP214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W79" sqref="W79:Y81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4110,18 +3997,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="W79" s="23">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X79" s="30">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y79" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="W79" s="23"/>
+      <c r="X79" s="30"/>
+      <c r="Y79" s="22"/>
       <c r="Z79" s="23">
         <f t="shared" si="11"/>
         <v>19576</v>
@@ -4207,18 +4085,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="W80" s="23">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X80" s="30">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y80" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="W80" s="23"/>
+      <c r="X80" s="30"/>
+      <c r="Y80" s="22"/>
       <c r="Z80" s="23">
         <f t="shared" si="11"/>
         <v>19766</v>
@@ -4304,18 +4173,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="W81" s="23">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X81" s="38">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y81" s="39">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="W81" s="23"/>
+      <c r="X81" s="38"/>
+      <c r="Y81" s="39"/>
       <c r="Z81" s="23">
         <f t="shared" si="11"/>
         <v>19475</v>
@@ -6671,42 +6531,15 @@
         <f t="shared" si="23"/>
         <v>15</v>
       </c>
-      <c r="AF101" s="53" t="str">
-        <f t="shared" si="23"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AG101" s="30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AH101" s="24">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI101" s="58" t="str">
-        <f t="shared" si="23"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AJ101" s="30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK101" s="24">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AL101" s="58" t="str">
-        <f t="shared" si="23"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AM101" s="30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AN101" s="24">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
+      <c r="AF101" s="53"/>
+      <c r="AG101" s="30"/>
+      <c r="AH101" s="24"/>
+      <c r="AI101" s="58"/>
+      <c r="AJ101" s="30"/>
+      <c r="AK101" s="24"/>
+      <c r="AL101" s="58"/>
+      <c r="AM101" s="30"/>
+      <c r="AN101" s="24"/>
     </row>
     <row r="102" spans="1:40" ht="15.75">
       <c r="A102" s="10" t="s">
@@ -6826,42 +6659,15 @@
         <f t="shared" si="23"/>
         <v>15</v>
       </c>
-      <c r="AF102" s="53" t="str">
-        <f t="shared" si="23"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AG102" s="30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AH102" s="24">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI102" s="58" t="str">
-        <f t="shared" si="23"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AJ102" s="30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK102" s="24">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AL102" s="58" t="str">
-        <f t="shared" si="23"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AM102" s="30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AN102" s="24">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
+      <c r="AF102" s="53"/>
+      <c r="AG102" s="30"/>
+      <c r="AH102" s="24"/>
+      <c r="AI102" s="58"/>
+      <c r="AJ102" s="30"/>
+      <c r="AK102" s="24"/>
+      <c r="AL102" s="58"/>
+      <c r="AM102" s="30"/>
+      <c r="AN102" s="24"/>
     </row>
     <row r="103" spans="1:40" ht="15.75">
       <c r="A103" s="10" t="s">
@@ -6981,42 +6787,15 @@
         <f t="shared" si="23"/>
         <v>16</v>
       </c>
-      <c r="AF103" s="53" t="str">
-        <f t="shared" si="23"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AG103" s="30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AH103" s="24">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI103" s="58" t="str">
-        <f t="shared" si="23"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AJ103" s="30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK103" s="24">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AL103" s="58" t="str">
-        <f t="shared" si="23"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AM103" s="30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AN103" s="24">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
+      <c r="AF103" s="53"/>
+      <c r="AG103" s="30"/>
+      <c r="AH103" s="24"/>
+      <c r="AI103" s="58"/>
+      <c r="AJ103" s="30"/>
+      <c r="AK103" s="24"/>
+      <c r="AL103" s="58"/>
+      <c r="AM103" s="30"/>
+      <c r="AN103" s="24"/>
     </row>
     <row r="104" spans="1:40" ht="15.75">
       <c r="A104" s="10" t="s">
@@ -7136,42 +6915,15 @@
         <f t="shared" si="23"/>
         <v>15</v>
       </c>
-      <c r="AF104" s="53" t="str">
-        <f t="shared" si="23"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AG104" s="30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AH104" s="24">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI104" s="58" t="str">
-        <f t="shared" si="23"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AJ104" s="30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK104" s="24">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AL104" s="58" t="str">
-        <f t="shared" si="23"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AM104" s="30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AN104" s="24">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
+      <c r="AF104" s="53"/>
+      <c r="AG104" s="30"/>
+      <c r="AH104" s="24"/>
+      <c r="AI104" s="58"/>
+      <c r="AJ104" s="30"/>
+      <c r="AK104" s="24"/>
+      <c r="AL104" s="58"/>
+      <c r="AM104" s="30"/>
+      <c r="AN104" s="24"/>
     </row>
     <row r="105" spans="1:40" ht="15.75">
       <c r="A105" s="10" t="s">
@@ -7291,42 +7043,15 @@
         <f t="shared" si="23"/>
         <v>15</v>
       </c>
-      <c r="AF105" s="53" t="str">
-        <f t="shared" si="23"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AG105" s="30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AH105" s="24">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI105" s="58" t="str">
-        <f t="shared" si="23"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AJ105" s="30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK105" s="24">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AL105" s="58" t="str">
-        <f t="shared" si="23"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AM105" s="30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AN105" s="24">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
+      <c r="AF105" s="53"/>
+      <c r="AG105" s="30"/>
+      <c r="AH105" s="24"/>
+      <c r="AI105" s="58"/>
+      <c r="AJ105" s="30"/>
+      <c r="AK105" s="24"/>
+      <c r="AL105" s="58"/>
+      <c r="AM105" s="30"/>
+      <c r="AN105" s="24"/>
     </row>
     <row r="106" spans="1:40" ht="15.75">
       <c r="A106" s="10" t="s">
@@ -7446,42 +7171,15 @@
         <f t="shared" si="23"/>
         <v>15</v>
       </c>
-      <c r="AF106" s="53" t="str">
-        <f t="shared" si="23"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AG106" s="30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AH106" s="24">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI106" s="58" t="str">
-        <f t="shared" si="23"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AJ106" s="30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK106" s="24">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AL106" s="58" t="str">
-        <f t="shared" si="23"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AM106" s="30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AN106" s="24">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
+      <c r="AF106" s="53"/>
+      <c r="AG106" s="30"/>
+      <c r="AH106" s="24"/>
+      <c r="AI106" s="58"/>
+      <c r="AJ106" s="30"/>
+      <c r="AK106" s="24"/>
+      <c r="AL106" s="58"/>
+      <c r="AM106" s="30"/>
+      <c r="AN106" s="24"/>
     </row>
     <row r="107" spans="1:40" ht="15.75">
       <c r="A107" s="10" t="s">
@@ -7601,42 +7299,15 @@
         <f t="shared" si="23"/>
         <v>13</v>
       </c>
-      <c r="AF107" s="53" t="str">
-        <f t="shared" si="23"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AG107" s="30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AH107" s="24">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI107" s="58" t="str">
-        <f t="shared" si="23"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AJ107" s="30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK107" s="24">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AL107" s="58" t="str">
-        <f t="shared" si="23"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AM107" s="30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AN107" s="24">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
+      <c r="AF107" s="53"/>
+      <c r="AG107" s="30"/>
+      <c r="AH107" s="24"/>
+      <c r="AI107" s="58"/>
+      <c r="AJ107" s="30"/>
+      <c r="AK107" s="24"/>
+      <c r="AL107" s="58"/>
+      <c r="AM107" s="30"/>
+      <c r="AN107" s="24"/>
     </row>
     <row r="108" spans="1:40" ht="15.75">
       <c r="A108" s="10" t="s">
@@ -7756,42 +7427,15 @@
         <f t="shared" si="23"/>
         <v>15</v>
       </c>
-      <c r="AF108" s="60" t="str">
-        <f t="shared" si="23"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AG108" s="38">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AH108" s="43">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AI108" s="58" t="str">
-        <f t="shared" si="23"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AJ108" s="30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AK108" s="24">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AL108" s="58" t="str">
-        <f t="shared" si="23"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AM108" s="30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AN108" s="24">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
+      <c r="AF108" s="60"/>
+      <c r="AG108" s="38"/>
+      <c r="AH108" s="43"/>
+      <c r="AI108" s="58"/>
+      <c r="AJ108" s="30"/>
+      <c r="AK108" s="24"/>
+      <c r="AL108" s="58"/>
+      <c r="AM108" s="30"/>
+      <c r="AN108" s="24"/>
     </row>
     <row r="109" spans="1:40" ht="15.75">
       <c r="A109" s="10" t="s">
@@ -8049,12 +7693,12 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="10"/>
-      <c r="B117" s="63" t="s">
+      <c r="B117" s="137" t="s">
         <v>130</v>
       </c>
-      <c r="C117" s="64"/>
-      <c r="D117" s="64"/>
-      <c r="E117" s="65"/>
+      <c r="C117" s="138"/>
+      <c r="D117" s="138"/>
+      <c r="E117" s="139"/>
       <c r="F117" s="10" t="s">
         <v>173</v>
       </c>
@@ -8138,7 +7782,7 @@
       </c>
     </row>
     <row r="120" spans="1:12" ht="15.75">
-      <c r="A120" s="66" t="s">
+      <c r="A120" s="63" t="s">
         <v>176</v>
       </c>
       <c r="B120" s="23">
@@ -8153,7 +7797,7 @@
         <f>D204/24</f>
         <v>389.125</v>
       </c>
-      <c r="E120" s="67">
+      <c r="E120" s="64">
         <f>E204/24</f>
         <v>466.5</v>
       </c>
@@ -8177,17 +7821,17 @@
         <f>J204</f>
         <v>3.9136115288250317</v>
       </c>
-      <c r="K120" s="68">
+      <c r="K120" s="65">
         <f>(K204-32)/180*100</f>
         <v>16.833333333333332</v>
       </c>
-      <c r="L120" s="69">
+      <c r="L120" s="66">
         <f>(L204-32)/180*100</f>
         <v>24.944444444444446</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="15.75">
-      <c r="A121" s="70" t="s">
+      <c r="A121" s="67" t="s">
         <v>177</v>
       </c>
       <c r="B121" s="42">
@@ -8202,7 +7846,7 @@
         <f>D205/24</f>
         <v>426.33333333333331</v>
       </c>
-      <c r="E121" s="71">
+      <c r="E121" s="68">
         <f>E205/24</f>
         <v>514.45833333333337</v>
       </c>
@@ -8226,11 +7870,11 @@
         <f>J205</f>
         <v>2.9505118766491645</v>
       </c>
-      <c r="K121" s="72">
+      <c r="K121" s="69">
         <f>(K205-32)/180*100</f>
         <v>29.5</v>
       </c>
-      <c r="L121" s="73">
+      <c r="L121" s="70">
         <f>(L205-32)/180*100</f>
         <v>25</v>
       </c>
@@ -8267,12 +7911,12 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="10"/>
-      <c r="B126" s="63" t="s">
+      <c r="B126" s="137" t="s">
         <v>130</v>
       </c>
-      <c r="C126" s="64"/>
-      <c r="D126" s="64"/>
-      <c r="E126" s="65"/>
+      <c r="C126" s="138"/>
+      <c r="D126" s="138"/>
+      <c r="E126" s="139"/>
       <c r="F126" s="10" t="s">
         <v>173</v>
       </c>
@@ -8356,7 +8000,7 @@
       </c>
     </row>
     <row r="129" spans="1:40" ht="15.75">
-      <c r="A129" s="66" t="s">
+      <c r="A129" s="63" t="s">
         <v>176</v>
       </c>
       <c r="B129" s="23">
@@ -8371,7 +8015,7 @@
         <f>D213/24</f>
         <v>311.16666666666669</v>
       </c>
-      <c r="E129" s="67">
+      <c r="E129" s="64">
         <f>E213/24</f>
         <v>360.79166666666669</v>
       </c>
@@ -8395,17 +8039,17 @@
         <f>J213</f>
         <v>3.5988153449844984</v>
       </c>
-      <c r="K129" s="68">
+      <c r="K129" s="65">
         <f>(K213-32)/180*100</f>
         <v>16.833333333333332</v>
       </c>
-      <c r="L129" s="69">
+      <c r="L129" s="66">
         <f>(L213-32)/180*100</f>
         <v>24.944444444444446</v>
       </c>
     </row>
     <row r="130" spans="1:40" ht="15.75">
-      <c r="A130" s="70" t="s">
+      <c r="A130" s="67" t="s">
         <v>177</v>
       </c>
       <c r="B130" s="42">
@@ -8420,7 +8064,7 @@
         <f>D214/24</f>
         <v>339.625</v>
       </c>
-      <c r="E130" s="71">
+      <c r="E130" s="68">
         <f>E214/24</f>
         <v>395.58333333333331</v>
       </c>
@@ -8444,11 +8088,11 @@
         <f>J214</f>
         <v>2.7244804507867837</v>
       </c>
-      <c r="K130" s="72">
+      <c r="K130" s="69">
         <f>(K214-32)/180*100</f>
         <v>29.5</v>
       </c>
-      <c r="L130" s="73">
+      <c r="L130" s="70">
         <f>(L214-32)/180*100</f>
         <v>24.944444444444446</v>
       </c>
@@ -8472,303 +8116,303 @@
       <c r="K139" s="1"/>
     </row>
     <row r="140" spans="1:40" ht="15.75">
-      <c r="A140" s="74"/>
-      <c r="B140" s="74"/>
-      <c r="C140" s="75"/>
-      <c r="D140" s="75" t="s">
+      <c r="A140" s="71"/>
+      <c r="B140" s="71"/>
+      <c r="C140" s="72"/>
+      <c r="D140" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="E140" s="75"/>
-      <c r="F140" s="75"/>
-      <c r="G140" s="75"/>
-      <c r="H140" s="75"/>
-      <c r="I140" s="74" t="s">
+      <c r="E140" s="72"/>
+      <c r="F140" s="72"/>
+      <c r="G140" s="72"/>
+      <c r="H140" s="72"/>
+      <c r="I140" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="J140" s="75"/>
-      <c r="K140" s="75"/>
-      <c r="L140" s="75"/>
-      <c r="M140" s="74" t="s">
+      <c r="J140" s="72"/>
+      <c r="K140" s="72"/>
+      <c r="L140" s="72"/>
+      <c r="M140" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="N140" s="76"/>
-      <c r="O140" s="77"/>
-      <c r="P140" s="74"/>
-      <c r="Q140" s="78" t="s">
+      <c r="N140" s="73"/>
+      <c r="O140" s="74"/>
+      <c r="P140" s="71"/>
+      <c r="Q140" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="R140" s="79"/>
-      <c r="S140" s="79"/>
-      <c r="T140" s="79"/>
-      <c r="U140" s="79"/>
-      <c r="V140" s="79"/>
-      <c r="W140" s="75"/>
-      <c r="X140" s="75"/>
-      <c r="Y140" s="75"/>
-      <c r="Z140" s="75"/>
-      <c r="AA140" s="75"/>
-      <c r="AB140" s="76"/>
-      <c r="AC140" s="74"/>
-      <c r="AD140" s="75" t="s">
+      <c r="R140" s="76"/>
+      <c r="S140" s="76"/>
+      <c r="T140" s="76"/>
+      <c r="U140" s="76"/>
+      <c r="V140" s="76"/>
+      <c r="W140" s="72"/>
+      <c r="X140" s="72"/>
+      <c r="Y140" s="72"/>
+      <c r="Z140" s="72"/>
+      <c r="AA140" s="72"/>
+      <c r="AB140" s="73"/>
+      <c r="AC140" s="71"/>
+      <c r="AD140" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="AE140" s="75"/>
-      <c r="AF140" s="75"/>
-      <c r="AG140" s="75"/>
-      <c r="AH140" s="76"/>
-      <c r="AI140" s="80"/>
-      <c r="AJ140" s="80"/>
-      <c r="AK140" s="80"/>
-      <c r="AL140" s="80"/>
-      <c r="AM140" s="80"/>
-      <c r="AN140" s="80"/>
+      <c r="AE140" s="72"/>
+      <c r="AF140" s="72"/>
+      <c r="AG140" s="72"/>
+      <c r="AH140" s="73"/>
+      <c r="AI140" s="77"/>
+      <c r="AJ140" s="77"/>
+      <c r="AK140" s="77"/>
+      <c r="AL140" s="77"/>
+      <c r="AM140" s="77"/>
+      <c r="AN140" s="77"/>
     </row>
     <row r="141" spans="1:40" ht="15.75">
-      <c r="A141" s="81"/>
-      <c r="B141" s="82"/>
-      <c r="C141" s="83"/>
-      <c r="D141" s="83"/>
-      <c r="E141" s="83"/>
-      <c r="F141" s="83"/>
-      <c r="G141" s="83"/>
-      <c r="H141" s="83"/>
-      <c r="I141" s="82"/>
-      <c r="J141" s="83"/>
-      <c r="K141" s="83"/>
-      <c r="L141" s="83"/>
-      <c r="M141" s="82" t="s">
+      <c r="A141" s="78"/>
+      <c r="B141" s="79"/>
+      <c r="C141" s="80"/>
+      <c r="D141" s="80"/>
+      <c r="E141" s="80"/>
+      <c r="F141" s="80"/>
+      <c r="G141" s="80"/>
+      <c r="H141" s="80"/>
+      <c r="I141" s="79"/>
+      <c r="J141" s="80"/>
+      <c r="K141" s="80"/>
+      <c r="L141" s="80"/>
+      <c r="M141" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="N141" s="84"/>
+      <c r="N141" s="81"/>
       <c r="O141" s="1"/>
-      <c r="P141" s="81"/>
-      <c r="Q141" s="82"/>
-      <c r="R141" s="83"/>
-      <c r="S141" s="83"/>
-      <c r="T141" s="83"/>
-      <c r="U141" s="83"/>
-      <c r="V141" s="83"/>
-      <c r="W141" s="83"/>
-      <c r="X141" s="83"/>
-      <c r="Y141" s="83"/>
-      <c r="Z141" s="83"/>
-      <c r="AA141" s="83"/>
-      <c r="AB141" s="84"/>
-      <c r="AC141" s="82"/>
-      <c r="AD141" s="83"/>
-      <c r="AE141" s="83"/>
-      <c r="AF141" s="83"/>
-      <c r="AG141" s="83"/>
-      <c r="AH141" s="84"/>
-      <c r="AI141" s="80"/>
-      <c r="AJ141" s="80"/>
-      <c r="AK141" s="80"/>
-      <c r="AL141" s="80"/>
-      <c r="AM141" s="80"/>
-      <c r="AN141" s="80"/>
+      <c r="P141" s="78"/>
+      <c r="Q141" s="79"/>
+      <c r="R141" s="80"/>
+      <c r="S141" s="80"/>
+      <c r="T141" s="80"/>
+      <c r="U141" s="80"/>
+      <c r="V141" s="80"/>
+      <c r="W141" s="80"/>
+      <c r="X141" s="80"/>
+      <c r="Y141" s="80"/>
+      <c r="Z141" s="80"/>
+      <c r="AA141" s="80"/>
+      <c r="AB141" s="81"/>
+      <c r="AC141" s="79"/>
+      <c r="AD141" s="80"/>
+      <c r="AE141" s="80"/>
+      <c r="AF141" s="80"/>
+      <c r="AG141" s="80"/>
+      <c r="AH141" s="81"/>
+      <c r="AI141" s="77"/>
+      <c r="AJ141" s="77"/>
+      <c r="AK141" s="77"/>
+      <c r="AL141" s="77"/>
+      <c r="AM141" s="77"/>
+      <c r="AN141" s="77"/>
     </row>
     <row r="142" spans="1:40" ht="15.75">
-      <c r="A142" s="81"/>
-      <c r="B142" s="81"/>
-      <c r="C142" s="80"/>
-      <c r="D142" s="80"/>
-      <c r="E142" s="80"/>
-      <c r="F142" s="80"/>
-      <c r="G142" s="80"/>
-      <c r="H142" s="80"/>
-      <c r="I142" s="81"/>
-      <c r="J142" s="80"/>
-      <c r="K142" s="85" t="s">
+      <c r="A142" s="78"/>
+      <c r="B142" s="78"/>
+      <c r="C142" s="77"/>
+      <c r="D142" s="77"/>
+      <c r="E142" s="77"/>
+      <c r="F142" s="77"/>
+      <c r="G142" s="77"/>
+      <c r="H142" s="77"/>
+      <c r="I142" s="78"/>
+      <c r="J142" s="77"/>
+      <c r="K142" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="L142" s="85" t="s">
+      <c r="L142" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="M142" s="81"/>
-      <c r="N142" s="86" t="s">
+      <c r="M142" s="78"/>
+      <c r="N142" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="O142" s="87"/>
-      <c r="P142" s="81"/>
-      <c r="Q142" s="74"/>
-      <c r="R142" s="75"/>
-      <c r="S142" s="76"/>
-      <c r="T142" s="80"/>
-      <c r="U142" s="80"/>
-      <c r="V142" s="80"/>
-      <c r="W142" s="80"/>
-      <c r="X142" s="80"/>
-      <c r="Y142" s="80"/>
-      <c r="Z142" s="80"/>
-      <c r="AA142" s="80"/>
-      <c r="AB142" s="88"/>
-      <c r="AC142" s="80"/>
-      <c r="AD142" s="80" t="s">
+      <c r="O142" s="84"/>
+      <c r="P142" s="78"/>
+      <c r="Q142" s="71"/>
+      <c r="R142" s="72"/>
+      <c r="S142" s="73"/>
+      <c r="T142" s="77"/>
+      <c r="U142" s="77"/>
+      <c r="V142" s="77"/>
+      <c r="W142" s="77"/>
+      <c r="X142" s="77"/>
+      <c r="Y142" s="77"/>
+      <c r="Z142" s="77"/>
+      <c r="AA142" s="77"/>
+      <c r="AB142" s="85"/>
+      <c r="AC142" s="77"/>
+      <c r="AD142" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="AE142" s="80"/>
-      <c r="AF142" s="80"/>
-      <c r="AG142" s="80"/>
-      <c r="AH142" s="76"/>
-      <c r="AI142" s="80"/>
-      <c r="AJ142" s="80"/>
-      <c r="AK142" s="80"/>
-      <c r="AL142" s="80"/>
-      <c r="AM142" s="80"/>
-      <c r="AN142" s="80"/>
+      <c r="AE142" s="77"/>
+      <c r="AF142" s="77"/>
+      <c r="AG142" s="77"/>
+      <c r="AH142" s="73"/>
+      <c r="AI142" s="77"/>
+      <c r="AJ142" s="77"/>
+      <c r="AK142" s="77"/>
+      <c r="AL142" s="77"/>
+      <c r="AM142" s="77"/>
+      <c r="AN142" s="77"/>
     </row>
     <row r="143" spans="1:40" ht="15.75">
-      <c r="A143" s="81"/>
-      <c r="B143" s="81" t="s">
+      <c r="A143" s="78"/>
+      <c r="B143" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="C143" s="80"/>
-      <c r="D143" s="80"/>
-      <c r="E143" s="80"/>
-      <c r="F143" s="81" t="s">
+      <c r="C143" s="77"/>
+      <c r="D143" s="77"/>
+      <c r="E143" s="77"/>
+      <c r="F143" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="G143" s="80"/>
-      <c r="H143" s="80"/>
-      <c r="I143" s="81"/>
-      <c r="J143" s="80"/>
-      <c r="K143" s="85" t="s">
+      <c r="G143" s="77"/>
+      <c r="H143" s="77"/>
+      <c r="I143" s="78"/>
+      <c r="J143" s="77"/>
+      <c r="K143" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="L143" s="85" t="s">
+      <c r="L143" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="M143" s="81"/>
-      <c r="N143" s="86" t="s">
+      <c r="M143" s="78"/>
+      <c r="N143" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="O143" s="87"/>
-      <c r="P143" s="81"/>
-      <c r="Q143" s="89" t="s">
+      <c r="O143" s="84"/>
+      <c r="P143" s="78"/>
+      <c r="Q143" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="R143" s="80"/>
-      <c r="S143" s="88"/>
-      <c r="T143" s="80"/>
-      <c r="U143" s="80"/>
-      <c r="V143" s="80" t="s">
+      <c r="R143" s="77"/>
+      <c r="S143" s="85"/>
+      <c r="T143" s="77"/>
+      <c r="U143" s="77"/>
+      <c r="V143" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="W143" s="80"/>
-      <c r="X143" s="80"/>
-      <c r="Y143" s="80"/>
-      <c r="Z143" s="80"/>
-      <c r="AA143" s="80"/>
-      <c r="AB143" s="88"/>
-      <c r="AC143" s="80"/>
-      <c r="AD143" s="80"/>
-      <c r="AE143" s="88"/>
-      <c r="AF143" s="80"/>
-      <c r="AG143" s="80"/>
-      <c r="AH143" s="88"/>
-      <c r="AI143" s="80"/>
-      <c r="AJ143" s="80"/>
-      <c r="AK143" s="80"/>
-      <c r="AL143" s="80"/>
-      <c r="AM143" s="80"/>
-      <c r="AN143" s="80"/>
+      <c r="W143" s="77"/>
+      <c r="X143" s="77"/>
+      <c r="Y143" s="77"/>
+      <c r="Z143" s="77"/>
+      <c r="AA143" s="77"/>
+      <c r="AB143" s="85"/>
+      <c r="AC143" s="77"/>
+      <c r="AD143" s="77"/>
+      <c r="AE143" s="85"/>
+      <c r="AF143" s="77"/>
+      <c r="AG143" s="77"/>
+      <c r="AH143" s="85"/>
+      <c r="AI143" s="77"/>
+      <c r="AJ143" s="77"/>
+      <c r="AK143" s="77"/>
+      <c r="AL143" s="77"/>
+      <c r="AM143" s="77"/>
+      <c r="AN143" s="77"/>
     </row>
     <row r="144" spans="1:40" ht="15.75">
-      <c r="A144" s="81" t="s">
+      <c r="A144" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="B144" s="90" t="s">
+      <c r="B144" s="87" t="s">
         <v>78</v>
       </c>
       <c r="C144" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D144" s="85" t="s">
+      <c r="D144" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="E144" s="85" t="s">
+      <c r="E144" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="F144" s="90" t="s">
+      <c r="F144" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="G144" s="85" t="s">
+      <c r="G144" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="H144" s="85" t="s">
+      <c r="H144" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="I144" s="90" t="s">
+      <c r="I144" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="J144" s="85" t="s">
+      <c r="J144" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="K144" s="85" t="s">
+      <c r="K144" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="L144" s="85" t="s">
+      <c r="L144" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="M144" s="90" t="s">
+      <c r="M144" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N144" s="86" t="s">
+      <c r="N144" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="O144" s="87"/>
-      <c r="P144" s="81" t="s">
+      <c r="O144" s="84"/>
+      <c r="P144" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="Q144" s="81" t="s">
+      <c r="Q144" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="R144" s="80"/>
-      <c r="S144" s="80"/>
-      <c r="T144" s="81"/>
-      <c r="U144" s="85" t="s">
+      <c r="R144" s="77"/>
+      <c r="S144" s="77"/>
+      <c r="T144" s="78"/>
+      <c r="U144" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="V144" s="80"/>
-      <c r="W144" s="81"/>
-      <c r="X144" s="85" t="s">
+      <c r="V144" s="77"/>
+      <c r="W144" s="78"/>
+      <c r="X144" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="Y144" s="80"/>
-      <c r="Z144" s="81" t="s">
+      <c r="Y144" s="77"/>
+      <c r="Z144" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="AA144" s="80"/>
-      <c r="AB144" s="88"/>
-      <c r="AC144" s="80"/>
-      <c r="AD144" s="80" t="s">
+      <c r="AA144" s="77"/>
+      <c r="AB144" s="85"/>
+      <c r="AC144" s="77"/>
+      <c r="AD144" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="AE144" s="88"/>
-      <c r="AF144" s="80" t="s">
+      <c r="AE144" s="85"/>
+      <c r="AF144" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="AG144" s="80"/>
-      <c r="AH144" s="88"/>
-      <c r="AI144" s="80"/>
-      <c r="AJ144" s="80"/>
-      <c r="AK144" s="80"/>
-      <c r="AL144" s="80"/>
-      <c r="AM144" s="80"/>
-      <c r="AN144" s="80"/>
+      <c r="AG144" s="77"/>
+      <c r="AH144" s="85"/>
+      <c r="AI144" s="77"/>
+      <c r="AJ144" s="77"/>
+      <c r="AK144" s="77"/>
+      <c r="AL144" s="77"/>
+      <c r="AM144" s="77"/>
+      <c r="AN144" s="77"/>
     </row>
     <row r="145" spans="1:40" ht="15.75">
-      <c r="A145" s="82"/>
-      <c r="B145" s="91" t="s">
+      <c r="A145" s="79"/>
+      <c r="B145" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="C145" s="92" t="s">
+      <c r="C145" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="D145" s="92" t="s">
+      <c r="D145" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="E145" s="92" t="s">
+      <c r="E145" s="89" t="s">
         <v>92</v>
       </c>
       <c r="F145" s="18" t="s">
@@ -8780,91 +8424,91 @@
       <c r="H145" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="I145" s="82"/>
-      <c r="J145" s="92" t="s">
+      <c r="I145" s="79"/>
+      <c r="J145" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="K145" s="92" t="s">
+      <c r="K145" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="L145" s="92" t="s">
+      <c r="L145" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="M145" s="91" t="s">
+      <c r="M145" s="88" t="s">
         <v>184</v>
       </c>
-      <c r="N145" s="93" t="s">
+      <c r="N145" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="O145" s="94"/>
-      <c r="P145" s="82"/>
-      <c r="Q145" s="91" t="s">
+      <c r="O145" s="91"/>
+      <c r="P145" s="79"/>
+      <c r="Q145" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="R145" s="92" t="s">
+      <c r="R145" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="S145" s="92" t="s">
+      <c r="S145" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="T145" s="95" t="s">
+      <c r="T145" s="92" t="s">
         <v>185</v>
       </c>
-      <c r="U145" s="92" t="s">
+      <c r="U145" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="V145" s="92" t="s">
+      <c r="V145" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="W145" s="95" t="s">
+      <c r="W145" s="92" t="s">
         <v>185</v>
       </c>
-      <c r="X145" s="92" t="s">
+      <c r="X145" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="Y145" s="92" t="s">
+      <c r="Y145" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="Z145" s="95" t="s">
+      <c r="Z145" s="92" t="s">
         <v>185</v>
       </c>
-      <c r="AA145" s="92" t="s">
+      <c r="AA145" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="AB145" s="93" t="s">
+      <c r="AB145" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="AC145" s="91" t="s">
+      <c r="AC145" s="88" t="s">
         <v>186</v>
       </c>
-      <c r="AD145" s="92" t="s">
+      <c r="AD145" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="AE145" s="93" t="s">
+      <c r="AE145" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="AF145" s="92" t="s">
+      <c r="AF145" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="AG145" s="92" t="s">
+      <c r="AG145" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="AH145" s="93" t="s">
+      <c r="AH145" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="AI145" s="80"/>
-      <c r="AJ145" s="80"/>
-      <c r="AK145" s="80"/>
-      <c r="AL145" s="80"/>
-      <c r="AM145" s="80"/>
-      <c r="AN145" s="80"/>
+      <c r="AI145" s="77"/>
+      <c r="AJ145" s="77"/>
+      <c r="AK145" s="77"/>
+      <c r="AL145" s="77"/>
+      <c r="AM145" s="77"/>
+      <c r="AN145" s="77"/>
     </row>
     <row r="146" spans="1:40" ht="15.75">
-      <c r="A146" s="81" t="s">
+      <c r="A146" s="78" t="s">
         <v>99</v>
       </c>
       <c r="B146" s="21"/>
-      <c r="C146" s="96">
+      <c r="C146" s="93">
         <v>23870</v>
       </c>
       <c r="D146" s="22">
@@ -8876,7 +8520,7 @@
       <c r="F146" s="23">
         <v>263676</v>
       </c>
-      <c r="G146" s="97"/>
+      <c r="G146" s="94"/>
       <c r="H146" s="24">
         <v>73308</v>
       </c>
@@ -8884,7 +8528,7 @@
         <f>(F146)*0.2931/(C146)</f>
         <v>3.2376805865102645</v>
       </c>
-      <c r="J146" s="98">
+      <c r="J146" s="95">
         <v>75.3</v>
       </c>
       <c r="K146" s="22">
@@ -8893,14 +8537,14 @@
       <c r="L146" s="26">
         <v>48.26</v>
       </c>
-      <c r="M146" s="99">
+      <c r="M146" s="96">
         <v>67.8</v>
       </c>
       <c r="N146" s="34">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="O146" s="100"/>
-      <c r="P146" s="81" t="s">
+      <c r="O146" s="97"/>
+      <c r="P146" s="78" t="s">
         <v>99</v>
       </c>
       <c r="Q146" s="23">
@@ -8939,33 +8583,33 @@
       <c r="AB146" s="37">
         <v>15</v>
       </c>
-      <c r="AC146" s="101">
+      <c r="AC146" s="98">
         <v>95</v>
       </c>
-      <c r="AD146" s="102">
+      <c r="AD146" s="99">
         <v>37457</v>
       </c>
-      <c r="AE146" s="103">
+      <c r="AE146" s="100">
         <v>15</v>
       </c>
-      <c r="AF146" s="104">
+      <c r="AF146" s="101">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="AG146" s="102">
+      <c r="AG146" s="99">
         <v>37531</v>
       </c>
-      <c r="AH146" s="103">
+      <c r="AH146" s="100">
         <v>9</v>
       </c>
-      <c r="AI146" s="80"/>
-      <c r="AJ146" s="80"/>
-      <c r="AK146" s="80"/>
-      <c r="AL146" s="80"/>
-      <c r="AM146" s="80"/>
-      <c r="AN146" s="80"/>
+      <c r="AI146" s="77"/>
+      <c r="AJ146" s="77"/>
+      <c r="AK146" s="77"/>
+      <c r="AL146" s="77"/>
+      <c r="AM146" s="77"/>
+      <c r="AN146" s="77"/>
     </row>
     <row r="147" spans="1:40" ht="15.75">
-      <c r="A147" s="81" t="s">
+      <c r="A147" s="78" t="s">
         <v>100</v>
       </c>
       <c r="B147" s="21"/>
@@ -8981,7 +8625,7 @@
       <c r="F147" s="21">
         <v>332292</v>
       </c>
-      <c r="G147" s="80"/>
+      <c r="G147" s="77"/>
       <c r="H147" s="22">
         <v>140204</v>
       </c>
@@ -8989,7 +8633,7 @@
         <f t="shared" ref="I147:I166" si="27">(F147)*0.2931/(C147)</f>
         <v>3.4174807958173976</v>
       </c>
-      <c r="J147" s="98">
+      <c r="J147" s="95">
         <v>75.400000000000006</v>
       </c>
       <c r="K147" s="22">
@@ -8998,10 +8642,10 @@
       <c r="L147" s="26">
         <v>58.51</v>
       </c>
-      <c r="M147" s="105"/>
-      <c r="N147" s="100"/>
+      <c r="M147" s="102"/>
+      <c r="N147" s="97"/>
       <c r="O147" s="22"/>
-      <c r="P147" s="81" t="s">
+      <c r="P147" s="78" t="s">
         <v>100</v>
       </c>
       <c r="Q147" s="21">
@@ -9040,25 +8684,25 @@
       <c r="AB147" s="37">
         <v>16</v>
       </c>
-      <c r="AC147" s="106" t="s">
+      <c r="AC147" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="AD147" s="106"/>
-      <c r="AE147" s="106"/>
-      <c r="AF147" s="106" t="s">
+      <c r="AD147" s="103"/>
+      <c r="AE147" s="103"/>
+      <c r="AF147" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="AG147" s="106"/>
+      <c r="AG147" s="103"/>
       <c r="AH147" s="1"/>
-      <c r="AI147" s="80"/>
-      <c r="AJ147" s="80"/>
-      <c r="AK147" s="80"/>
-      <c r="AL147" s="80"/>
-      <c r="AM147" s="80"/>
-      <c r="AN147" s="80"/>
+      <c r="AI147" s="77"/>
+      <c r="AJ147" s="77"/>
+      <c r="AK147" s="77"/>
+      <c r="AL147" s="77"/>
+      <c r="AM147" s="77"/>
+      <c r="AN147" s="77"/>
     </row>
     <row r="148" spans="1:40" ht="15.75">
-      <c r="A148" s="81" t="s">
+      <c r="A148" s="78" t="s">
         <v>104</v>
       </c>
       <c r="B148" s="21"/>
@@ -9074,7 +8718,7 @@
       <c r="F148" s="21">
         <v>328749</v>
       </c>
-      <c r="G148" s="80"/>
+      <c r="G148" s="77"/>
       <c r="H148" s="22">
         <v>114839</v>
       </c>
@@ -9082,7 +8726,7 @@
         <f t="shared" si="27"/>
         <v>3.4579699228422753</v>
       </c>
-      <c r="J148" s="98">
+      <c r="J148" s="95">
         <v>75.900000000000006</v>
       </c>
       <c r="K148" s="22">
@@ -9091,10 +8735,10 @@
       <c r="L148" s="26">
         <v>51.21</v>
       </c>
-      <c r="M148" s="105"/>
-      <c r="N148" s="100"/>
+      <c r="M148" s="102"/>
+      <c r="N148" s="97"/>
       <c r="O148" s="22"/>
-      <c r="P148" s="81" t="s">
+      <c r="P148" s="78" t="s">
         <v>104</v>
       </c>
       <c r="Q148" s="23">
@@ -9139,15 +8783,15 @@
       <c r="AF148" s="1"/>
       <c r="AG148" s="1"/>
       <c r="AH148" s="1"/>
-      <c r="AI148" s="80"/>
-      <c r="AJ148" s="80"/>
-      <c r="AK148" s="80"/>
-      <c r="AL148" s="80"/>
-      <c r="AM148" s="80"/>
-      <c r="AN148" s="80"/>
+      <c r="AI148" s="77"/>
+      <c r="AJ148" s="77"/>
+      <c r="AK148" s="77"/>
+      <c r="AL148" s="77"/>
+      <c r="AM148" s="77"/>
+      <c r="AN148" s="77"/>
     </row>
     <row r="149" spans="1:40" ht="15.75">
-      <c r="A149" s="81" t="s">
+      <c r="A149" s="78" t="s">
         <v>105</v>
       </c>
       <c r="B149" s="21"/>
@@ -9163,7 +8807,7 @@
       <c r="F149" s="21">
         <v>343671</v>
       </c>
-      <c r="G149" s="80"/>
+      <c r="G149" s="77"/>
       <c r="H149" s="22">
         <v>127666</v>
       </c>
@@ -9171,7 +8815,7 @@
         <f t="shared" si="27"/>
         <v>3.4941712952684894</v>
       </c>
-      <c r="J149" s="98">
+      <c r="J149" s="95">
         <v>75.7</v>
       </c>
       <c r="K149" s="22">
@@ -9180,10 +8824,10 @@
       <c r="L149" s="26">
         <v>50.58</v>
       </c>
-      <c r="M149" s="105"/>
-      <c r="N149" s="100"/>
+      <c r="M149" s="102"/>
+      <c r="N149" s="97"/>
       <c r="O149" s="22"/>
-      <c r="P149" s="81" t="s">
+      <c r="P149" s="78" t="s">
         <v>105</v>
       </c>
       <c r="Q149" s="23">
@@ -9228,15 +8872,15 @@
       <c r="AF149" s="1"/>
       <c r="AG149" s="1"/>
       <c r="AH149" s="1"/>
-      <c r="AI149" s="80"/>
-      <c r="AJ149" s="80"/>
-      <c r="AK149" s="80"/>
-      <c r="AL149" s="80"/>
-      <c r="AM149" s="80"/>
-      <c r="AN149" s="80"/>
+      <c r="AI149" s="77"/>
+      <c r="AJ149" s="77"/>
+      <c r="AK149" s="77"/>
+      <c r="AL149" s="77"/>
+      <c r="AM149" s="77"/>
+      <c r="AN149" s="77"/>
     </row>
     <row r="150" spans="1:40" ht="15.75">
-      <c r="A150" s="81" t="s">
+      <c r="A150" s="78" t="s">
         <v>106</v>
       </c>
       <c r="B150" s="21"/>
@@ -9252,7 +8896,7 @@
       <c r="F150" s="22">
         <v>337863</v>
       </c>
-      <c r="G150" s="80"/>
+      <c r="G150" s="77"/>
       <c r="H150" s="22">
         <v>122737</v>
       </c>
@@ -9269,10 +8913,10 @@
       <c r="L150" s="26">
         <v>50.69</v>
       </c>
-      <c r="M150" s="105"/>
-      <c r="N150" s="100"/>
+      <c r="M150" s="102"/>
+      <c r="N150" s="97"/>
       <c r="O150" s="22"/>
-      <c r="P150" s="81" t="s">
+      <c r="P150" s="78" t="s">
         <v>106</v>
       </c>
       <c r="Q150" s="23">
@@ -9293,7 +8937,7 @@
       <c r="V150" s="22">
         <v>16</v>
       </c>
-      <c r="W150" s="80">
+      <c r="W150" s="77">
         <v>30451</v>
       </c>
       <c r="X150" s="30">
@@ -9302,7 +8946,7 @@
       <c r="Y150" s="37">
         <v>9</v>
       </c>
-      <c r="Z150" s="80">
+      <c r="Z150" s="77">
         <v>50819</v>
       </c>
       <c r="AA150" s="30">
@@ -9317,15 +8961,15 @@
       <c r="AF150" s="1"/>
       <c r="AG150" s="1"/>
       <c r="AH150" s="1"/>
-      <c r="AI150" s="80"/>
-      <c r="AJ150" s="80"/>
-      <c r="AK150" s="80"/>
-      <c r="AL150" s="80"/>
-      <c r="AM150" s="80"/>
-      <c r="AN150" s="80"/>
+      <c r="AI150" s="77"/>
+      <c r="AJ150" s="77"/>
+      <c r="AK150" s="77"/>
+      <c r="AL150" s="77"/>
+      <c r="AM150" s="77"/>
+      <c r="AN150" s="77"/>
     </row>
     <row r="151" spans="1:40" ht="15.75">
-      <c r="A151" s="81" t="s">
+      <c r="A151" s="78" t="s">
         <v>107</v>
       </c>
       <c r="B151" s="21"/>
@@ -9341,7 +8985,7 @@
       <c r="F151" s="21">
         <v>217456</v>
       </c>
-      <c r="G151" s="80"/>
+      <c r="G151" s="77"/>
       <c r="H151" s="22">
         <v>54766</v>
       </c>
@@ -9349,7 +8993,7 @@
         <f>(F151)*0.2931/(C151)</f>
         <v>3.240776610565923</v>
       </c>
-      <c r="J151" s="98">
+      <c r="J151" s="95">
         <v>79.099999999999994</v>
       </c>
       <c r="K151" s="27">
@@ -9358,10 +9002,10 @@
       <c r="L151" s="26">
         <v>45.45</v>
       </c>
-      <c r="M151" s="105"/>
-      <c r="N151" s="100"/>
+      <c r="M151" s="102"/>
+      <c r="N151" s="97"/>
       <c r="O151" s="22"/>
-      <c r="P151" s="81" t="s">
+      <c r="P151" s="78" t="s">
         <v>107</v>
       </c>
       <c r="Q151" s="23">
@@ -9406,15 +9050,15 @@
       <c r="AF151" s="1"/>
       <c r="AG151" s="1"/>
       <c r="AH151" s="1"/>
-      <c r="AI151" s="80"/>
-      <c r="AJ151" s="80"/>
-      <c r="AK151" s="80"/>
-      <c r="AL151" s="80"/>
-      <c r="AM151" s="80"/>
-      <c r="AN151" s="80"/>
+      <c r="AI151" s="77"/>
+      <c r="AJ151" s="77"/>
+      <c r="AK151" s="77"/>
+      <c r="AL151" s="77"/>
+      <c r="AM151" s="77"/>
+      <c r="AN151" s="77"/>
     </row>
     <row r="152" spans="1:40" ht="15.75">
-      <c r="A152" s="81" t="s">
+      <c r="A152" s="78" t="s">
         <v>108</v>
       </c>
       <c r="B152" s="21"/>
@@ -9430,7 +9074,7 @@
       <c r="F152" s="21">
         <v>545231</v>
       </c>
-      <c r="G152" s="80"/>
+      <c r="G152" s="77"/>
       <c r="H152" s="22">
         <v>84911</v>
       </c>
@@ -9438,7 +9082,7 @@
         <f t="shared" si="27"/>
         <v>3.7006114787884403</v>
       </c>
-      <c r="J152" s="98">
+      <c r="J152" s="95">
         <v>78.099999999999994</v>
       </c>
       <c r="K152" s="27">
@@ -9447,10 +9091,10 @@
       <c r="L152" s="26">
         <v>41.49</v>
       </c>
-      <c r="M152" s="105"/>
-      <c r="N152" s="100"/>
+      <c r="M152" s="102"/>
+      <c r="N152" s="97"/>
       <c r="O152" s="22"/>
-      <c r="P152" s="81" t="s">
+      <c r="P152" s="78" t="s">
         <v>108</v>
       </c>
       <c r="Q152" s="23">
@@ -9495,15 +9139,15 @@
       <c r="AF152" s="1"/>
       <c r="AG152" s="1"/>
       <c r="AH152" s="1"/>
-      <c r="AI152" s="80"/>
-      <c r="AJ152" s="80"/>
-      <c r="AK152" s="80"/>
-      <c r="AL152" s="80"/>
-      <c r="AM152" s="80"/>
-      <c r="AN152" s="80"/>
+      <c r="AI152" s="77"/>
+      <c r="AJ152" s="77"/>
+      <c r="AK152" s="77"/>
+      <c r="AL152" s="77"/>
+      <c r="AM152" s="77"/>
+      <c r="AN152" s="77"/>
     </row>
     <row r="153" spans="1:40" ht="15.75">
-      <c r="A153" s="81" t="s">
+      <c r="A153" s="78" t="s">
         <v>109</v>
       </c>
       <c r="B153" s="21"/>
@@ -9519,7 +9163,7 @@
       <c r="F153" s="21">
         <v>221486</v>
       </c>
-      <c r="G153" s="80"/>
+      <c r="G153" s="77"/>
       <c r="H153" s="22">
         <v>80172</v>
       </c>
@@ -9527,7 +9171,7 @@
         <f t="shared" si="27"/>
         <v>3.2514047180206354</v>
       </c>
-      <c r="J153" s="98">
+      <c r="J153" s="95">
         <v>75.3</v>
       </c>
       <c r="K153" s="27">
@@ -9536,10 +9180,10 @@
       <c r="L153" s="26">
         <v>52.21</v>
       </c>
-      <c r="M153" s="105"/>
-      <c r="N153" s="100"/>
+      <c r="M153" s="102"/>
+      <c r="N153" s="97"/>
       <c r="O153" s="22"/>
-      <c r="P153" s="81" t="s">
+      <c r="P153" s="78" t="s">
         <v>109</v>
       </c>
       <c r="Q153" s="23">
@@ -9575,7 +9219,7 @@
       <c r="AA153" s="30">
         <v>37517</v>
       </c>
-      <c r="AB153" s="107">
+      <c r="AB153" s="104">
         <v>14</v>
       </c>
       <c r="AC153" s="1"/>
@@ -9584,15 +9228,15 @@
       <c r="AF153" s="1"/>
       <c r="AG153" s="1"/>
       <c r="AH153" s="1"/>
-      <c r="AI153" s="80"/>
-      <c r="AJ153" s="80"/>
-      <c r="AK153" s="80"/>
-      <c r="AL153" s="80"/>
-      <c r="AM153" s="80"/>
-      <c r="AN153" s="80"/>
+      <c r="AI153" s="77"/>
+      <c r="AJ153" s="77"/>
+      <c r="AK153" s="77"/>
+      <c r="AL153" s="77"/>
+      <c r="AM153" s="77"/>
+      <c r="AN153" s="77"/>
     </row>
     <row r="154" spans="1:40" ht="15.75">
-      <c r="A154" s="81" t="s">
+      <c r="A154" s="78" t="s">
         <v>110</v>
       </c>
       <c r="B154" s="21"/>
@@ -9608,7 +9252,7 @@
       <c r="F154" s="21">
         <v>227839</v>
       </c>
-      <c r="G154" s="80"/>
+      <c r="G154" s="77"/>
       <c r="H154" s="22">
         <v>65237</v>
       </c>
@@ -9616,7 +9260,7 @@
         <f t="shared" si="27"/>
         <v>3.2124115306907832</v>
       </c>
-      <c r="J154" s="98">
+      <c r="J154" s="95">
         <v>75.3</v>
       </c>
       <c r="K154" s="27">
@@ -9625,10 +9269,10 @@
       <c r="L154" s="26">
         <v>49.65</v>
       </c>
-      <c r="M154" s="105"/>
-      <c r="N154" s="100"/>
+      <c r="M154" s="102"/>
+      <c r="N154" s="97"/>
       <c r="O154" s="22"/>
-      <c r="P154" s="81" t="s">
+      <c r="P154" s="78" t="s">
         <v>110</v>
       </c>
       <c r="Q154" s="23">
@@ -9673,15 +9317,15 @@
       <c r="AF154" s="1"/>
       <c r="AG154" s="1"/>
       <c r="AH154" s="1"/>
-      <c r="AI154" s="80"/>
-      <c r="AJ154" s="80"/>
-      <c r="AK154" s="80"/>
-      <c r="AL154" s="80"/>
-      <c r="AM154" s="80"/>
-      <c r="AN154" s="80"/>
+      <c r="AI154" s="77"/>
+      <c r="AJ154" s="77"/>
+      <c r="AK154" s="77"/>
+      <c r="AL154" s="77"/>
+      <c r="AM154" s="77"/>
+      <c r="AN154" s="77"/>
     </row>
     <row r="155" spans="1:40" ht="15.75">
-      <c r="A155" s="81" t="s">
+      <c r="A155" s="78" t="s">
         <v>111</v>
       </c>
       <c r="B155" s="21"/>
@@ -9697,7 +9341,7 @@
       <c r="F155" s="21">
         <v>237499</v>
       </c>
-      <c r="G155" s="80"/>
+      <c r="G155" s="77"/>
       <c r="H155" s="22">
         <v>68048</v>
       </c>
@@ -9705,7 +9349,7 @@
         <f>(F155)*0.2931/(C155)</f>
         <v>3.2152866928406469</v>
       </c>
-      <c r="J155" s="98">
+      <c r="J155" s="95">
         <v>75.3</v>
       </c>
       <c r="K155" s="27">
@@ -9714,10 +9358,10 @@
       <c r="L155" s="26">
         <v>49.14</v>
       </c>
-      <c r="M155" s="105"/>
-      <c r="N155" s="100"/>
+      <c r="M155" s="102"/>
+      <c r="N155" s="97"/>
       <c r="O155" s="22"/>
-      <c r="P155" s="81" t="s">
+      <c r="P155" s="78" t="s">
         <v>111</v>
       </c>
       <c r="Q155" s="23">
@@ -9762,15 +9406,15 @@
       <c r="AF155" s="1"/>
       <c r="AG155" s="1"/>
       <c r="AH155" s="1"/>
-      <c r="AI155" s="80"/>
-      <c r="AJ155" s="80"/>
-      <c r="AK155" s="80"/>
-      <c r="AL155" s="80"/>
-      <c r="AM155" s="80"/>
-      <c r="AN155" s="80"/>
+      <c r="AI155" s="77"/>
+      <c r="AJ155" s="77"/>
+      <c r="AK155" s="77"/>
+      <c r="AL155" s="77"/>
+      <c r="AM155" s="77"/>
+      <c r="AN155" s="77"/>
     </row>
     <row r="156" spans="1:40" ht="15.75">
-      <c r="A156" s="81" t="s">
+      <c r="A156" s="78" t="s">
         <v>112</v>
       </c>
       <c r="B156" s="21"/>
@@ -9786,7 +9430,7 @@
       <c r="F156" s="21">
         <v>230777</v>
       </c>
-      <c r="G156" s="80"/>
+      <c r="G156" s="77"/>
       <c r="H156" s="22">
         <v>67927</v>
       </c>
@@ -9794,7 +9438,7 @@
         <f t="shared" si="27"/>
         <v>3.2130314791943757</v>
       </c>
-      <c r="J156" s="98">
+      <c r="J156" s="95">
         <v>75.3</v>
       </c>
       <c r="K156" s="27">
@@ -9803,10 +9447,10 @@
       <c r="L156" s="26">
         <v>49.17</v>
       </c>
-      <c r="M156" s="105"/>
-      <c r="N156" s="100"/>
+      <c r="M156" s="102"/>
+      <c r="N156" s="97"/>
       <c r="O156" s="22"/>
-      <c r="P156" s="81" t="s">
+      <c r="P156" s="78" t="s">
         <v>112</v>
       </c>
       <c r="Q156" s="23">
@@ -9851,15 +9495,15 @@
       <c r="AF156" s="1"/>
       <c r="AG156" s="1"/>
       <c r="AH156" s="1"/>
-      <c r="AI156" s="80"/>
-      <c r="AJ156" s="80"/>
-      <c r="AK156" s="80"/>
-      <c r="AL156" s="80"/>
-      <c r="AM156" s="80"/>
-      <c r="AN156" s="80"/>
+      <c r="AI156" s="77"/>
+      <c r="AJ156" s="77"/>
+      <c r="AK156" s="77"/>
+      <c r="AL156" s="77"/>
+      <c r="AM156" s="77"/>
+      <c r="AN156" s="77"/>
     </row>
     <row r="157" spans="1:40" ht="15.75">
-      <c r="A157" s="81" t="s">
+      <c r="A157" s="78" t="s">
         <v>113</v>
       </c>
       <c r="B157" s="21"/>
@@ -9875,7 +9519,7 @@
       <c r="F157" s="21">
         <v>243535</v>
       </c>
-      <c r="G157" s="80"/>
+      <c r="G157" s="77"/>
       <c r="H157" s="22">
         <v>70923</v>
       </c>
@@ -9883,7 +9527,7 @@
         <f>(F157)*0.2931/(C157)</f>
         <v>3.2222873104008669</v>
       </c>
-      <c r="J157" s="98">
+      <c r="J157" s="95">
         <v>75.3</v>
       </c>
       <c r="K157" s="27">
@@ -9892,10 +9536,10 @@
       <c r="L157" s="26">
         <v>48.46</v>
       </c>
-      <c r="M157" s="105"/>
-      <c r="N157" s="100"/>
+      <c r="M157" s="102"/>
+      <c r="N157" s="97"/>
       <c r="O157" s="22"/>
-      <c r="P157" s="81" t="s">
+      <c r="P157" s="78" t="s">
         <v>113</v>
       </c>
       <c r="Q157" s="23">
@@ -9940,15 +9584,15 @@
       <c r="AF157" s="1"/>
       <c r="AG157" s="1"/>
       <c r="AH157" s="1"/>
-      <c r="AI157" s="80"/>
-      <c r="AJ157" s="80"/>
-      <c r="AK157" s="80"/>
-      <c r="AL157" s="80"/>
-      <c r="AM157" s="80"/>
-      <c r="AN157" s="80"/>
+      <c r="AI157" s="77"/>
+      <c r="AJ157" s="77"/>
+      <c r="AK157" s="77"/>
+      <c r="AL157" s="77"/>
+      <c r="AM157" s="77"/>
+      <c r="AN157" s="77"/>
     </row>
     <row r="158" spans="1:40" ht="15.75">
-      <c r="A158" s="81" t="s">
+      <c r="A158" s="78" t="s">
         <v>114</v>
       </c>
       <c r="B158" s="21"/>
@@ -9964,7 +9608,7 @@
       <c r="F158" s="21">
         <v>225165</v>
       </c>
-      <c r="G158" s="80"/>
+      <c r="G158" s="77"/>
       <c r="H158" s="22">
         <v>62593</v>
       </c>
@@ -9972,15 +9616,15 @@
         <f t="shared" si="27"/>
         <v>3.2274971390845071</v>
       </c>
-      <c r="J158" s="98">
+      <c r="J158" s="95">
         <v>69.2</v>
       </c>
-      <c r="K158" s="108"/>
+      <c r="K158" s="105"/>
       <c r="L158" s="26"/>
-      <c r="M158" s="105"/>
-      <c r="N158" s="100"/>
-      <c r="O158" s="100"/>
-      <c r="P158" s="81" t="s">
+      <c r="M158" s="102"/>
+      <c r="N158" s="97"/>
+      <c r="O158" s="97"/>
+      <c r="P158" s="78" t="s">
         <v>115</v>
       </c>
       <c r="Q158" s="23">
@@ -10016,7 +9660,7 @@
       <c r="AA158" s="30">
         <v>37119</v>
       </c>
-      <c r="AB158" s="107">
+      <c r="AB158" s="104">
         <v>16</v>
       </c>
       <c r="AC158" s="1"/>
@@ -10025,15 +9669,15 @@
       <c r="AF158" s="1"/>
       <c r="AG158" s="1"/>
       <c r="AH158" s="1"/>
-      <c r="AI158" s="80"/>
-      <c r="AJ158" s="80"/>
-      <c r="AK158" s="80"/>
-      <c r="AL158" s="80"/>
-      <c r="AM158" s="80"/>
-      <c r="AN158" s="80"/>
+      <c r="AI158" s="77"/>
+      <c r="AJ158" s="77"/>
+      <c r="AK158" s="77"/>
+      <c r="AL158" s="77"/>
+      <c r="AM158" s="77"/>
+      <c r="AN158" s="77"/>
     </row>
     <row r="159" spans="1:40" ht="15.75">
-      <c r="A159" s="81" t="s">
+      <c r="A159" s="78" t="s">
         <v>116</v>
       </c>
       <c r="B159" s="21"/>
@@ -10049,7 +9693,7 @@
       <c r="F159" s="21">
         <v>172954</v>
       </c>
-      <c r="G159" s="80"/>
+      <c r="G159" s="77"/>
       <c r="H159" s="22">
         <v>48097</v>
       </c>
@@ -10057,7 +9701,7 @@
         <f t="shared" si="27"/>
         <v>3.1613855565949489</v>
       </c>
-      <c r="J159" s="98">
+      <c r="J159" s="95">
         <v>77</v>
       </c>
       <c r="K159" s="22">
@@ -10066,10 +9710,10 @@
       <c r="L159" s="26">
         <v>57.47</v>
       </c>
-      <c r="M159" s="105"/>
-      <c r="N159" s="100"/>
-      <c r="O159" s="100"/>
-      <c r="P159" s="81" t="s">
+      <c r="M159" s="102"/>
+      <c r="N159" s="97"/>
+      <c r="O159" s="97"/>
+      <c r="P159" s="78" t="s">
         <v>117</v>
       </c>
       <c r="Q159" s="23">
@@ -10105,7 +9749,7 @@
       <c r="AA159" s="30">
         <v>37092</v>
       </c>
-      <c r="AB159" s="107">
+      <c r="AB159" s="104">
         <v>15</v>
       </c>
       <c r="AC159" s="1"/>
@@ -10114,15 +9758,15 @@
       <c r="AF159" s="1"/>
       <c r="AG159" s="1"/>
       <c r="AH159" s="1"/>
-      <c r="AI159" s="80"/>
-      <c r="AJ159" s="80"/>
-      <c r="AK159" s="80"/>
-      <c r="AL159" s="80"/>
-      <c r="AM159" s="80"/>
-      <c r="AN159" s="80"/>
+      <c r="AI159" s="77"/>
+      <c r="AJ159" s="77"/>
+      <c r="AK159" s="77"/>
+      <c r="AL159" s="77"/>
+      <c r="AM159" s="77"/>
+      <c r="AN159" s="77"/>
     </row>
     <row r="160" spans="1:40" ht="15.75">
-      <c r="A160" s="81" t="s">
+      <c r="A160" s="78" t="s">
         <v>118</v>
       </c>
       <c r="B160" s="21"/>
@@ -10138,7 +9782,7 @@
       <c r="F160" s="21">
         <v>389007</v>
       </c>
-      <c r="G160" s="80"/>
+      <c r="G160" s="77"/>
       <c r="H160" s="22">
         <v>108196</v>
       </c>
@@ -10146,7 +9790,7 @@
         <f t="shared" si="27"/>
         <v>3.5773704725150606</v>
       </c>
-      <c r="J160" s="98">
+      <c r="J160" s="95">
         <v>77.2</v>
       </c>
       <c r="K160" s="22">
@@ -10155,10 +9799,10 @@
       <c r="L160" s="26">
         <v>57.36</v>
       </c>
-      <c r="M160" s="105"/>
-      <c r="N160" s="100"/>
-      <c r="O160" s="100"/>
-      <c r="P160" s="81" t="s">
+      <c r="M160" s="102"/>
+      <c r="N160" s="97"/>
+      <c r="O160" s="97"/>
+      <c r="P160" s="78" t="s">
         <v>119</v>
       </c>
       <c r="Q160" s="23">
@@ -10203,15 +9847,15 @@
       <c r="AF160" s="1"/>
       <c r="AG160" s="1"/>
       <c r="AH160" s="1"/>
-      <c r="AI160" s="80"/>
-      <c r="AJ160" s="80"/>
-      <c r="AK160" s="80"/>
-      <c r="AL160" s="80"/>
-      <c r="AM160" s="80"/>
-      <c r="AN160" s="80"/>
+      <c r="AI160" s="77"/>
+      <c r="AJ160" s="77"/>
+      <c r="AK160" s="77"/>
+      <c r="AL160" s="77"/>
+      <c r="AM160" s="77"/>
+      <c r="AN160" s="77"/>
     </row>
     <row r="161" spans="1:42" ht="15.75">
-      <c r="A161" s="81" t="s">
+      <c r="A161" s="78" t="s">
         <v>119</v>
       </c>
       <c r="B161" s="21"/>
@@ -10227,7 +9871,7 @@
       <c r="F161" s="21">
         <v>227128</v>
       </c>
-      <c r="G161" s="80"/>
+      <c r="G161" s="77"/>
       <c r="H161" s="22">
         <v>63015</v>
       </c>
@@ -10235,15 +9879,15 @@
         <f>(F161)*0.2931/(C161)</f>
         <v>2.9567495802798138</v>
       </c>
-      <c r="J161" s="98">
+      <c r="J161" s="95">
         <v>56.8</v>
       </c>
-      <c r="K161" s="100"/>
-      <c r="L161" s="109"/>
-      <c r="M161" s="105"/>
-      <c r="N161" s="100"/>
-      <c r="O161" s="100"/>
-      <c r="P161" s="81" t="s">
+      <c r="K161" s="97"/>
+      <c r="L161" s="106"/>
+      <c r="M161" s="102"/>
+      <c r="N161" s="97"/>
+      <c r="O161" s="97"/>
+      <c r="P161" s="78" t="s">
         <v>120</v>
       </c>
       <c r="Q161" s="23">
@@ -10288,15 +9932,15 @@
       <c r="AF161" s="1"/>
       <c r="AG161" s="1"/>
       <c r="AH161" s="1"/>
-      <c r="AI161" s="80"/>
-      <c r="AJ161" s="80"/>
-      <c r="AK161" s="80"/>
-      <c r="AL161" s="80"/>
-      <c r="AM161" s="80"/>
-      <c r="AN161" s="80"/>
+      <c r="AI161" s="77"/>
+      <c r="AJ161" s="77"/>
+      <c r="AK161" s="77"/>
+      <c r="AL161" s="77"/>
+      <c r="AM161" s="77"/>
+      <c r="AN161" s="77"/>
     </row>
     <row r="162" spans="1:42" ht="15.75">
-      <c r="A162" s="81" t="s">
+      <c r="A162" s="78" t="s">
         <v>120</v>
       </c>
       <c r="B162" s="21"/>
@@ -10312,7 +9956,7 @@
       <c r="F162" s="21">
         <v>226452</v>
       </c>
-      <c r="G162" s="80"/>
+      <c r="G162" s="77"/>
       <c r="H162" s="22">
         <v>62814</v>
       </c>
@@ -10320,15 +9964,15 @@
         <f>(F162)*0.2931/(C162)</f>
         <v>3.0743934966881281</v>
       </c>
-      <c r="J162" s="98">
+      <c r="J162" s="95">
         <v>63.1</v>
       </c>
-      <c r="K162" s="100"/>
-      <c r="L162" s="109"/>
-      <c r="M162" s="105"/>
-      <c r="N162" s="100"/>
-      <c r="O162" s="100"/>
-      <c r="P162" s="81" t="s">
+      <c r="K162" s="97"/>
+      <c r="L162" s="106"/>
+      <c r="M162" s="102"/>
+      <c r="N162" s="97"/>
+      <c r="O162" s="97"/>
+      <c r="P162" s="78" t="s">
         <v>121</v>
       </c>
       <c r="Q162" s="23">
@@ -10373,15 +10017,15 @@
       <c r="AF162" s="1"/>
       <c r="AG162" s="1"/>
       <c r="AH162" s="1"/>
-      <c r="AI162" s="80"/>
-      <c r="AJ162" s="80"/>
-      <c r="AK162" s="80"/>
-      <c r="AL162" s="80"/>
-      <c r="AM162" s="80"/>
-      <c r="AN162" s="80"/>
+      <c r="AI162" s="77"/>
+      <c r="AJ162" s="77"/>
+      <c r="AK162" s="77"/>
+      <c r="AL162" s="77"/>
+      <c r="AM162" s="77"/>
+      <c r="AN162" s="77"/>
     </row>
     <row r="163" spans="1:42" ht="15.75">
-      <c r="A163" s="81" t="s">
+      <c r="A163" s="78" t="s">
         <v>121</v>
       </c>
       <c r="B163" s="21"/>
@@ -10397,7 +10041,7 @@
       <c r="F163" s="21">
         <v>223129</v>
       </c>
-      <c r="G163" s="80"/>
+      <c r="G163" s="77"/>
       <c r="H163" s="22">
         <v>62032</v>
       </c>
@@ -10405,15 +10049,15 @@
         <f t="shared" si="27"/>
         <v>3.5308881276320054</v>
       </c>
-      <c r="J163" s="98">
+      <c r="J163" s="95">
         <v>81.3</v>
       </c>
-      <c r="K163" s="100"/>
-      <c r="L163" s="109"/>
-      <c r="M163" s="105"/>
-      <c r="N163" s="100"/>
-      <c r="O163" s="100"/>
-      <c r="P163" s="81" t="s">
+      <c r="K163" s="97"/>
+      <c r="L163" s="106"/>
+      <c r="M163" s="102"/>
+      <c r="N163" s="97"/>
+      <c r="O163" s="97"/>
+      <c r="P163" s="78" t="s">
         <v>122</v>
       </c>
       <c r="Q163" s="23">
@@ -10454,15 +10098,15 @@
       <c r="AF163" s="1"/>
       <c r="AG163" s="1"/>
       <c r="AH163" s="1"/>
-      <c r="AI163" s="80"/>
-      <c r="AJ163" s="80"/>
-      <c r="AK163" s="80"/>
-      <c r="AL163" s="80"/>
-      <c r="AM163" s="80"/>
-      <c r="AN163" s="80"/>
+      <c r="AI163" s="77"/>
+      <c r="AJ163" s="77"/>
+      <c r="AK163" s="77"/>
+      <c r="AL163" s="77"/>
+      <c r="AM163" s="77"/>
+      <c r="AN163" s="77"/>
     </row>
     <row r="164" spans="1:42" ht="15.75">
-      <c r="A164" s="81" t="s">
+      <c r="A164" s="78" t="s">
         <v>122</v>
       </c>
       <c r="B164" s="21"/>
@@ -10478,7 +10122,7 @@
       <c r="F164" s="21">
         <v>159107</v>
       </c>
-      <c r="G164" s="80"/>
+      <c r="G164" s="77"/>
       <c r="H164" s="22">
         <v>207</v>
       </c>
@@ -10486,15 +10130,15 @@
         <f t="shared" si="27"/>
         <v>2.969011377093016</v>
       </c>
-      <c r="J164" s="98">
+      <c r="J164" s="95">
         <v>69.099999999999994</v>
       </c>
-      <c r="K164" s="100"/>
-      <c r="L164" s="109"/>
-      <c r="M164" s="105"/>
-      <c r="N164" s="100"/>
-      <c r="O164" s="100"/>
-      <c r="P164" s="81" t="s">
+      <c r="K164" s="97"/>
+      <c r="L164" s="106"/>
+      <c r="M164" s="102"/>
+      <c r="N164" s="97"/>
+      <c r="O164" s="97"/>
+      <c r="P164" s="78" t="s">
         <v>123</v>
       </c>
       <c r="Q164" s="23">
@@ -10535,15 +10179,15 @@
       <c r="AF164" s="1"/>
       <c r="AG164" s="1"/>
       <c r="AH164" s="1"/>
-      <c r="AI164" s="80"/>
-      <c r="AJ164" s="80"/>
-      <c r="AK164" s="80"/>
-      <c r="AL164" s="80"/>
-      <c r="AM164" s="80"/>
-      <c r="AN164" s="80"/>
+      <c r="AI164" s="77"/>
+      <c r="AJ164" s="77"/>
+      <c r="AK164" s="77"/>
+      <c r="AL164" s="77"/>
+      <c r="AM164" s="77"/>
+      <c r="AN164" s="77"/>
     </row>
     <row r="165" spans="1:42" ht="15.75">
-      <c r="A165" s="81" t="s">
+      <c r="A165" s="78" t="s">
         <v>123</v>
       </c>
       <c r="B165" s="21"/>
@@ -10559,7 +10203,7 @@
       <c r="F165" s="21">
         <v>160798</v>
       </c>
-      <c r="G165" s="80"/>
+      <c r="G165" s="77"/>
       <c r="H165" s="22">
         <v>365</v>
       </c>
@@ -10567,15 +10211,15 @@
         <f t="shared" si="27"/>
         <v>2.6747953348467655</v>
       </c>
-      <c r="J165" s="98">
+      <c r="J165" s="95">
         <v>56.8</v>
       </c>
-      <c r="K165" s="100"/>
-      <c r="L165" s="109"/>
-      <c r="M165" s="105"/>
-      <c r="N165" s="100"/>
-      <c r="O165" s="100"/>
-      <c r="P165" s="82" t="s">
+      <c r="K165" s="97"/>
+      <c r="L165" s="106"/>
+      <c r="M165" s="102"/>
+      <c r="N165" s="97"/>
+      <c r="O165" s="97"/>
+      <c r="P165" s="79" t="s">
         <v>124</v>
       </c>
       <c r="Q165" s="42">
@@ -10616,15 +10260,15 @@
       <c r="AF165" s="1"/>
       <c r="AG165" s="1"/>
       <c r="AH165" s="1"/>
-      <c r="AI165" s="80"/>
-      <c r="AJ165" s="80"/>
-      <c r="AK165" s="80"/>
-      <c r="AL165" s="80"/>
-      <c r="AM165" s="80"/>
-      <c r="AN165" s="80"/>
+      <c r="AI165" s="77"/>
+      <c r="AJ165" s="77"/>
+      <c r="AK165" s="77"/>
+      <c r="AL165" s="77"/>
+      <c r="AM165" s="77"/>
+      <c r="AN165" s="77"/>
     </row>
     <row r="166" spans="1:42" ht="15.75">
-      <c r="A166" s="82" t="s">
+      <c r="A166" s="79" t="s">
         <v>124</v>
       </c>
       <c r="B166" s="41"/>
@@ -10640,7 +10284,7 @@
       <c r="F166" s="41">
         <v>157761</v>
       </c>
-      <c r="G166" s="80"/>
+      <c r="G166" s="77"/>
       <c r="H166" s="39">
         <v>87</v>
       </c>
@@ -10648,326 +10292,326 @@
         <f t="shared" si="27"/>
         <v>3.2333227816236629</v>
       </c>
-      <c r="J166" s="110">
+      <c r="J166" s="107">
         <v>81.2</v>
       </c>
-      <c r="K166" s="111"/>
-      <c r="L166" s="112"/>
-      <c r="M166" s="105"/>
-      <c r="N166" s="100"/>
-      <c r="O166" s="100"/>
-      <c r="P166" s="80"/>
-      <c r="Q166" s="80"/>
-      <c r="R166" s="80"/>
-      <c r="S166" s="80"/>
-      <c r="T166" s="80"/>
-      <c r="U166" s="80"/>
-      <c r="V166" s="80"/>
-      <c r="W166" s="80"/>
-      <c r="X166" s="80"/>
-      <c r="Y166" s="80"/>
-      <c r="Z166" s="80"/>
-      <c r="AA166" s="80"/>
-      <c r="AB166" s="80"/>
-      <c r="AC166" s="80"/>
-      <c r="AD166" s="80"/>
-      <c r="AE166" s="80"/>
-      <c r="AF166" s="80"/>
-      <c r="AG166" s="80"/>
-      <c r="AH166" s="80"/>
-      <c r="AI166" s="80"/>
-      <c r="AJ166" s="80"/>
-      <c r="AK166" s="80"/>
-      <c r="AL166" s="80"/>
-      <c r="AM166" s="80"/>
-      <c r="AN166" s="80"/>
+      <c r="K166" s="108"/>
+      <c r="L166" s="109"/>
+      <c r="M166" s="102"/>
+      <c r="N166" s="97"/>
+      <c r="O166" s="97"/>
+      <c r="P166" s="77"/>
+      <c r="Q166" s="77"/>
+      <c r="R166" s="77"/>
+      <c r="S166" s="77"/>
+      <c r="T166" s="77"/>
+      <c r="U166" s="77"/>
+      <c r="V166" s="77"/>
+      <c r="W166" s="77"/>
+      <c r="X166" s="77"/>
+      <c r="Y166" s="77"/>
+      <c r="Z166" s="77"/>
+      <c r="AA166" s="77"/>
+      <c r="AB166" s="77"/>
+      <c r="AC166" s="77"/>
+      <c r="AD166" s="77"/>
+      <c r="AE166" s="77"/>
+      <c r="AF166" s="77"/>
+      <c r="AG166" s="77"/>
+      <c r="AH166" s="77"/>
+      <c r="AI166" s="77"/>
+      <c r="AJ166" s="77"/>
+      <c r="AK166" s="77"/>
+      <c r="AL166" s="77"/>
+      <c r="AM166" s="77"/>
+      <c r="AN166" s="77"/>
     </row>
     <row r="167" spans="1:42" ht="15.75">
-      <c r="A167" s="80"/>
-      <c r="B167" s="80"/>
-      <c r="C167" s="80"/>
-      <c r="D167" s="80"/>
-      <c r="E167" s="80"/>
-      <c r="F167" s="80"/>
-      <c r="G167" s="80"/>
-      <c r="H167" s="80"/>
-      <c r="I167" s="80"/>
-      <c r="J167" s="80"/>
-      <c r="K167" s="80"/>
-      <c r="L167" s="80"/>
+      <c r="A167" s="77"/>
+      <c r="B167" s="77"/>
+      <c r="C167" s="77"/>
+      <c r="D167" s="77"/>
+      <c r="E167" s="77"/>
+      <c r="F167" s="77"/>
+      <c r="G167" s="77"/>
+      <c r="H167" s="77"/>
+      <c r="I167" s="77"/>
+      <c r="J167" s="77"/>
+      <c r="K167" s="77"/>
+      <c r="L167" s="77"/>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
-      <c r="P167" s="80"/>
-      <c r="Q167" s="80"/>
-      <c r="R167" s="80"/>
-      <c r="S167" s="80"/>
-      <c r="T167" s="80"/>
-      <c r="U167" s="80"/>
-      <c r="V167" s="80"/>
-      <c r="W167" s="80"/>
-      <c r="X167" s="80"/>
-      <c r="Y167" s="80"/>
-      <c r="Z167" s="80"/>
-      <c r="AA167" s="80"/>
-      <c r="AB167" s="80"/>
-      <c r="AC167" s="80"/>
-      <c r="AD167" s="80"/>
-      <c r="AE167" s="80"/>
-      <c r="AF167" s="80"/>
-      <c r="AG167" s="80"/>
-      <c r="AH167" s="80"/>
-      <c r="AI167" s="80"/>
-      <c r="AJ167" s="80"/>
-      <c r="AK167" s="80"/>
-      <c r="AL167" s="80"/>
-      <c r="AM167" s="80"/>
-      <c r="AN167" s="80"/>
+      <c r="P167" s="77"/>
+      <c r="Q167" s="77"/>
+      <c r="R167" s="77"/>
+      <c r="S167" s="77"/>
+      <c r="T167" s="77"/>
+      <c r="U167" s="77"/>
+      <c r="V167" s="77"/>
+      <c r="W167" s="77"/>
+      <c r="X167" s="77"/>
+      <c r="Y167" s="77"/>
+      <c r="Z167" s="77"/>
+      <c r="AA167" s="77"/>
+      <c r="AB167" s="77"/>
+      <c r="AC167" s="77"/>
+      <c r="AD167" s="77"/>
+      <c r="AE167" s="77"/>
+      <c r="AF167" s="77"/>
+      <c r="AG167" s="77"/>
+      <c r="AH167" s="77"/>
+      <c r="AI167" s="77"/>
+      <c r="AJ167" s="77"/>
+      <c r="AK167" s="77"/>
+      <c r="AL167" s="77"/>
+      <c r="AM167" s="77"/>
+      <c r="AN167" s="77"/>
     </row>
     <row r="168" spans="1:42" ht="15.75">
-      <c r="A168" s="74"/>
-      <c r="B168" s="74"/>
-      <c r="C168" s="75"/>
-      <c r="D168" s="75"/>
-      <c r="E168" s="75" t="s">
+      <c r="A168" s="71"/>
+      <c r="B168" s="71"/>
+      <c r="C168" s="72"/>
+      <c r="D168" s="72"/>
+      <c r="E168" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="F168" s="75"/>
-      <c r="G168" s="75"/>
-      <c r="H168" s="75"/>
-      <c r="I168" s="75"/>
-      <c r="J168" s="75"/>
-      <c r="K168" s="75"/>
-      <c r="L168" s="76"/>
+      <c r="F168" s="72"/>
+      <c r="G168" s="72"/>
+      <c r="H168" s="72"/>
+      <c r="I168" s="72"/>
+      <c r="J168" s="72"/>
+      <c r="K168" s="72"/>
+      <c r="L168" s="73"/>
       <c r="M168" s="35" t="s">
         <v>126</v>
       </c>
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
-      <c r="P168" s="74"/>
-      <c r="Q168" s="74"/>
-      <c r="R168" s="75"/>
-      <c r="S168" s="75"/>
-      <c r="T168" s="75" t="s">
+      <c r="P168" s="71"/>
+      <c r="Q168" s="71"/>
+      <c r="R168" s="72"/>
+      <c r="S168" s="72"/>
+      <c r="T168" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="U168" s="75"/>
-      <c r="V168" s="75"/>
-      <c r="W168" s="75"/>
-      <c r="X168" s="75"/>
-      <c r="Y168" s="75"/>
-      <c r="Z168" s="75"/>
-      <c r="AA168" s="75"/>
-      <c r="AB168" s="75"/>
-      <c r="AC168" s="75"/>
-      <c r="AD168" s="75"/>
-      <c r="AE168" s="75"/>
-      <c r="AF168" s="75"/>
-      <c r="AG168" s="75"/>
-      <c r="AH168" s="75"/>
-      <c r="AI168" s="75"/>
-      <c r="AJ168" s="75"/>
-      <c r="AK168" s="75"/>
-      <c r="AL168" s="75"/>
-      <c r="AM168" s="75"/>
-      <c r="AN168" s="76"/>
+      <c r="U168" s="72"/>
+      <c r="V168" s="72"/>
+      <c r="W168" s="72"/>
+      <c r="X168" s="72"/>
+      <c r="Y168" s="72"/>
+      <c r="Z168" s="72"/>
+      <c r="AA168" s="72"/>
+      <c r="AB168" s="72"/>
+      <c r="AC168" s="72"/>
+      <c r="AD168" s="72"/>
+      <c r="AE168" s="72"/>
+      <c r="AF168" s="72"/>
+      <c r="AG168" s="72"/>
+      <c r="AH168" s="72"/>
+      <c r="AI168" s="72"/>
+      <c r="AJ168" s="72"/>
+      <c r="AK168" s="72"/>
+      <c r="AL168" s="72"/>
+      <c r="AM168" s="72"/>
+      <c r="AN168" s="73"/>
     </row>
     <row r="169" spans="1:42" ht="15.75">
-      <c r="A169" s="81"/>
-      <c r="B169" s="82"/>
-      <c r="C169" s="83"/>
-      <c r="D169" s="83"/>
-      <c r="E169" s="83"/>
-      <c r="F169" s="83"/>
-      <c r="G169" s="83"/>
-      <c r="H169" s="83"/>
-      <c r="I169" s="83"/>
-      <c r="J169" s="83"/>
-      <c r="K169" s="83"/>
-      <c r="L169" s="84"/>
+      <c r="A169" s="78"/>
+      <c r="B169" s="79"/>
+      <c r="C169" s="80"/>
+      <c r="D169" s="80"/>
+      <c r="E169" s="80"/>
+      <c r="F169" s="80"/>
+      <c r="G169" s="80"/>
+      <c r="H169" s="80"/>
+      <c r="I169" s="80"/>
+      <c r="J169" s="80"/>
+      <c r="K169" s="80"/>
+      <c r="L169" s="81"/>
       <c r="M169" s="35" t="s">
         <v>129</v>
       </c>
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
-      <c r="P169" s="81"/>
-      <c r="Q169" s="82"/>
-      <c r="R169" s="83"/>
-      <c r="S169" s="83"/>
-      <c r="T169" s="83"/>
-      <c r="U169" s="83"/>
-      <c r="V169" s="83"/>
-      <c r="W169" s="83"/>
-      <c r="X169" s="83"/>
-      <c r="Y169" s="83"/>
-      <c r="Z169" s="83"/>
-      <c r="AA169" s="83"/>
-      <c r="AB169" s="83"/>
-      <c r="AC169" s="83"/>
-      <c r="AD169" s="83"/>
-      <c r="AE169" s="83"/>
-      <c r="AF169" s="83"/>
-      <c r="AG169" s="83"/>
-      <c r="AH169" s="83"/>
-      <c r="AI169" s="83"/>
-      <c r="AJ169" s="83"/>
-      <c r="AK169" s="83"/>
-      <c r="AL169" s="83"/>
-      <c r="AM169" s="83"/>
-      <c r="AN169" s="84"/>
+      <c r="P169" s="78"/>
+      <c r="Q169" s="79"/>
+      <c r="R169" s="80"/>
+      <c r="S169" s="80"/>
+      <c r="T169" s="80"/>
+      <c r="U169" s="80"/>
+      <c r="V169" s="80"/>
+      <c r="W169" s="80"/>
+      <c r="X169" s="80"/>
+      <c r="Y169" s="80"/>
+      <c r="Z169" s="80"/>
+      <c r="AA169" s="80"/>
+      <c r="AB169" s="80"/>
+      <c r="AC169" s="80"/>
+      <c r="AD169" s="80"/>
+      <c r="AE169" s="80"/>
+      <c r="AF169" s="80"/>
+      <c r="AG169" s="80"/>
+      <c r="AH169" s="80"/>
+      <c r="AI169" s="80"/>
+      <c r="AJ169" s="80"/>
+      <c r="AK169" s="80"/>
+      <c r="AL169" s="80"/>
+      <c r="AM169" s="80"/>
+      <c r="AN169" s="81"/>
     </row>
     <row r="170" spans="1:42" ht="15.75">
-      <c r="A170" s="81"/>
-      <c r="B170" s="81" t="s">
+      <c r="A170" s="78"/>
+      <c r="B170" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="C170" s="80"/>
-      <c r="D170" s="74" t="s">
+      <c r="C170" s="77"/>
+      <c r="D170" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="E170" s="80"/>
-      <c r="F170" s="80"/>
-      <c r="G170" s="90" t="s">
+      <c r="E170" s="77"/>
+      <c r="F170" s="77"/>
+      <c r="G170" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="H170" s="113"/>
-      <c r="I170" s="80"/>
-      <c r="J170" s="80"/>
-      <c r="K170" s="76"/>
-      <c r="L170" s="114" t="s">
+      <c r="H170" s="110"/>
+      <c r="I170" s="77"/>
+      <c r="J170" s="77"/>
+      <c r="K170" s="73"/>
+      <c r="L170" s="111" t="s">
         <v>132</v>
       </c>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
-      <c r="P170" s="81"/>
-      <c r="Q170" s="81"/>
-      <c r="R170" s="80"/>
-      <c r="S170" s="80" t="s">
+      <c r="P170" s="78"/>
+      <c r="Q170" s="78"/>
+      <c r="R170" s="77"/>
+      <c r="S170" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="T170" s="80"/>
-      <c r="U170" s="80"/>
-      <c r="V170" s="80"/>
-      <c r="W170" s="81"/>
-      <c r="X170" s="80" t="s">
+      <c r="T170" s="77"/>
+      <c r="U170" s="77"/>
+      <c r="V170" s="77"/>
+      <c r="W170" s="78"/>
+      <c r="X170" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="Y170" s="80"/>
-      <c r="Z170" s="80"/>
-      <c r="AA170" s="80"/>
-      <c r="AB170" s="80"/>
-      <c r="AC170" s="81"/>
-      <c r="AD170" s="80" t="s">
+      <c r="Y170" s="77"/>
+      <c r="Z170" s="77"/>
+      <c r="AA170" s="77"/>
+      <c r="AB170" s="77"/>
+      <c r="AC170" s="78"/>
+      <c r="AD170" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="AE170" s="80"/>
-      <c r="AF170" s="80"/>
-      <c r="AG170" s="80"/>
-      <c r="AH170" s="80"/>
-      <c r="AI170" s="81"/>
-      <c r="AJ170" s="80" t="s">
+      <c r="AE170" s="77"/>
+      <c r="AF170" s="77"/>
+      <c r="AG170" s="77"/>
+      <c r="AH170" s="77"/>
+      <c r="AI170" s="78"/>
+      <c r="AJ170" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="AK170" s="80"/>
-      <c r="AL170" s="80"/>
-      <c r="AM170" s="80"/>
-      <c r="AN170" s="88"/>
+      <c r="AK170" s="77"/>
+      <c r="AL170" s="77"/>
+      <c r="AM170" s="77"/>
+      <c r="AN170" s="85"/>
     </row>
     <row r="171" spans="1:42" ht="15.75">
-      <c r="A171" s="81" t="s">
+      <c r="A171" s="78" t="s">
         <v>60</v>
       </c>
       <c r="B171" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C171" s="85" t="s">
+      <c r="C171" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="D171" s="90" t="s">
+      <c r="D171" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="E171" s="85" t="s">
+      <c r="E171" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="F171" s="85" t="s">
+      <c r="F171" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="G171" s="90" t="s">
+      <c r="G171" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="H171" s="115" t="s">
+      <c r="H171" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="I171" s="85" t="s">
+      <c r="I171" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="J171" s="85" t="s">
+      <c r="J171" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="K171" s="86" t="s">
+      <c r="K171" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="L171" s="86" t="s">
+      <c r="L171" s="83" t="s">
         <v>137</v>
       </c>
       <c r="M171" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="N171" s="85" t="s">
+      <c r="N171" s="82" t="s">
         <v>142</v>
       </c>
       <c r="O171" s="1"/>
-      <c r="P171" s="81" t="s">
+      <c r="P171" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="Q171" s="81"/>
-      <c r="R171" s="80" t="s">
+      <c r="Q171" s="78"/>
+      <c r="R171" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="S171" s="80"/>
-      <c r="T171" s="81"/>
-      <c r="U171" s="80" t="s">
+      <c r="S171" s="77"/>
+      <c r="T171" s="78"/>
+      <c r="U171" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="V171" s="80"/>
-      <c r="W171" s="81"/>
-      <c r="X171" s="80" t="s">
+      <c r="V171" s="77"/>
+      <c r="W171" s="78"/>
+      <c r="X171" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="Y171" s="80"/>
-      <c r="Z171" s="81"/>
-      <c r="AA171" s="80" t="s">
+      <c r="Y171" s="77"/>
+      <c r="Z171" s="78"/>
+      <c r="AA171" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="AB171" s="80"/>
-      <c r="AC171" s="81"/>
-      <c r="AD171" s="80" t="s">
+      <c r="AB171" s="77"/>
+      <c r="AC171" s="78"/>
+      <c r="AD171" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="AE171" s="80"/>
-      <c r="AF171" s="81"/>
-      <c r="AG171" s="80" t="s">
+      <c r="AE171" s="77"/>
+      <c r="AF171" s="78"/>
+      <c r="AG171" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="AH171" s="80"/>
-      <c r="AI171" s="81"/>
-      <c r="AJ171" s="80" t="s">
+      <c r="AH171" s="77"/>
+      <c r="AI171" s="78"/>
+      <c r="AJ171" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="AK171" s="80"/>
-      <c r="AL171" s="81"/>
-      <c r="AM171" s="80" t="s">
+      <c r="AK171" s="77"/>
+      <c r="AL171" s="78"/>
+      <c r="AM171" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="AN171" s="88"/>
+      <c r="AN171" s="85"/>
     </row>
     <row r="172" spans="1:42" ht="15.75">
-      <c r="A172" s="82"/>
-      <c r="B172" s="91" t="s">
+      <c r="A172" s="79"/>
+      <c r="B172" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="C172" s="92" t="s">
+      <c r="C172" s="89" t="s">
         <v>145</v>
       </c>
       <c r="D172" s="18" t="s">
@@ -10979,10 +10623,10 @@
       <c r="F172" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="G172" s="91" t="s">
+      <c r="G172" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="H172" s="116"/>
+      <c r="H172" s="113"/>
       <c r="I172" s="19" t="s">
         <v>184</v>
       </c>
@@ -10992,92 +10636,92 @@
       <c r="K172" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="L172" s="93" t="s">
+      <c r="L172" s="90" t="s">
         <v>94</v>
       </c>
       <c r="M172" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N172" s="85" t="s">
+      <c r="N172" s="82" t="s">
         <v>188</v>
       </c>
       <c r="O172" s="1"/>
-      <c r="P172" s="82"/>
-      <c r="Q172" s="91" t="s">
+      <c r="P172" s="79"/>
+      <c r="Q172" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="R172" s="92" t="s">
+      <c r="R172" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="S172" s="92" t="s">
+      <c r="S172" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="T172" s="91" t="s">
+      <c r="T172" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="U172" s="92" t="s">
+      <c r="U172" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="V172" s="92" t="s">
+      <c r="V172" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="W172" s="95" t="s">
+      <c r="W172" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="X172" s="92" t="s">
+      <c r="X172" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="Y172" s="92" t="s">
+      <c r="Y172" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="Z172" s="95" t="s">
+      <c r="Z172" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="AA172" s="92" t="s">
+      <c r="AA172" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="AB172" s="92" t="s">
+      <c r="AB172" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="AC172" s="91" t="s">
+      <c r="AC172" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="AD172" s="92" t="s">
+      <c r="AD172" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="AE172" s="92" t="s">
+      <c r="AE172" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="AF172" s="91" t="s">
+      <c r="AF172" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="AG172" s="92" t="s">
+      <c r="AG172" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="AH172" s="92" t="s">
+      <c r="AH172" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="AI172" s="91" t="s">
+      <c r="AI172" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="AJ172" s="92" t="s">
+      <c r="AJ172" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="AK172" s="92" t="s">
+      <c r="AK172" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="AL172" s="91" t="s">
+      <c r="AL172" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="AM172" s="92" t="s">
+      <c r="AM172" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="AN172" s="93" t="s">
+      <c r="AN172" s="90" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:42" ht="15.75">
-      <c r="A173" s="81" t="s">
+      <c r="A173" s="78" t="s">
         <v>149</v>
       </c>
       <c r="B173" s="21">
@@ -11089,7 +10733,7 @@
       <c r="D173" s="21">
         <v>25767</v>
       </c>
-      <c r="E173" s="106"/>
+      <c r="E173" s="103"/>
       <c r="F173" s="22">
         <v>5674</v>
       </c>
@@ -11100,27 +10744,27 @@
         <f>D173*0.2931/B173</f>
         <v>3.5390382849109656</v>
       </c>
-      <c r="I173" s="98">
+      <c r="I173" s="95">
         <v>64</v>
       </c>
-      <c r="J173" s="98">
+      <c r="J173" s="95">
         <v>74.900000000000006</v>
       </c>
-      <c r="K173" s="117">
+      <c r="K173" s="114">
         <f>K89/100*180+32</f>
         <v>63.212000000000003</v>
       </c>
       <c r="L173" s="56">
         <v>1.14E-2</v>
       </c>
-      <c r="M173" s="118">
+      <c r="M173" s="115">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="N173" s="119">
+      <c r="N173" s="116">
         <v>29.9</v>
       </c>
       <c r="O173" s="1"/>
-      <c r="P173" s="81" t="s">
+      <c r="P173" s="78" t="s">
         <v>99</v>
       </c>
       <c r="Q173" s="25">
@@ -11192,14 +10836,14 @@
       <c r="AM173" s="30">
         <v>37566</v>
       </c>
-      <c r="AN173" s="120">
+      <c r="AN173" s="117">
         <v>4</v>
       </c>
-      <c r="AO173" s="106"/>
-      <c r="AP173" s="106"/>
+      <c r="AO173" s="103"/>
+      <c r="AP173" s="103"/>
     </row>
     <row r="174" spans="1:42" ht="15.75">
-      <c r="A174" s="81" t="s">
+      <c r="A174" s="78" t="s">
         <v>150</v>
       </c>
       <c r="B174" s="21">
@@ -11211,7 +10855,7 @@
       <c r="D174" s="21">
         <v>26033</v>
       </c>
-      <c r="E174" s="106"/>
+      <c r="E174" s="103"/>
       <c r="F174" s="22">
         <v>5324</v>
       </c>
@@ -11222,26 +10866,26 @@
         <f t="shared" ref="H174:H196" si="28">D174*0.2931/B174</f>
         <v>3.4985200825309493</v>
       </c>
-      <c r="I174" s="98">
+      <c r="I174" s="95">
         <v>65</v>
       </c>
-      <c r="J174" s="98">
+      <c r="J174" s="95">
         <v>75.099999999999994</v>
       </c>
-      <c r="K174" s="121" t="s">
+      <c r="K174" s="118" t="s">
         <v>189</v>
       </c>
       <c r="L174" s="59">
         <v>1.12E-2</v>
       </c>
-      <c r="M174" s="122">
+      <c r="M174" s="119">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="N174" s="119">
+      <c r="N174" s="116">
         <v>29.9</v>
       </c>
       <c r="O174" s="1"/>
-      <c r="P174" s="81" t="s">
+      <c r="P174" s="78" t="s">
         <v>100</v>
       </c>
       <c r="Q174" s="25">
@@ -11313,14 +10957,14 @@
       <c r="AM174" s="30">
         <v>37566</v>
       </c>
-      <c r="AN174" s="120">
+      <c r="AN174" s="117">
         <v>4</v>
       </c>
-      <c r="AO174" s="106"/>
-      <c r="AP174" s="106"/>
+      <c r="AO174" s="103"/>
+      <c r="AP174" s="103"/>
     </row>
     <row r="175" spans="1:42" ht="15.75">
-      <c r="A175" s="81" t="s">
+      <c r="A175" s="78" t="s">
         <v>151</v>
       </c>
       <c r="B175" s="21">
@@ -11332,7 +10976,7 @@
       <c r="D175" s="21">
         <v>25760</v>
       </c>
-      <c r="E175" s="106"/>
+      <c r="E175" s="103"/>
       <c r="F175" s="22">
         <v>5694</v>
       </c>
@@ -11343,26 +10987,26 @@
         <f t="shared" si="28"/>
         <v>3.5380768509840674</v>
       </c>
-      <c r="I175" s="98">
+      <c r="I175" s="95">
         <v>64</v>
       </c>
-      <c r="J175" s="98">
+      <c r="J175" s="95">
         <v>74.900000000000006</v>
       </c>
-      <c r="K175" s="121" t="s">
+      <c r="K175" s="118" t="s">
         <v>190</v>
       </c>
       <c r="L175" s="59">
         <v>1.14E-2</v>
       </c>
-      <c r="M175" s="118">
+      <c r="M175" s="115">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="N175" s="119">
+      <c r="N175" s="116">
         <v>30</v>
       </c>
       <c r="O175" s="1"/>
-      <c r="P175" s="81" t="s">
+      <c r="P175" s="78" t="s">
         <v>104</v>
       </c>
       <c r="Q175" s="25">
@@ -11425,7 +11069,7 @@
       <c r="AJ175" s="30">
         <v>38262</v>
       </c>
-      <c r="AK175" s="120">
+      <c r="AK175" s="117">
         <v>9</v>
       </c>
       <c r="AL175" s="58">
@@ -11434,14 +11078,14 @@
       <c r="AM175" s="30">
         <v>37566</v>
       </c>
-      <c r="AN175" s="120">
+      <c r="AN175" s="117">
         <v>4</v>
       </c>
-      <c r="AO175" s="106"/>
-      <c r="AP175" s="106"/>
+      <c r="AO175" s="103"/>
+      <c r="AP175" s="103"/>
     </row>
     <row r="176" spans="1:42" ht="15.75">
-      <c r="A176" s="81" t="s">
+      <c r="A176" s="78" t="s">
         <v>152</v>
       </c>
       <c r="B176" s="21">
@@ -11453,7 +11097,7 @@
       <c r="D176" s="21">
         <v>25704</v>
       </c>
-      <c r="E176" s="106"/>
+      <c r="E176" s="103"/>
       <c r="F176" s="22">
         <v>5649</v>
       </c>
@@ -11464,24 +11108,24 @@
         <f t="shared" si="28"/>
         <v>3.5403394736842109</v>
       </c>
-      <c r="I176" s="98">
+      <c r="I176" s="95">
         <v>64</v>
       </c>
-      <c r="J176" s="98">
+      <c r="J176" s="95">
         <v>74.900000000000006</v>
       </c>
-      <c r="K176" s="123"/>
+      <c r="K176" s="120"/>
       <c r="L176" s="59">
         <v>1.14E-2</v>
       </c>
-      <c r="M176" s="122">
+      <c r="M176" s="119">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="N176" s="119">
+      <c r="N176" s="116">
         <v>30</v>
       </c>
       <c r="O176" s="1"/>
-      <c r="P176" s="81" t="s">
+      <c r="P176" s="78" t="s">
         <v>105</v>
       </c>
       <c r="Q176" s="25">
@@ -11553,14 +11197,14 @@
       <c r="AM176" s="30">
         <v>37566</v>
       </c>
-      <c r="AN176" s="120">
+      <c r="AN176" s="117">
         <v>4</v>
       </c>
-      <c r="AO176" s="106"/>
-      <c r="AP176" s="106"/>
+      <c r="AO176" s="103"/>
+      <c r="AP176" s="103"/>
     </row>
     <row r="177" spans="1:42" ht="15.75">
-      <c r="A177" s="81" t="s">
+      <c r="A177" s="78" t="s">
         <v>153</v>
       </c>
       <c r="B177" s="21">
@@ -11572,7 +11216,7 @@
       <c r="D177" s="21">
         <v>23193</v>
       </c>
-      <c r="E177" s="106"/>
+      <c r="E177" s="103"/>
       <c r="F177" s="22">
         <v>3830</v>
       </c>
@@ -11583,24 +11227,24 @@
         <f t="shared" si="28"/>
         <v>3.5553704497907956</v>
       </c>
-      <c r="I177" s="98">
+      <c r="I177" s="95">
         <v>63</v>
       </c>
-      <c r="J177" s="98">
+      <c r="J177" s="95">
         <v>74.8</v>
       </c>
-      <c r="K177" s="123"/>
+      <c r="K177" s="120"/>
       <c r="L177" s="59">
         <v>1.03E-2</v>
       </c>
-      <c r="M177" s="122">
+      <c r="M177" s="119">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="N177" s="119">
+      <c r="N177" s="116">
         <v>30</v>
       </c>
       <c r="O177" s="1"/>
-      <c r="P177" s="81" t="s">
+      <c r="P177" s="78" t="s">
         <v>106</v>
       </c>
       <c r="Q177" s="25">
@@ -11621,7 +11265,7 @@
       <c r="V177" s="24">
         <v>14</v>
       </c>
-      <c r="W177" s="124">
+      <c r="W177" s="121">
         <v>31.61</v>
       </c>
       <c r="X177" s="30">
@@ -11630,7 +11274,7 @@
       <c r="Y177" s="22">
         <v>16</v>
       </c>
-      <c r="Z177" s="124">
+      <c r="Z177" s="121">
         <v>8.89</v>
       </c>
       <c r="AA177" s="30">
@@ -11663,7 +11307,7 @@
       <c r="AJ177" s="30">
         <v>38248</v>
       </c>
-      <c r="AK177" s="120">
+      <c r="AK177" s="117">
         <v>9</v>
       </c>
       <c r="AL177" s="58">
@@ -11672,14 +11316,14 @@
       <c r="AM177" s="30">
         <v>37566</v>
       </c>
-      <c r="AN177" s="120">
+      <c r="AN177" s="117">
         <v>4</v>
       </c>
-      <c r="AO177" s="106"/>
-      <c r="AP177" s="106"/>
+      <c r="AO177" s="103"/>
+      <c r="AP177" s="103"/>
     </row>
     <row r="178" spans="1:42" ht="15.75">
-      <c r="A178" s="81" t="s">
+      <c r="A178" s="78" t="s">
         <v>154</v>
       </c>
       <c r="B178" s="21">
@@ -11691,7 +11335,7 @@
       <c r="D178" s="21">
         <v>27759</v>
       </c>
-      <c r="E178" s="106"/>
+      <c r="E178" s="103"/>
       <c r="F178" s="22">
         <v>5792</v>
       </c>
@@ -11702,24 +11346,24 @@
         <f t="shared" si="28"/>
         <v>3.4113890566037739</v>
       </c>
-      <c r="I178" s="98">
+      <c r="I178" s="95">
         <v>67</v>
       </c>
-      <c r="J178" s="98">
+      <c r="J178" s="95">
         <v>75.400000000000006</v>
       </c>
-      <c r="K178" s="123"/>
+      <c r="K178" s="120"/>
       <c r="L178" s="59">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="M178" s="122">
+      <c r="M178" s="119">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="N178" s="119">
+      <c r="N178" s="116">
         <v>30</v>
       </c>
       <c r="O178" s="1"/>
-      <c r="P178" s="81" t="s">
+      <c r="P178" s="78" t="s">
         <v>107</v>
       </c>
       <c r="Q178" s="25">
@@ -11791,14 +11435,14 @@
       <c r="AM178" s="30">
         <v>37566</v>
       </c>
-      <c r="AN178" s="120">
+      <c r="AN178" s="117">
         <v>4</v>
       </c>
-      <c r="AO178" s="106"/>
-      <c r="AP178" s="106"/>
+      <c r="AO178" s="103"/>
+      <c r="AP178" s="103"/>
     </row>
     <row r="179" spans="1:42" ht="15.75">
-      <c r="A179" s="81" t="s">
+      <c r="A179" s="78" t="s">
         <v>155</v>
       </c>
       <c r="B179" s="21">
@@ -11810,7 +11454,7 @@
       <c r="D179" s="21">
         <v>37789</v>
       </c>
-      <c r="E179" s="106"/>
+      <c r="E179" s="103"/>
       <c r="F179" s="22">
         <v>9327</v>
       </c>
@@ -11821,24 +11465,24 @@
         <f t="shared" si="28"/>
         <v>3.1199875774647889</v>
       </c>
-      <c r="I179" s="98">
+      <c r="I179" s="95">
         <v>77</v>
       </c>
-      <c r="J179" s="98">
+      <c r="J179" s="95">
         <v>76.900000000000006</v>
       </c>
-      <c r="K179" s="123"/>
+      <c r="K179" s="120"/>
       <c r="L179" s="59">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="M179" s="122">
+      <c r="M179" s="119">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="N179" s="119">
+      <c r="N179" s="116">
         <v>30</v>
       </c>
       <c r="O179" s="1"/>
-      <c r="P179" s="81" t="s">
+      <c r="P179" s="78" t="s">
         <v>108</v>
       </c>
       <c r="Q179" s="25">
@@ -11910,14 +11554,14 @@
       <c r="AM179" s="30">
         <v>37566</v>
       </c>
-      <c r="AN179" s="120">
+      <c r="AN179" s="117">
         <v>4</v>
       </c>
-      <c r="AO179" s="106"/>
-      <c r="AP179" s="106"/>
+      <c r="AO179" s="103"/>
+      <c r="AP179" s="103"/>
     </row>
     <row r="180" spans="1:42" ht="15.75">
-      <c r="A180" s="81" t="s">
+      <c r="A180" s="78" t="s">
         <v>156</v>
       </c>
       <c r="B180" s="21">
@@ -11929,7 +11573,7 @@
       <c r="D180" s="21">
         <v>35110</v>
       </c>
-      <c r="E180" s="106"/>
+      <c r="E180" s="103"/>
       <c r="F180" s="22">
         <v>4165</v>
       </c>
@@ -11940,24 +11584,24 @@
         <f t="shared" si="28"/>
         <v>2.9681975771560434</v>
       </c>
-      <c r="I180" s="98">
+      <c r="I180" s="95">
         <v>81</v>
       </c>
-      <c r="J180" s="98">
+      <c r="J180" s="95">
         <v>77.5</v>
       </c>
-      <c r="K180" s="123"/>
+      <c r="K180" s="120"/>
       <c r="L180" s="59">
         <v>1.09E-2</v>
       </c>
-      <c r="M180" s="122">
+      <c r="M180" s="119">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="N180" s="119">
+      <c r="N180" s="116">
         <v>30</v>
       </c>
       <c r="O180" s="1"/>
-      <c r="P180" s="81" t="s">
+      <c r="P180" s="78" t="s">
         <v>109</v>
       </c>
       <c r="Q180" s="25">
@@ -12029,14 +11673,14 @@
       <c r="AM180" s="30">
         <v>37566</v>
       </c>
-      <c r="AN180" s="120">
+      <c r="AN180" s="117">
         <v>4</v>
       </c>
-      <c r="AO180" s="106"/>
-      <c r="AP180" s="106"/>
+      <c r="AO180" s="103"/>
+      <c r="AP180" s="103"/>
     </row>
     <row r="181" spans="1:42" ht="15.75">
-      <c r="A181" s="81" t="s">
+      <c r="A181" s="78" t="s">
         <v>157</v>
       </c>
       <c r="B181" s="21">
@@ -12048,7 +11692,7 @@
       <c r="D181" s="21">
         <v>50446</v>
       </c>
-      <c r="E181" s="106"/>
+      <c r="E181" s="103"/>
       <c r="F181" s="22">
         <v>9939</v>
       </c>
@@ -12059,24 +11703,24 @@
         <f t="shared" si="28"/>
         <v>2.958919871923154</v>
       </c>
-      <c r="I181" s="98">
+      <c r="I181" s="95">
         <v>84</v>
       </c>
-      <c r="J181" s="98">
+      <c r="J181" s="95">
         <v>78</v>
       </c>
-      <c r="K181" s="123"/>
+      <c r="K181" s="120"/>
       <c r="L181" s="59">
         <v>1.17E-2</v>
       </c>
-      <c r="M181" s="122">
+      <c r="M181" s="119">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="N181" s="119">
+      <c r="N181" s="116">
         <v>30</v>
       </c>
       <c r="O181" s="1"/>
-      <c r="P181" s="81" t="s">
+      <c r="P181" s="78" t="s">
         <v>110</v>
       </c>
       <c r="Q181" s="25">
@@ -12148,14 +11792,14 @@
       <c r="AM181" s="30">
         <v>37566</v>
       </c>
-      <c r="AN181" s="120">
+      <c r="AN181" s="117">
         <v>4</v>
       </c>
-      <c r="AO181" s="106"/>
-      <c r="AP181" s="106"/>
+      <c r="AO181" s="103"/>
+      <c r="AP181" s="103"/>
     </row>
     <row r="182" spans="1:42" ht="15.75">
-      <c r="A182" s="81" t="s">
+      <c r="A182" s="78" t="s">
         <v>158</v>
       </c>
       <c r="B182" s="21">
@@ -12167,7 +11811,7 @@
       <c r="D182" s="21">
         <v>52337</v>
       </c>
-      <c r="E182" s="106"/>
+      <c r="E182" s="103"/>
       <c r="F182" s="22">
         <v>11262</v>
       </c>
@@ -12178,24 +11822,24 @@
         <f t="shared" si="28"/>
         <v>2.990248479532164</v>
       </c>
-      <c r="I182" s="98">
+      <c r="I182" s="95">
         <v>84</v>
       </c>
-      <c r="J182" s="98">
+      <c r="J182" s="95">
         <v>78</v>
       </c>
-      <c r="K182" s="123"/>
+      <c r="K182" s="120"/>
       <c r="L182" s="59">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="M182" s="122">
+      <c r="M182" s="119">
         <v>1.06E-2</v>
       </c>
-      <c r="N182" s="119">
+      <c r="N182" s="116">
         <v>30</v>
       </c>
       <c r="O182" s="1"/>
-      <c r="P182" s="81" t="s">
+      <c r="P182" s="78" t="s">
         <v>111</v>
       </c>
       <c r="Q182" s="25">
@@ -12267,14 +11911,14 @@
       <c r="AM182" s="30">
         <v>37566</v>
       </c>
-      <c r="AN182" s="120">
+      <c r="AN182" s="117">
         <v>4</v>
       </c>
-      <c r="AO182" s="106"/>
-      <c r="AP182" s="106"/>
+      <c r="AO182" s="103"/>
+      <c r="AP182" s="103"/>
     </row>
     <row r="183" spans="1:42" ht="15.75">
-      <c r="A183" s="81" t="s">
+      <c r="A183" s="78" t="s">
         <v>159</v>
       </c>
       <c r="B183" s="21">
@@ -12286,7 +11930,7 @@
       <c r="D183" s="21">
         <v>59554</v>
       </c>
-      <c r="E183" s="106"/>
+      <c r="E183" s="103"/>
       <c r="F183" s="22">
         <v>15842</v>
       </c>
@@ -12297,24 +11941,24 @@
         <f t="shared" si="28"/>
         <v>2.9233423882096807</v>
       </c>
-      <c r="I183" s="98">
+      <c r="I183" s="95">
         <v>88</v>
       </c>
-      <c r="J183" s="98">
+      <c r="J183" s="95">
         <v>78.599999999999994</v>
       </c>
-      <c r="K183" s="123"/>
+      <c r="K183" s="120"/>
       <c r="L183" s="59">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="M183" s="122">
+      <c r="M183" s="119">
         <v>1.15E-2</v>
       </c>
-      <c r="N183" s="119">
+      <c r="N183" s="116">
         <v>30</v>
       </c>
       <c r="O183" s="1"/>
-      <c r="P183" s="81" t="s">
+      <c r="P183" s="78" t="s">
         <v>112</v>
       </c>
       <c r="Q183" s="25">
@@ -12386,14 +12030,14 @@
       <c r="AM183" s="30">
         <v>37566</v>
       </c>
-      <c r="AN183" s="120">
+      <c r="AN183" s="117">
         <v>4</v>
       </c>
-      <c r="AO183" s="106"/>
-      <c r="AP183" s="106"/>
+      <c r="AO183" s="103"/>
+      <c r="AP183" s="103"/>
     </row>
     <row r="184" spans="1:42" ht="15.75">
-      <c r="A184" s="81" t="s">
+      <c r="A184" s="78" t="s">
         <v>160</v>
       </c>
       <c r="B184" s="21">
@@ -12405,7 +12049,7 @@
       <c r="D184" s="21">
         <v>55323</v>
       </c>
-      <c r="E184" s="106"/>
+      <c r="E184" s="103"/>
       <c r="F184" s="22">
         <v>12293</v>
       </c>
@@ -12416,24 +12060,24 @@
         <f t="shared" si="28"/>
         <v>2.9391283849918439</v>
       </c>
-      <c r="I184" s="98">
+      <c r="I184" s="95">
         <v>87</v>
       </c>
-      <c r="J184" s="98">
+      <c r="J184" s="95">
         <v>78.5</v>
       </c>
-      <c r="K184" s="123"/>
+      <c r="K184" s="120"/>
       <c r="L184" s="59">
         <v>1.34E-2</v>
       </c>
-      <c r="M184" s="122">
+      <c r="M184" s="119">
         <v>1.12E-2</v>
       </c>
-      <c r="N184" s="119">
+      <c r="N184" s="116">
         <v>30</v>
       </c>
       <c r="O184" s="1"/>
-      <c r="P184" s="81" t="s">
+      <c r="P184" s="78" t="s">
         <v>113</v>
       </c>
       <c r="Q184" s="44">
@@ -12490,7 +12134,7 @@
       <c r="AH184" s="22">
         <v>24</v>
       </c>
-      <c r="AI184" s="125">
+      <c r="AI184" s="122">
         <v>69.349999999999994</v>
       </c>
       <c r="AJ184" s="38">
@@ -12499,20 +12143,20 @@
       <c r="AK184" s="43">
         <v>16</v>
       </c>
-      <c r="AL184" s="125">
+      <c r="AL184" s="122">
         <v>11.97</v>
       </c>
       <c r="AM184" s="38">
         <v>37566</v>
       </c>
-      <c r="AN184" s="126">
+      <c r="AN184" s="123">
         <v>4</v>
       </c>
-      <c r="AO184" s="106"/>
-      <c r="AP184" s="106"/>
+      <c r="AO184" s="103"/>
+      <c r="AP184" s="103"/>
     </row>
     <row r="185" spans="1:42" ht="15.75">
-      <c r="A185" s="81" t="s">
+      <c r="A185" s="78" t="s">
         <v>161</v>
       </c>
       <c r="B185" s="21">
@@ -12524,7 +12168,7 @@
       <c r="D185" s="21">
         <v>67291</v>
       </c>
-      <c r="E185" s="106"/>
+      <c r="E185" s="103"/>
       <c r="F185" s="22">
         <v>8816</v>
       </c>
@@ -12535,24 +12179,24 @@
         <f t="shared" si="28"/>
         <v>2.9716727587765561</v>
       </c>
-      <c r="I185" s="98">
+      <c r="I185" s="95">
         <v>88</v>
       </c>
-      <c r="J185" s="98">
+      <c r="J185" s="95">
         <v>78.7</v>
       </c>
-      <c r="K185" s="123"/>
+      <c r="K185" s="120"/>
       <c r="L185" s="59">
         <v>1.15E-2</v>
       </c>
-      <c r="M185" s="122">
+      <c r="M185" s="119">
         <v>1.03E-2</v>
       </c>
-      <c r="N185" s="119">
+      <c r="N185" s="116">
         <v>30</v>
       </c>
       <c r="O185" s="1"/>
-      <c r="P185" s="81" t="s">
+      <c r="P185" s="78" t="s">
         <v>115</v>
       </c>
       <c r="Q185" s="25">
@@ -12612,7 +12256,7 @@
         <f t="shared" ref="AJ185:AK192" si="29">AJ269</f>
         <v>0</v>
       </c>
-      <c r="AK185" s="120">
+      <c r="AK185" s="117">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -12623,15 +12267,15 @@
         <f t="shared" ref="AM185:AN192" si="30">AM269</f>
         <v>0</v>
       </c>
-      <c r="AN185" s="120">
+      <c r="AN185" s="117">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO185" s="106"/>
-      <c r="AP185" s="106"/>
+      <c r="AO185" s="103"/>
+      <c r="AP185" s="103"/>
     </row>
     <row r="186" spans="1:42" ht="15.75">
-      <c r="A186" s="81" t="s">
+      <c r="A186" s="78" t="s">
         <v>162</v>
       </c>
       <c r="B186" s="21">
@@ -12643,7 +12287,7 @@
       <c r="D186" s="21">
         <v>70994</v>
       </c>
-      <c r="E186" s="106"/>
+      <c r="E186" s="103"/>
       <c r="F186" s="22">
         <v>10816</v>
       </c>
@@ -12654,24 +12298,24 @@
         <f t="shared" si="28"/>
         <v>2.9502823479370481</v>
       </c>
-      <c r="I186" s="98">
+      <c r="I186" s="95">
         <v>89</v>
       </c>
-      <c r="J186" s="98">
+      <c r="J186" s="95">
         <v>78.900000000000006</v>
       </c>
-      <c r="K186" s="123"/>
+      <c r="K186" s="120"/>
       <c r="L186" s="59">
         <v>1.21E-2</v>
       </c>
-      <c r="M186" s="122">
+      <c r="M186" s="119">
         <v>1.03E-2</v>
       </c>
-      <c r="N186" s="119">
+      <c r="N186" s="116">
         <v>30</v>
       </c>
       <c r="O186" s="1"/>
-      <c r="P186" s="81" t="s">
+      <c r="P186" s="78" t="s">
         <v>117</v>
       </c>
       <c r="Q186" s="25">
@@ -12731,7 +12375,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AK186" s="120">
+      <c r="AK186" s="117">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -12742,15 +12386,15 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AN186" s="120">
+      <c r="AN186" s="117">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO186" s="106"/>
-      <c r="AP186" s="106"/>
+      <c r="AO186" s="103"/>
+      <c r="AP186" s="103"/>
     </row>
     <row r="187" spans="1:42" ht="15.75">
-      <c r="A187" s="81" t="s">
+      <c r="A187" s="78" t="s">
         <v>61</v>
       </c>
       <c r="B187" s="21">
@@ -12762,7 +12406,7 @@
       <c r="D187" s="21">
         <v>86616</v>
       </c>
-      <c r="E187" s="106"/>
+      <c r="E187" s="103"/>
       <c r="F187" s="22">
         <v>10886</v>
       </c>
@@ -12773,24 +12417,24 @@
         <f t="shared" si="28"/>
         <v>3.0143848966991214</v>
       </c>
-      <c r="I187" s="98">
+      <c r="I187" s="95">
         <v>90</v>
       </c>
-      <c r="J187" s="98">
+      <c r="J187" s="95">
         <v>79</v>
       </c>
-      <c r="K187" s="123"/>
+      <c r="K187" s="120"/>
       <c r="L187" s="59">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="M187" s="122">
+      <c r="M187" s="119">
         <v>1.01E-2</v>
       </c>
-      <c r="N187" s="119">
+      <c r="N187" s="116">
         <v>30</v>
       </c>
       <c r="O187" s="1"/>
-      <c r="P187" s="81" t="s">
+      <c r="P187" s="78" t="s">
         <v>119</v>
       </c>
       <c r="Q187" s="25">
@@ -12850,7 +12494,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AK187" s="120">
+      <c r="AK187" s="117">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -12861,15 +12505,15 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AN187" s="120">
+      <c r="AN187" s="117">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO187" s="106"/>
-      <c r="AP187" s="106"/>
+      <c r="AO187" s="103"/>
+      <c r="AP187" s="103"/>
     </row>
     <row r="188" spans="1:42" ht="15.75">
-      <c r="A188" s="81" t="s">
+      <c r="A188" s="78" t="s">
         <v>163</v>
       </c>
       <c r="B188" s="21">
@@ -12881,7 +12525,7 @@
       <c r="D188" s="21">
         <v>94101</v>
       </c>
-      <c r="E188" s="106"/>
+      <c r="E188" s="103"/>
       <c r="F188" s="22">
         <v>17240</v>
       </c>
@@ -12892,24 +12536,24 @@
         <f t="shared" si="28"/>
         <v>3.0679647497219134</v>
       </c>
-      <c r="I188" s="98">
+      <c r="I188" s="95">
         <v>90</v>
       </c>
-      <c r="J188" s="98">
+      <c r="J188" s="95">
         <v>79.099999999999994</v>
       </c>
-      <c r="K188" s="123"/>
+      <c r="K188" s="120"/>
       <c r="L188" s="59">
         <v>1.44E-2</v>
       </c>
-      <c r="M188" s="122">
+      <c r="M188" s="119">
         <v>1.06E-2</v>
       </c>
-      <c r="N188" s="119">
+      <c r="N188" s="116">
         <v>29.9</v>
       </c>
       <c r="O188" s="1"/>
-      <c r="P188" s="81" t="s">
+      <c r="P188" s="78" t="s">
         <v>120</v>
       </c>
       <c r="Q188" s="25">
@@ -12969,7 +12613,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AK188" s="120">
+      <c r="AK188" s="117">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -12980,15 +12624,15 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AN188" s="120">
+      <c r="AN188" s="117">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO188" s="106"/>
-      <c r="AP188" s="106"/>
+      <c r="AO188" s="103"/>
+      <c r="AP188" s="103"/>
     </row>
     <row r="189" spans="1:42" ht="15.75">
-      <c r="A189" s="81" t="s">
+      <c r="A189" s="78" t="s">
         <v>164</v>
       </c>
       <c r="B189" s="21">
@@ -13000,7 +12644,7 @@
       <c r="D189" s="21">
         <v>62111</v>
       </c>
-      <c r="E189" s="106"/>
+      <c r="E189" s="103"/>
       <c r="F189" s="22">
         <v>15713</v>
       </c>
@@ -13011,24 +12655,24 @@
         <f t="shared" si="28"/>
         <v>2.9006905831739962</v>
       </c>
-      <c r="I189" s="98">
+      <c r="I189" s="95">
         <v>89</v>
       </c>
-      <c r="J189" s="98">
+      <c r="J189" s="95">
         <v>78.900000000000006</v>
       </c>
-      <c r="K189" s="123"/>
+      <c r="K189" s="120"/>
       <c r="L189" s="59">
         <v>1.46E-2</v>
       </c>
-      <c r="M189" s="122">
+      <c r="M189" s="119">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="N189" s="119">
+      <c r="N189" s="116">
         <v>29.9</v>
       </c>
       <c r="O189" s="1"/>
-      <c r="P189" s="81" t="s">
+      <c r="P189" s="78" t="s">
         <v>121</v>
       </c>
       <c r="Q189" s="25">
@@ -13088,7 +12732,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AK189" s="120">
+      <c r="AK189" s="117">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -13099,15 +12743,15 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AN189" s="120">
+      <c r="AN189" s="117">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO189" s="106"/>
-      <c r="AP189" s="106"/>
+      <c r="AO189" s="103"/>
+      <c r="AP189" s="103"/>
     </row>
     <row r="190" spans="1:42" ht="15.75">
-      <c r="A190" s="81" t="s">
+      <c r="A190" s="78" t="s">
         <v>165</v>
       </c>
       <c r="B190" s="21">
@@ -13119,7 +12763,7 @@
       <c r="D190" s="21">
         <v>61185</v>
       </c>
-      <c r="E190" s="106"/>
+      <c r="E190" s="103"/>
       <c r="F190" s="22">
         <v>17412</v>
       </c>
@@ -13130,24 +12774,24 @@
         <f t="shared" si="28"/>
         <v>2.9495597861842109</v>
       </c>
-      <c r="I190" s="98">
+      <c r="I190" s="95">
         <v>88</v>
       </c>
-      <c r="J190" s="98">
+      <c r="J190" s="95">
         <v>78.7</v>
       </c>
-      <c r="K190" s="123"/>
+      <c r="K190" s="120"/>
       <c r="L190" s="59">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="M190" s="122">
+      <c r="M190" s="119">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="N190" s="119">
+      <c r="N190" s="116">
         <v>29.9</v>
       </c>
       <c r="O190" s="1"/>
-      <c r="P190" s="81" t="s">
+      <c r="P190" s="78" t="s">
         <v>122</v>
       </c>
       <c r="Q190" s="25">
@@ -13168,7 +12812,7 @@
       <c r="V190" s="24">
         <v>12</v>
       </c>
-      <c r="W190" s="127">
+      <c r="W190" s="124">
         <v>25.06</v>
       </c>
       <c r="X190" s="30">
@@ -13186,7 +12830,7 @@
       <c r="AB190" s="22">
         <v>12</v>
       </c>
-      <c r="AC190" s="128">
+      <c r="AC190" s="125">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="AD190" s="30">
@@ -13198,8 +12842,8 @@
       <c r="AF190" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="AG190" s="80"/>
-      <c r="AH190" s="80"/>
+      <c r="AG190" s="77"/>
+      <c r="AH190" s="77"/>
       <c r="AI190" s="21" t="s">
         <v>191</v>
       </c>
@@ -13207,7 +12851,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AK190" s="120">
+      <c r="AK190" s="117">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -13218,15 +12862,15 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AN190" s="120">
+      <c r="AN190" s="117">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO190" s="106"/>
-      <c r="AP190" s="106"/>
+      <c r="AO190" s="103"/>
+      <c r="AP190" s="103"/>
     </row>
     <row r="191" spans="1:42" ht="15.75">
-      <c r="A191" s="81" t="s">
+      <c r="A191" s="78" t="s">
         <v>166</v>
       </c>
       <c r="B191" s="21">
@@ -13238,7 +12882,7 @@
       <c r="D191" s="21">
         <v>54630</v>
       </c>
-      <c r="E191" s="106"/>
+      <c r="E191" s="103"/>
       <c r="F191" s="22">
         <v>14113</v>
       </c>
@@ -13249,24 +12893,24 @@
         <f t="shared" si="28"/>
         <v>3.0839855546995381</v>
       </c>
-      <c r="I191" s="98">
+      <c r="I191" s="95">
         <v>83</v>
       </c>
-      <c r="J191" s="98">
+      <c r="J191" s="95">
         <v>77.900000000000006</v>
       </c>
-      <c r="K191" s="123"/>
+      <c r="K191" s="120"/>
       <c r="L191" s="59">
         <v>1.43E-2</v>
       </c>
-      <c r="M191" s="122">
+      <c r="M191" s="119">
         <v>1.15E-2</v>
       </c>
-      <c r="N191" s="119">
+      <c r="N191" s="116">
         <v>29.9</v>
       </c>
       <c r="O191" s="1"/>
-      <c r="P191" s="81" t="s">
+      <c r="P191" s="78" t="s">
         <v>123</v>
       </c>
       <c r="Q191" s="25">
@@ -13287,7 +12931,7 @@
       <c r="V191" s="43">
         <v>12</v>
       </c>
-      <c r="W191" s="127">
+      <c r="W191" s="124">
         <v>15.11</v>
       </c>
       <c r="X191" s="30">
@@ -13305,7 +12949,7 @@
       <c r="AB191" s="22">
         <v>12</v>
       </c>
-      <c r="AC191" s="128">
+      <c r="AC191" s="125">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD191" s="30">
@@ -13317,8 +12961,8 @@
       <c r="AF191" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="AG191" s="80"/>
-      <c r="AH191" s="80"/>
+      <c r="AG191" s="77"/>
+      <c r="AH191" s="77"/>
       <c r="AI191" s="21" t="s">
         <v>191</v>
       </c>
@@ -13326,7 +12970,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AK191" s="120">
+      <c r="AK191" s="117">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -13337,15 +12981,15 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AN191" s="120">
+      <c r="AN191" s="117">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO191" s="106"/>
-      <c r="AP191" s="106"/>
+      <c r="AO191" s="103"/>
+      <c r="AP191" s="103"/>
     </row>
     <row r="192" spans="1:42" ht="15.75">
-      <c r="A192" s="81" t="s">
+      <c r="A192" s="78" t="s">
         <v>167</v>
       </c>
       <c r="B192" s="21">
@@ -13357,7 +13001,7 @@
       <c r="D192" s="21">
         <v>58281</v>
       </c>
-      <c r="E192" s="106"/>
+      <c r="E192" s="103"/>
       <c r="F192" s="22">
         <v>18935</v>
       </c>
@@ -13368,24 +13012,24 @@
         <f t="shared" si="28"/>
         <v>3.1851876002237556</v>
       </c>
-      <c r="I192" s="98">
+      <c r="I192" s="95">
         <v>81</v>
       </c>
-      <c r="J192" s="98">
+      <c r="J192" s="95">
         <v>77.599999999999994</v>
       </c>
-      <c r="K192" s="123"/>
+      <c r="K192" s="120"/>
       <c r="L192" s="59">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="M192" s="122">
+      <c r="M192" s="119">
         <v>1.21E-2</v>
       </c>
-      <c r="N192" s="119">
+      <c r="N192" s="116">
         <v>30</v>
       </c>
       <c r="O192" s="1"/>
-      <c r="P192" s="82" t="s">
+      <c r="P192" s="79" t="s">
         <v>124</v>
       </c>
       <c r="Q192" s="44">
@@ -13406,38 +13050,38 @@
       <c r="V192" s="43">
         <v>12</v>
       </c>
-      <c r="W192" s="129">
+      <c r="W192" s="126">
         <v>35</v>
       </c>
-      <c r="X192" s="130">
+      <c r="X192" s="127">
         <v>37732</v>
       </c>
-      <c r="Y192" s="131">
+      <c r="Y192" s="128">
         <v>15</v>
       </c>
-      <c r="Z192" s="125">
+      <c r="Z192" s="122">
         <v>8.17</v>
       </c>
       <c r="AA192" s="38">
         <v>38341</v>
       </c>
-      <c r="AB192" s="132">
+      <c r="AB192" s="129">
         <v>13</v>
       </c>
-      <c r="AC192" s="133">
+      <c r="AC192" s="130">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="AD192" s="130">
+      <c r="AD192" s="127">
         <v>38188</v>
       </c>
-      <c r="AE192" s="131">
+      <c r="AE192" s="128">
         <v>15</v>
       </c>
       <c r="AF192" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="AG192" s="131"/>
-      <c r="AH192" s="131"/>
+      <c r="AG192" s="128"/>
+      <c r="AH192" s="128"/>
       <c r="AI192" s="41" t="s">
         <v>191</v>
       </c>
@@ -13445,7 +13089,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AK192" s="126">
+      <c r="AK192" s="123">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -13456,15 +13100,15 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AN192" s="126">
+      <c r="AN192" s="123">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO192" s="106"/>
-      <c r="AP192" s="106"/>
+      <c r="AO192" s="103"/>
+      <c r="AP192" s="103"/>
     </row>
     <row r="193" spans="1:40" ht="15.75">
-      <c r="A193" s="81" t="s">
+      <c r="A193" s="78" t="s">
         <v>168</v>
       </c>
       <c r="B193" s="21">
@@ -13476,7 +13120,7 @@
       <c r="D193" s="21">
         <v>45839</v>
       </c>
-      <c r="E193" s="106"/>
+      <c r="E193" s="103"/>
       <c r="F193" s="22">
         <v>14101</v>
       </c>
@@ -13487,20 +13131,20 @@
         <f t="shared" si="28"/>
         <v>3.1114893237610008</v>
       </c>
-      <c r="I193" s="98">
+      <c r="I193" s="95">
         <v>81</v>
       </c>
-      <c r="J193" s="98">
+      <c r="J193" s="95">
         <v>77.599999999999994</v>
       </c>
-      <c r="K193" s="123"/>
+      <c r="K193" s="120"/>
       <c r="L193" s="59">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="M193" s="122">
+      <c r="M193" s="119">
         <v>1.21E-2</v>
       </c>
-      <c r="N193" s="119">
+      <c r="N193" s="116">
         <v>30</v>
       </c>
       <c r="O193" s="1"/>
@@ -13531,7 +13175,7 @@
       <c r="AN193" s="1"/>
     </row>
     <row r="194" spans="1:40" ht="15.75">
-      <c r="A194" s="81" t="s">
+      <c r="A194" s="78" t="s">
         <v>169</v>
       </c>
       <c r="B194" s="21">
@@ -13543,7 +13187,7 @@
       <c r="D194" s="21">
         <v>45310</v>
       </c>
-      <c r="E194" s="106"/>
+      <c r="E194" s="103"/>
       <c r="F194" s="22">
         <v>14694</v>
       </c>
@@ -13554,20 +13198,20 @@
         <f t="shared" si="28"/>
         <v>3.1440248579545456</v>
       </c>
-      <c r="I194" s="98">
+      <c r="I194" s="95">
         <v>80</v>
       </c>
-      <c r="J194" s="98">
+      <c r="J194" s="95">
         <v>77.400000000000006</v>
       </c>
-      <c r="K194" s="123"/>
+      <c r="K194" s="120"/>
       <c r="L194" s="59">
         <v>1.67E-2</v>
       </c>
-      <c r="M194" s="122">
+      <c r="M194" s="119">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="N194" s="119">
+      <c r="N194" s="116">
         <v>30</v>
       </c>
       <c r="O194" s="1"/>
@@ -13598,7 +13242,7 @@
       <c r="AN194" s="1"/>
     </row>
     <row r="195" spans="1:40" ht="15.75">
-      <c r="A195" s="81" t="s">
+      <c r="A195" s="78" t="s">
         <v>170</v>
       </c>
       <c r="B195" s="21">
@@ -13610,7 +13254,7 @@
       <c r="D195" s="21">
         <v>45008</v>
       </c>
-      <c r="E195" s="106"/>
+      <c r="E195" s="103"/>
       <c r="F195" s="22">
         <v>15027</v>
       </c>
@@ -13621,20 +13265,20 @@
         <f t="shared" si="28"/>
         <v>3.1825922316043429</v>
       </c>
-      <c r="I195" s="98">
+      <c r="I195" s="95">
         <v>79</v>
       </c>
-      <c r="J195" s="98">
+      <c r="J195" s="95">
         <v>77.2</v>
       </c>
-      <c r="K195" s="123"/>
+      <c r="K195" s="120"/>
       <c r="L195" s="59">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="M195" s="122">
+      <c r="M195" s="119">
         <v>1.23E-2</v>
       </c>
-      <c r="N195" s="119">
+      <c r="N195" s="116">
         <v>30</v>
       </c>
       <c r="O195" s="1"/>
@@ -13665,7 +13309,7 @@
       <c r="AN195" s="1"/>
     </row>
     <row r="196" spans="1:40" ht="15.75">
-      <c r="A196" s="134" t="s">
+      <c r="A196" s="131" t="s">
         <v>171</v>
       </c>
       <c r="B196" s="41">
@@ -13677,7 +13321,7 @@
       <c r="D196" s="41">
         <v>46825</v>
       </c>
-      <c r="E196" s="97"/>
+      <c r="E196" s="94"/>
       <c r="F196" s="39">
         <v>16804</v>
       </c>
@@ -13688,20 +13332,20 @@
         <f t="shared" si="28"/>
         <v>3.2014013296011199</v>
       </c>
-      <c r="I196" s="135">
+      <c r="I196" s="132">
         <v>79</v>
       </c>
-      <c r="J196" s="136">
+      <c r="J196" s="133">
         <v>77.2</v>
       </c>
-      <c r="K196" s="137"/>
+      <c r="K196" s="134"/>
       <c r="L196" s="59">
         <v>1.78E-2</v>
       </c>
-      <c r="M196" s="122">
+      <c r="M196" s="119">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="N196" s="119">
+      <c r="N196" s="116">
         <v>30</v>
       </c>
       <c r="O196" s="1"/>
@@ -13732,20 +13376,20 @@
       <c r="AN196" s="1"/>
     </row>
     <row r="197" spans="1:40" ht="15.75">
-      <c r="A197" s="80"/>
-      <c r="B197" s="80"/>
-      <c r="C197" s="80"/>
-      <c r="D197" s="80"/>
-      <c r="E197" s="80"/>
-      <c r="F197" s="80"/>
-      <c r="G197" s="80"/>
-      <c r="H197" s="80"/>
-      <c r="I197" s="80"/>
-      <c r="J197" s="80"/>
-      <c r="K197" s="80"/>
-      <c r="L197" s="80"/>
+      <c r="A197" s="77"/>
+      <c r="B197" s="77"/>
+      <c r="C197" s="77"/>
+      <c r="D197" s="77"/>
+      <c r="E197" s="77"/>
+      <c r="F197" s="77"/>
+      <c r="G197" s="77"/>
+      <c r="H197" s="77"/>
+      <c r="I197" s="77"/>
+      <c r="J197" s="77"/>
+      <c r="K197" s="77"/>
+      <c r="L197" s="77"/>
       <c r="M197" s="1"/>
-      <c r="N197" s="80"/>
+      <c r="N197" s="77"/>
       <c r="O197" s="1"/>
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
@@ -13774,20 +13418,20 @@
       <c r="AN197" s="1"/>
     </row>
     <row r="198" spans="1:40" ht="15.75">
-      <c r="A198" s="80"/>
-      <c r="B198" s="80"/>
-      <c r="C198" s="80"/>
-      <c r="D198" s="80"/>
-      <c r="E198" s="80"/>
-      <c r="F198" s="80"/>
-      <c r="G198" s="80"/>
-      <c r="H198" s="80"/>
-      <c r="I198" s="80"/>
-      <c r="J198" s="80"/>
-      <c r="K198" s="80"/>
-      <c r="L198" s="80"/>
+      <c r="A198" s="77"/>
+      <c r="B198" s="77"/>
+      <c r="C198" s="77"/>
+      <c r="D198" s="77"/>
+      <c r="E198" s="77"/>
+      <c r="F198" s="77"/>
+      <c r="G198" s="77"/>
+      <c r="H198" s="77"/>
+      <c r="I198" s="77"/>
+      <c r="J198" s="77"/>
+      <c r="K198" s="77"/>
+      <c r="L198" s="77"/>
       <c r="M198" s="1"/>
-      <c r="N198" s="80"/>
+      <c r="N198" s="77"/>
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
@@ -13816,22 +13460,22 @@
       <c r="AN198" s="1"/>
     </row>
     <row r="199" spans="1:40" ht="15.75">
-      <c r="A199" s="74"/>
-      <c r="B199" s="74" t="s">
+      <c r="A199" s="71"/>
+      <c r="B199" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="C199" s="75"/>
-      <c r="D199" s="75"/>
-      <c r="E199" s="75"/>
-      <c r="F199" s="75"/>
-      <c r="G199" s="75"/>
-      <c r="H199" s="75"/>
-      <c r="I199" s="75"/>
-      <c r="J199" s="75"/>
-      <c r="K199" s="75"/>
-      <c r="L199" s="76"/>
+      <c r="C199" s="72"/>
+      <c r="D199" s="72"/>
+      <c r="E199" s="72"/>
+      <c r="F199" s="72"/>
+      <c r="G199" s="72"/>
+      <c r="H199" s="72"/>
+      <c r="I199" s="72"/>
+      <c r="J199" s="72"/>
+      <c r="K199" s="72"/>
+      <c r="L199" s="73"/>
       <c r="M199" s="1"/>
-      <c r="N199" s="80"/>
+      <c r="N199" s="77"/>
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
@@ -13860,18 +13504,18 @@
       <c r="AN199" s="1"/>
     </row>
     <row r="200" spans="1:40" ht="15.75">
-      <c r="A200" s="81"/>
-      <c r="B200" s="82"/>
-      <c r="C200" s="83"/>
-      <c r="D200" s="83"/>
-      <c r="E200" s="83"/>
-      <c r="F200" s="83"/>
-      <c r="G200" s="83"/>
-      <c r="H200" s="83"/>
-      <c r="I200" s="83"/>
-      <c r="J200" s="83"/>
-      <c r="K200" s="83"/>
-      <c r="L200" s="84"/>
+      <c r="A200" s="78"/>
+      <c r="B200" s="79"/>
+      <c r="C200" s="80"/>
+      <c r="D200" s="80"/>
+      <c r="E200" s="80"/>
+      <c r="F200" s="80"/>
+      <c r="G200" s="80"/>
+      <c r="H200" s="80"/>
+      <c r="I200" s="80"/>
+      <c r="J200" s="80"/>
+      <c r="K200" s="80"/>
+      <c r="L200" s="81"/>
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
@@ -13902,24 +13546,24 @@
       <c r="AN200" s="1"/>
     </row>
     <row r="201" spans="1:40" ht="15.75">
-      <c r="A201" s="81"/>
-      <c r="B201" s="138" t="s">
+      <c r="A201" s="78"/>
+      <c r="B201" s="140" t="s">
         <v>130</v>
       </c>
-      <c r="C201" s="139"/>
-      <c r="D201" s="139"/>
-      <c r="E201" s="140"/>
-      <c r="F201" s="81" t="s">
+      <c r="C201" s="141"/>
+      <c r="D201" s="141"/>
+      <c r="E201" s="142"/>
+      <c r="F201" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="G201" s="80"/>
-      <c r="H201" s="80"/>
-      <c r="I201" s="90" t="s">
+      <c r="G201" s="77"/>
+      <c r="H201" s="77"/>
+      <c r="I201" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="J201" s="113"/>
-      <c r="K201" s="74"/>
-      <c r="L201" s="76"/>
+      <c r="J201" s="110"/>
+      <c r="K201" s="71"/>
+      <c r="L201" s="73"/>
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
@@ -13950,10 +13594,10 @@
       <c r="AN201" s="1"/>
     </row>
     <row r="202" spans="1:40" ht="15.75">
-      <c r="A202" s="81" t="s">
+      <c r="A202" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B202" s="90" t="s">
+      <c r="B202" s="87" t="s">
         <v>78</v>
       </c>
       <c r="C202" s="17" t="s">
@@ -13968,22 +13612,22 @@
       <c r="F202" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="G202" s="85" t="s">
+      <c r="G202" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="H202" s="85" t="s">
+      <c r="H202" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="I202" s="90" t="s">
+      <c r="I202" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="J202" s="115" t="s">
+      <c r="J202" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="K202" s="90" t="s">
+      <c r="K202" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="L202" s="86" t="s">
+      <c r="L202" s="83" t="s">
         <v>139</v>
       </c>
       <c r="M202" s="1"/>
@@ -14016,8 +13660,8 @@
       <c r="AN202" s="1"/>
     </row>
     <row r="203" spans="1:40" ht="15.75">
-      <c r="A203" s="82"/>
-      <c r="B203" s="91" t="s">
+      <c r="A203" s="79"/>
+      <c r="B203" s="88" t="s">
         <v>145</v>
       </c>
       <c r="C203" s="18" t="s">
@@ -14038,14 +13682,14 @@
       <c r="H203" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="I203" s="91" t="s">
+      <c r="I203" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="J203" s="116"/>
-      <c r="K203" s="91" t="s">
+      <c r="J203" s="113"/>
+      <c r="K203" s="88" t="s">
         <v>184</v>
       </c>
-      <c r="L203" s="93" t="s">
+      <c r="L203" s="90" t="s">
         <v>184</v>
       </c>
       <c r="M203" s="1"/>
@@ -14078,7 +13722,7 @@
       <c r="AN203" s="1"/>
     </row>
     <row r="204" spans="1:40" ht="15.75">
-      <c r="A204" s="141" t="s">
+      <c r="A204" s="135" t="s">
         <v>176</v>
       </c>
       <c r="B204" s="21"/>
@@ -14088,7 +13732,7 @@
       <c r="D204" s="22">
         <v>9339</v>
       </c>
-      <c r="E204" s="80">
+      <c r="E204" s="77">
         <v>11196</v>
       </c>
       <c r="F204" s="21">
@@ -14105,10 +13749,10 @@
         <f>F204*0.2931/C204</f>
         <v>3.9136115288250317</v>
       </c>
-      <c r="K204" s="80">
+      <c r="K204" s="77">
         <v>62.3</v>
       </c>
-      <c r="L204" s="80">
+      <c r="L204" s="77">
         <v>76.900000000000006</v>
       </c>
       <c r="M204" s="1"/>
@@ -14141,7 +13785,7 @@
       <c r="AN204" s="1"/>
     </row>
     <row r="205" spans="1:40" ht="15.75">
-      <c r="A205" s="142" t="s">
+      <c r="A205" s="136" t="s">
         <v>177</v>
       </c>
       <c r="B205" s="41"/>
@@ -14151,7 +13795,7 @@
       <c r="D205" s="39">
         <v>10232</v>
       </c>
-      <c r="E205" s="83">
+      <c r="E205" s="80">
         <v>12347</v>
       </c>
       <c r="F205" s="41">
@@ -14171,7 +13815,7 @@
       <c r="K205" s="22">
         <v>85.1</v>
       </c>
-      <c r="L205" s="98">
+      <c r="L205" s="95">
         <v>77</v>
       </c>
       <c r="M205" s="1"/>
@@ -14204,18 +13848,18 @@
       <c r="AN205" s="1"/>
     </row>
     <row r="206" spans="1:40" ht="15.75">
-      <c r="A206" s="80"/>
-      <c r="B206" s="80"/>
-      <c r="C206" s="80"/>
-      <c r="D206" s="80"/>
-      <c r="E206" s="80"/>
-      <c r="F206" s="80"/>
-      <c r="G206" s="80"/>
-      <c r="H206" s="80"/>
-      <c r="I206" s="80"/>
-      <c r="J206" s="80"/>
-      <c r="K206" s="80"/>
-      <c r="L206" s="80"/>
+      <c r="A206" s="77"/>
+      <c r="B206" s="77"/>
+      <c r="C206" s="77"/>
+      <c r="D206" s="77"/>
+      <c r="E206" s="77"/>
+      <c r="F206" s="77"/>
+      <c r="G206" s="77"/>
+      <c r="H206" s="77"/>
+      <c r="I206" s="77"/>
+      <c r="J206" s="77"/>
+      <c r="K206" s="77"/>
+      <c r="L206" s="77"/>
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
@@ -14246,18 +13890,18 @@
       <c r="AN206" s="1"/>
     </row>
     <row r="207" spans="1:40" ht="15.75">
-      <c r="A207" s="80"/>
-      <c r="B207" s="80"/>
-      <c r="C207" s="80"/>
-      <c r="D207" s="80"/>
-      <c r="E207" s="80"/>
-      <c r="F207" s="80"/>
-      <c r="G207" s="80"/>
-      <c r="H207" s="80"/>
-      <c r="I207" s="80"/>
-      <c r="J207" s="80"/>
-      <c r="K207" s="80"/>
-      <c r="L207" s="80"/>
+      <c r="A207" s="77"/>
+      <c r="B207" s="77"/>
+      <c r="C207" s="77"/>
+      <c r="D207" s="77"/>
+      <c r="E207" s="77"/>
+      <c r="F207" s="77"/>
+      <c r="G207" s="77"/>
+      <c r="H207" s="77"/>
+      <c r="I207" s="77"/>
+      <c r="J207" s="77"/>
+      <c r="K207" s="77"/>
+      <c r="L207" s="77"/>
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
@@ -14288,20 +13932,20 @@
       <c r="AN207" s="1"/>
     </row>
     <row r="208" spans="1:40" ht="15.75">
-      <c r="A208" s="74"/>
-      <c r="B208" s="74" t="s">
+      <c r="A208" s="71"/>
+      <c r="B208" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="C208" s="75"/>
-      <c r="D208" s="75"/>
-      <c r="E208" s="75"/>
-      <c r="F208" s="75"/>
-      <c r="G208" s="75"/>
-      <c r="H208" s="75"/>
-      <c r="I208" s="75"/>
-      <c r="J208" s="75"/>
-      <c r="K208" s="75"/>
-      <c r="L208" s="76"/>
+      <c r="C208" s="72"/>
+      <c r="D208" s="72"/>
+      <c r="E208" s="72"/>
+      <c r="F208" s="72"/>
+      <c r="G208" s="72"/>
+      <c r="H208" s="72"/>
+      <c r="I208" s="72"/>
+      <c r="J208" s="72"/>
+      <c r="K208" s="72"/>
+      <c r="L208" s="73"/>
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
@@ -14332,18 +13976,18 @@
       <c r="AN208" s="1"/>
     </row>
     <row r="209" spans="1:40" ht="15.75">
-      <c r="A209" s="81"/>
-      <c r="B209" s="82"/>
-      <c r="C209" s="83"/>
-      <c r="D209" s="83"/>
-      <c r="E209" s="83"/>
-      <c r="F209" s="83"/>
-      <c r="G209" s="83"/>
-      <c r="H209" s="83"/>
-      <c r="I209" s="83"/>
-      <c r="J209" s="83"/>
-      <c r="K209" s="83"/>
-      <c r="L209" s="84"/>
+      <c r="A209" s="78"/>
+      <c r="B209" s="79"/>
+      <c r="C209" s="80"/>
+      <c r="D209" s="80"/>
+      <c r="E209" s="80"/>
+      <c r="F209" s="80"/>
+      <c r="G209" s="80"/>
+      <c r="H209" s="80"/>
+      <c r="I209" s="80"/>
+      <c r="J209" s="80"/>
+      <c r="K209" s="80"/>
+      <c r="L209" s="81"/>
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
@@ -14374,24 +14018,24 @@
       <c r="AN209" s="1"/>
     </row>
     <row r="210" spans="1:40" ht="15.75">
-      <c r="A210" s="81"/>
-      <c r="B210" s="138" t="s">
+      <c r="A210" s="78"/>
+      <c r="B210" s="140" t="s">
         <v>130</v>
       </c>
-      <c r="C210" s="139"/>
-      <c r="D210" s="139"/>
-      <c r="E210" s="140"/>
-      <c r="F210" s="81" t="s">
+      <c r="C210" s="141"/>
+      <c r="D210" s="141"/>
+      <c r="E210" s="142"/>
+      <c r="F210" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="G210" s="80"/>
-      <c r="H210" s="80"/>
-      <c r="I210" s="90" t="s">
+      <c r="G210" s="77"/>
+      <c r="H210" s="77"/>
+      <c r="I210" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="J210" s="113"/>
-      <c r="K210" s="74"/>
-      <c r="L210" s="76"/>
+      <c r="J210" s="110"/>
+      <c r="K210" s="71"/>
+      <c r="L210" s="73"/>
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
@@ -14422,10 +14066,10 @@
       <c r="AN210" s="1"/>
     </row>
     <row r="211" spans="1:40" ht="15.75">
-      <c r="A211" s="81" t="s">
+      <c r="A211" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="B211" s="90" t="s">
+      <c r="B211" s="87" t="s">
         <v>78</v>
       </c>
       <c r="C211" s="17" t="s">
@@ -14440,22 +14084,22 @@
       <c r="F211" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="G211" s="85" t="s">
+      <c r="G211" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="H211" s="85" t="s">
+      <c r="H211" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="I211" s="90" t="s">
+      <c r="I211" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="J211" s="115" t="s">
+      <c r="J211" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="K211" s="90" t="s">
+      <c r="K211" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="L211" s="86" t="s">
+      <c r="L211" s="83" t="s">
         <v>139</v>
       </c>
       <c r="M211" s="1"/>
@@ -14488,8 +14132,8 @@
       <c r="AN211" s="1"/>
     </row>
     <row r="212" spans="1:40" ht="15.75">
-      <c r="A212" s="82"/>
-      <c r="B212" s="91" t="s">
+      <c r="A212" s="79"/>
+      <c r="B212" s="88" t="s">
         <v>145</v>
       </c>
       <c r="C212" s="18" t="s">
@@ -14510,14 +14154,14 @@
       <c r="H212" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="I212" s="91" t="s">
+      <c r="I212" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="J212" s="116"/>
-      <c r="K212" s="91" t="s">
+      <c r="J212" s="113"/>
+      <c r="K212" s="88" t="s">
         <v>184</v>
       </c>
-      <c r="L212" s="93" t="s">
+      <c r="L212" s="90" t="s">
         <v>184</v>
       </c>
       <c r="M212" s="1"/>
@@ -14550,7 +14194,7 @@
       <c r="AN212" s="1"/>
     </row>
     <row r="213" spans="1:40" ht="15.75">
-      <c r="A213" s="141" t="s">
+      <c r="A213" s="135" t="s">
         <v>176</v>
       </c>
       <c r="B213" s="21"/>
@@ -14560,7 +14204,7 @@
       <c r="D213" s="22">
         <v>7468</v>
       </c>
-      <c r="E213" s="80">
+      <c r="E213" s="77">
         <v>8659</v>
       </c>
       <c r="F213" s="21">
@@ -14577,10 +14221,10 @@
         <f>F213*0.2931/C213</f>
         <v>3.5988153449844984</v>
       </c>
-      <c r="K213" s="80">
+      <c r="K213" s="77">
         <v>62.3</v>
       </c>
-      <c r="L213" s="80">
+      <c r="L213" s="77">
         <v>76.900000000000006</v>
       </c>
       <c r="M213" s="1"/>
@@ -14613,7 +14257,7 @@
       <c r="AN213" s="1"/>
     </row>
     <row r="214" spans="1:40" ht="15.75">
-      <c r="A214" s="142" t="s">
+      <c r="A214" s="136" t="s">
         <v>177</v>
       </c>
       <c r="B214" s="41"/>
@@ -14623,7 +14267,7 @@
       <c r="D214" s="39">
         <v>8151</v>
       </c>
-      <c r="E214" s="83">
+      <c r="E214" s="80">
         <v>9494</v>
       </c>
       <c r="F214" s="41">
@@ -14643,7 +14287,7 @@
       <c r="K214" s="22">
         <v>85.1</v>
       </c>
-      <c r="L214" s="98">
+      <c r="L214" s="95">
         <v>76.900000000000006</v>
       </c>
       <c r="M214" s="1"/>

--- a/input/DOE22/42/Std140_CE_b_Output.xlsx
+++ b/input/DOE22/42/Std140_CE_b_Output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\JasonGlazer--ashrae-140-automation\input\DOE22\42\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA99E6A-8510-498A-B44B-EC120B81DD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C8BA79-12AC-4451-85BB-9D0E308B57A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="3870" windowWidth="40575" windowHeight="15465" xr2:uid="{49F4F6A9-A708-4AE5-B3F4-14E3B8248983}"/>
+    <workbookView xWindow="2490" yWindow="810" windowWidth="33600" windowHeight="20790" xr2:uid="{49F4F6A9-A708-4AE5-B3F4-14E3B8248983}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="221">
   <si>
     <t>E300OUT2.XLS, Mar 20, 2002</t>
   </si>
@@ -618,6 +618,90 @@
   </si>
   <si>
     <t>Sens+Lat</t>
+  </si>
+  <si>
+    <t>CE300</t>
+  </si>
+  <si>
+    <t>CE310</t>
+  </si>
+  <si>
+    <t>CE320</t>
+  </si>
+  <si>
+    <t>CE330</t>
+  </si>
+  <si>
+    <t>CE340</t>
+  </si>
+  <si>
+    <t>CE350</t>
+  </si>
+  <si>
+    <t>CE360</t>
+  </si>
+  <si>
+    <t>CE400</t>
+  </si>
+  <si>
+    <t>CE410</t>
+  </si>
+  <si>
+    <t>CE420</t>
+  </si>
+  <si>
+    <t>CE430</t>
+  </si>
+  <si>
+    <t>CE440</t>
+  </si>
+  <si>
+    <t>CE500</t>
+  </si>
+  <si>
+    <t>CE500 May-SCEp</t>
+  </si>
+  <si>
+    <t>CE510 May-SCEp</t>
+  </si>
+  <si>
+    <t>CE520</t>
+  </si>
+  <si>
+    <t>CE522</t>
+  </si>
+  <si>
+    <t>CE525</t>
+  </si>
+  <si>
+    <t>CE530</t>
+  </si>
+  <si>
+    <t>CE540</t>
+  </si>
+  <si>
+    <t>CE545</t>
+  </si>
+  <si>
+    <t>C E 3 0 0   O n l y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE500 </t>
+  </si>
+  <si>
+    <t>CE510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         CE300 Only, Maxima</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J u n e   2 8   H o u r l y   O u t p u t   -   C a s e   C E 3 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      C a s e   C E 5 0 0   A v e r a g e   D a i l y   O u t p u t s  -  f(ODB) sensitivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      C a s e   C E 5 3 0   A v e r a g e   D a i l y   O u t p u t s  -  f(ODB) sensitivity</t>
   </si>
 </sst>
 </file>
@@ -1553,8 +1637,8 @@
   </sheetPr>
   <dimension ref="A1:AP214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W79" sqref="W79:Y81"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R127" sqref="R127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1884,7 +1968,7 @@
       <c r="AB56" s="7"/>
       <c r="AC56" s="5"/>
       <c r="AD56" s="6" t="s">
-        <v>66</v>
+        <v>217</v>
       </c>
       <c r="AE56" s="6"/>
       <c r="AF56" s="6"/>
@@ -1905,7 +1989,7 @@
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="11" t="s">
-        <v>67</v>
+        <v>214</v>
       </c>
       <c r="N57" s="13"/>
       <c r="P57" s="10"/>
@@ -2154,7 +2238,7 @@
     </row>
     <row r="62" spans="1:34" ht="15.75">
       <c r="A62" s="10" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="B62" s="21">
         <f>C62+D62+E62</f>
@@ -2210,7 +2294,7 @@
       </c>
       <c r="O62" s="22"/>
       <c r="P62" s="10" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="Q62" s="23">
         <f t="shared" ref="Q62:AB77" si="2">Q146</f>
@@ -2287,7 +2371,7 @@
     </row>
     <row r="63" spans="1:34" ht="15.75">
       <c r="A63" s="10" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="B63" s="21">
         <f t="shared" ref="B63:B82" si="3">C63+D63+E63</f>
@@ -2339,7 +2423,7 @@
       <c r="N63" s="36"/>
       <c r="O63" s="22"/>
       <c r="P63" s="10" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="Q63" s="23">
         <f t="shared" si="2"/>
@@ -2398,7 +2482,7 @@
     </row>
     <row r="64" spans="1:34" ht="15.75">
       <c r="A64" s="10" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="B64" s="21">
         <f t="shared" si="3"/>
@@ -2450,7 +2534,7 @@
       <c r="N64" s="36"/>
       <c r="O64" s="22"/>
       <c r="P64" s="10" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="Q64" s="23">
         <f t="shared" si="2"/>
@@ -2503,7 +2587,7 @@
     </row>
     <row r="65" spans="1:28" ht="15.75">
       <c r="A65" s="10" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="B65" s="21">
         <f t="shared" si="3"/>
@@ -2553,7 +2637,7 @@
       <c r="N65" s="22"/>
       <c r="O65" s="22"/>
       <c r="P65" s="10" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="Q65" s="23">
         <f t="shared" si="2"/>
@@ -2606,7 +2690,7 @@
     </row>
     <row r="66" spans="1:28" ht="15.75">
       <c r="A66" s="10" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="B66" s="21">
         <f t="shared" si="3"/>
@@ -2656,7 +2740,7 @@
       <c r="N66" s="22"/>
       <c r="O66" s="22"/>
       <c r="P66" s="10" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="Q66" s="23">
         <f t="shared" si="2"/>
@@ -2709,7 +2793,7 @@
     </row>
     <row r="67" spans="1:28" ht="15.75">
       <c r="A67" s="10" t="s">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="B67" s="21">
         <f t="shared" si="3"/>
@@ -2759,7 +2843,7 @@
       <c r="N67" s="22"/>
       <c r="O67" s="22"/>
       <c r="P67" s="10" t="s">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="Q67" s="23">
         <f t="shared" si="2"/>
@@ -2812,7 +2896,7 @@
     </row>
     <row r="68" spans="1:28" ht="15.75">
       <c r="A68" s="10" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="B68" s="21">
         <f t="shared" si="3"/>
@@ -2862,7 +2946,7 @@
       <c r="N68" s="22"/>
       <c r="O68" s="22"/>
       <c r="P68" s="10" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="Q68" s="23">
         <f t="shared" si="2"/>
@@ -2915,7 +2999,7 @@
     </row>
     <row r="69" spans="1:28" ht="15.75">
       <c r="A69" s="10" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="B69" s="21">
         <f t="shared" si="3"/>
@@ -2965,7 +3049,7 @@
       <c r="N69" s="22"/>
       <c r="O69" s="22"/>
       <c r="P69" s="10" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="Q69" s="23">
         <f t="shared" si="2"/>
@@ -3018,7 +3102,7 @@
     </row>
     <row r="70" spans="1:28" ht="15.75">
       <c r="A70" s="10" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="B70" s="21">
         <f t="shared" si="3"/>
@@ -3068,7 +3152,7 @@
       <c r="N70" s="22"/>
       <c r="O70" s="22"/>
       <c r="P70" s="10" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="Q70" s="23">
         <f t="shared" si="2"/>
@@ -3121,7 +3205,7 @@
     </row>
     <row r="71" spans="1:28" ht="15.75">
       <c r="A71" s="10" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="B71" s="21">
         <f t="shared" si="3"/>
@@ -3171,7 +3255,7 @@
       <c r="N71" s="22"/>
       <c r="O71" s="22"/>
       <c r="P71" s="10" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="Q71" s="23">
         <f t="shared" si="2"/>
@@ -3224,7 +3308,7 @@
     </row>
     <row r="72" spans="1:28" ht="15.75">
       <c r="A72" s="10" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="B72" s="21">
         <f t="shared" si="3"/>
@@ -3274,7 +3358,7 @@
       <c r="N72" s="22"/>
       <c r="O72" s="22"/>
       <c r="P72" s="10" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="Q72" s="23">
         <f t="shared" si="2"/>
@@ -3327,7 +3411,7 @@
     </row>
     <row r="73" spans="1:28" ht="15.75">
       <c r="A73" s="10" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="B73" s="21">
         <f t="shared" si="3"/>
@@ -3377,7 +3461,7 @@
       <c r="N73" s="22"/>
       <c r="O73" s="22"/>
       <c r="P73" s="10" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="Q73" s="23">
         <f t="shared" si="2"/>
@@ -3430,7 +3514,7 @@
     </row>
     <row r="74" spans="1:28" ht="15.75">
       <c r="A74" s="10" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="B74" s="21">
         <f t="shared" si="3"/>
@@ -3474,7 +3558,7 @@
       <c r="N74" s="22"/>
       <c r="O74" s="22"/>
       <c r="P74" s="10" t="s">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="Q74" s="23">
         <f t="shared" si="2"/>
@@ -3527,7 +3611,7 @@
     </row>
     <row r="75" spans="1:28" ht="15.75">
       <c r="A75" s="10" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="B75" s="21">
         <f t="shared" si="3"/>
@@ -3577,7 +3661,7 @@
       <c r="N75" s="22"/>
       <c r="O75" s="22"/>
       <c r="P75" s="10" t="s">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="Q75" s="23">
         <f t="shared" si="2"/>
@@ -3630,7 +3714,7 @@
     </row>
     <row r="76" spans="1:28" ht="15.75">
       <c r="A76" s="10" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
       <c r="B76" s="21">
         <f t="shared" si="3"/>
@@ -3680,7 +3764,7 @@
       <c r="N76" s="22"/>
       <c r="O76" s="22"/>
       <c r="P76" s="10" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c r="Q76" s="23">
         <f t="shared" si="2"/>
@@ -3733,7 +3817,7 @@
     </row>
     <row r="77" spans="1:28" ht="15.75">
       <c r="A77" s="10" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c r="B77" s="21">
         <f t="shared" si="3"/>
@@ -3777,7 +3861,7 @@
       <c r="N77" s="22"/>
       <c r="O77" s="22"/>
       <c r="P77" s="10" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="Q77" s="23">
         <f t="shared" si="2"/>
@@ -3830,7 +3914,7 @@
     </row>
     <row r="78" spans="1:28" ht="15.75">
       <c r="A78" s="10" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="B78" s="21">
         <f t="shared" si="3"/>
@@ -3874,7 +3958,7 @@
       <c r="N78" s="22"/>
       <c r="O78" s="22"/>
       <c r="P78" s="10" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="Q78" s="23">
         <f t="shared" ref="Q78:AB81" si="11">Q162</f>
@@ -3927,7 +4011,7 @@
     </row>
     <row r="79" spans="1:28" ht="15.75">
       <c r="A79" s="10" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="B79" s="21">
         <f t="shared" si="3"/>
@@ -3971,7 +4055,7 @@
       <c r="N79" s="22"/>
       <c r="O79" s="22"/>
       <c r="P79" s="10" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
       <c r="Q79" s="23">
         <f t="shared" si="11"/>
@@ -4015,7 +4099,7 @@
     </row>
     <row r="80" spans="1:28" ht="15.75">
       <c r="A80" s="10" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
       <c r="B80" s="21">
         <f t="shared" si="3"/>
@@ -4059,7 +4143,7 @@
       <c r="N80" s="22"/>
       <c r="O80" s="22"/>
       <c r="P80" s="10" t="s">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c r="Q80" s="23">
         <f t="shared" si="11"/>
@@ -4103,7 +4187,7 @@
     </row>
     <row r="81" spans="1:40" ht="15.75">
       <c r="A81" s="10" t="s">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c r="B81" s="21">
         <f t="shared" si="3"/>
@@ -4147,7 +4231,7 @@
       <c r="N81" s="22"/>
       <c r="O81" s="22"/>
       <c r="P81" s="11" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="Q81" s="23">
         <f t="shared" si="11"/>
@@ -4191,7 +4275,7 @@
     </row>
     <row r="82" spans="1:40" ht="15.75">
       <c r="A82" s="11" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="B82" s="41">
         <f t="shared" si="3"/>
@@ -4241,7 +4325,7 @@
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6" t="s">
-        <v>125</v>
+        <v>218</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
@@ -4609,7 +4693,7 @@
         <v>101254.86534273588</v>
       </c>
       <c r="P89" s="10" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="Q89" s="25">
         <f t="shared" ref="Q89:AN99" si="14">Q173</f>
@@ -4764,7 +4848,7 @@
         <v>101254.86534273588</v>
       </c>
       <c r="P90" s="10" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="Q90" s="25">
         <f t="shared" si="14"/>
@@ -4919,7 +5003,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P91" s="10" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="Q91" s="25">
         <f t="shared" si="14"/>
@@ -5074,7 +5158,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P92" s="10" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="Q92" s="25">
         <f t="shared" si="14"/>
@@ -5229,7 +5313,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P93" s="10" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="Q93" s="25">
         <f t="shared" si="14"/>
@@ -5384,7 +5468,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P94" s="10" t="s">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="Q94" s="25">
         <f t="shared" si="14"/>
@@ -5539,7 +5623,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P95" s="10" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="Q95" s="25">
         <f t="shared" si="14"/>
@@ -5694,7 +5778,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P96" s="10" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="Q96" s="25">
         <f t="shared" si="14"/>
@@ -5849,7 +5933,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P97" s="10" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="Q97" s="25">
         <f t="shared" si="14"/>
@@ -6004,7 +6088,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P98" s="10" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="Q98" s="25">
         <f t="shared" si="14"/>
@@ -6159,7 +6243,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P99" s="10" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="Q99" s="25">
         <f t="shared" si="14"/>
@@ -6314,7 +6398,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P100" s="11" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="Q100" s="25">
         <f t="shared" ref="Q100:AN108" si="23">Q184</f>
@@ -6469,7 +6553,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P101" s="10" t="s">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="Q101" s="25">
         <f t="shared" si="23"/>
@@ -6597,7 +6681,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P102" s="10" t="s">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="Q102" s="25">
         <f t="shared" si="23"/>
@@ -6725,7 +6809,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P103" s="10" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c r="Q103" s="25">
         <f t="shared" si="23"/>
@@ -6853,7 +6937,7 @@
         <v>101254.86534273588</v>
       </c>
       <c r="P104" s="10" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="Q104" s="25">
         <f t="shared" si="23"/>
@@ -6981,7 +7065,7 @@
         <v>101254.86534273588</v>
       </c>
       <c r="P105" s="10" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="Q105" s="25">
         <f t="shared" si="23"/>
@@ -7109,7 +7193,7 @@
         <v>101254.86534273588</v>
       </c>
       <c r="P106" s="10" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
       <c r="Q106" s="25">
         <f t="shared" si="23"/>
@@ -7237,7 +7321,7 @@
         <v>101254.86534273588</v>
       </c>
       <c r="P107" s="10" t="s">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c r="Q107" s="25">
         <f t="shared" si="23"/>
@@ -7365,7 +7449,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P108" s="11" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="Q108" s="25">
         <f t="shared" si="23"/>
@@ -7664,7 +7748,7 @@
     <row r="115" spans="1:12">
       <c r="A115" s="5"/>
       <c r="B115" s="5" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -7882,7 +7966,7 @@
     <row r="124" spans="1:12">
       <c r="A124" s="5"/>
       <c r="B124" s="5" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>

--- a/input/DOE22/42/Std140_CE_b_Output.xlsx
+++ b/input/DOE22/42/Std140_CE_b_Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\JasonGlazer--ashrae-140-automation\input\DOE22\42\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C8BA79-12AC-4451-85BB-9D0E308B57A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBC340B-655F-40FB-A423-8CFD4E6D9FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="810" windowWidth="33600" windowHeight="20790" xr2:uid="{49F4F6A9-A708-4AE5-B3F4-14E3B8248983}"/>
+    <workbookView xWindow="3270" yWindow="810" windowWidth="33600" windowHeight="20790" xr2:uid="{49F4F6A9-A708-4AE5-B3F4-14E3B8248983}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -659,12 +659,6 @@
     <t>CE500</t>
   </si>
   <si>
-    <t>CE500 May-SCEp</t>
-  </si>
-  <si>
-    <t>CE510 May-SCEp</t>
-  </si>
-  <si>
     <t>CE520</t>
   </si>
   <si>
@@ -702,6 +696,12 @@
   </si>
   <si>
     <t xml:space="preserve">      C a s e   C E 5 3 0   A v e r a g e   D a i l y   O u t p u t s  -  f(ODB) sensitivity</t>
+  </si>
+  <si>
+    <t>CE500 May-Sep</t>
+  </si>
+  <si>
+    <t>CE510 May-Sep</t>
   </si>
 </sst>
 </file>
@@ -1637,8 +1637,8 @@
   </sheetPr>
   <dimension ref="A1:AP214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R127" sqref="R127"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1968,7 +1968,7 @@
       <c r="AB56" s="7"/>
       <c r="AC56" s="5"/>
       <c r="AD56" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AE56" s="6"/>
       <c r="AF56" s="6"/>
@@ -1989,7 +1989,7 @@
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N57" s="13"/>
       <c r="P57" s="10"/>
@@ -3558,7 +3558,7 @@
       <c r="N74" s="22"/>
       <c r="O74" s="22"/>
       <c r="P74" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q74" s="23">
         <f t="shared" si="2"/>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="75" spans="1:28" ht="15.75">
       <c r="A75" s="10" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="B75" s="21">
         <f t="shared" si="3"/>
@@ -3661,7 +3661,7 @@
       <c r="N75" s="22"/>
       <c r="O75" s="22"/>
       <c r="P75" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q75" s="23">
         <f t="shared" si="2"/>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="76" spans="1:28" ht="15.75">
       <c r="A76" s="10" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="B76" s="21">
         <f t="shared" si="3"/>
@@ -3764,7 +3764,7 @@
       <c r="N76" s="22"/>
       <c r="O76" s="22"/>
       <c r="P76" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q76" s="23">
         <f t="shared" si="2"/>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="77" spans="1:28" ht="15.75">
       <c r="A77" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B77" s="21">
         <f t="shared" si="3"/>
@@ -3861,7 +3861,7 @@
       <c r="N77" s="22"/>
       <c r="O77" s="22"/>
       <c r="P77" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q77" s="23">
         <f t="shared" si="2"/>
@@ -3914,7 +3914,7 @@
     </row>
     <row r="78" spans="1:28" ht="15.75">
       <c r="A78" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B78" s="21">
         <f t="shared" si="3"/>
@@ -3958,7 +3958,7 @@
       <c r="N78" s="22"/>
       <c r="O78" s="22"/>
       <c r="P78" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q78" s="23">
         <f t="shared" ref="Q78:AB81" si="11">Q162</f>
@@ -4011,7 +4011,7 @@
     </row>
     <row r="79" spans="1:28" ht="15.75">
       <c r="A79" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B79" s="21">
         <f t="shared" si="3"/>
@@ -4055,7 +4055,7 @@
       <c r="N79" s="22"/>
       <c r="O79" s="22"/>
       <c r="P79" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q79" s="23">
         <f t="shared" si="11"/>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="80" spans="1:28" ht="15.75">
       <c r="A80" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B80" s="21">
         <f t="shared" si="3"/>
@@ -4143,7 +4143,7 @@
       <c r="N80" s="22"/>
       <c r="O80" s="22"/>
       <c r="P80" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q80" s="23">
         <f t="shared" si="11"/>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="81" spans="1:40" ht="15.75">
       <c r="A81" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B81" s="21">
         <f t="shared" si="3"/>
@@ -4231,7 +4231,7 @@
       <c r="N81" s="22"/>
       <c r="O81" s="22"/>
       <c r="P81" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q81" s="23">
         <f t="shared" si="11"/>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="82" spans="1:40" ht="15.75">
       <c r="A82" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B82" s="41">
         <f t="shared" si="3"/>
@@ -4325,7 +4325,7 @@
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
@@ -6553,7 +6553,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P101" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q101" s="25">
         <f t="shared" si="23"/>
@@ -6681,7 +6681,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P102" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q102" s="25">
         <f t="shared" si="23"/>
@@ -6809,7 +6809,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P103" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q103" s="25">
         <f t="shared" si="23"/>
@@ -6937,7 +6937,7 @@
         <v>101254.86534273588</v>
       </c>
       <c r="P104" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q104" s="25">
         <f t="shared" si="23"/>
@@ -7065,7 +7065,7 @@
         <v>101254.86534273588</v>
       </c>
       <c r="P105" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q105" s="25">
         <f t="shared" si="23"/>
@@ -7193,7 +7193,7 @@
         <v>101254.86534273588</v>
       </c>
       <c r="P106" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q106" s="25">
         <f t="shared" si="23"/>
@@ -7321,7 +7321,7 @@
         <v>101254.86534273588</v>
       </c>
       <c r="P107" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q107" s="25">
         <f t="shared" si="23"/>
@@ -7449,7 +7449,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P108" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q108" s="25">
         <f t="shared" si="23"/>
@@ -7748,7 +7748,7 @@
     <row r="115" spans="1:12">
       <c r="A115" s="5"/>
       <c r="B115" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -7966,7 +7966,7 @@
     <row r="124" spans="1:12">
       <c r="A124" s="5"/>
       <c r="B124" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>

--- a/input/DOE22/42/Std140_CE_b_Output.xlsx
+++ b/input/DOE22/42/Std140_CE_b_Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\JasonGlazer--ashrae-140-automation\input\DOE22\42\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBC340B-655F-40FB-A423-8CFD4E6D9FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92A0401-8D9F-47FB-954B-6BA2C4E08F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="810" windowWidth="33600" windowHeight="20790" xr2:uid="{49F4F6A9-A708-4AE5-B3F4-14E3B8248983}"/>
+    <workbookView xWindow="37680" yWindow="0" windowWidth="38280" windowHeight="20790" xr2:uid="{49F4F6A9-A708-4AE5-B3F4-14E3B8248983}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -1638,7 +1638,7 @@
   <dimension ref="A1:AP214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:A76"/>
+      <selection activeCell="X80" sqref="X80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4081,9 +4081,18 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="W79" s="23"/>
-      <c r="X79" s="30"/>
-      <c r="Y79" s="22"/>
+      <c r="W79" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X79" s="30">
+        <f>U79</f>
+        <v>37370</v>
+      </c>
+      <c r="Y79" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="Z79" s="23">
         <f t="shared" si="11"/>
         <v>19576</v>
@@ -4169,9 +4178,18 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="W80" s="23"/>
-      <c r="X80" s="30"/>
-      <c r="Y80" s="22"/>
+      <c r="W80" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X80" s="30">
+        <f t="shared" ref="X80:X81" si="12">U80</f>
+        <v>37370</v>
+      </c>
+      <c r="Y80" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="Z80" s="23">
         <f t="shared" si="11"/>
         <v>19766</v>
@@ -4257,9 +4275,18 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="W81" s="23"/>
-      <c r="X81" s="38"/>
-      <c r="Y81" s="39"/>
+      <c r="W81" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X81" s="30">
+        <f t="shared" si="12"/>
+        <v>37370</v>
+      </c>
+      <c r="Y81" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="Z81" s="23">
         <f t="shared" si="11"/>
         <v>19475</v>
@@ -4662,19 +4689,19 @@
         <v>1663.0494000000001</v>
       </c>
       <c r="G89" s="53">
-        <f t="shared" ref="G89:H104" si="12">G173</f>
+        <f t="shared" ref="G89:H104" si="13">G173</f>
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="H89" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.5390382849109656</v>
       </c>
       <c r="I89" s="55">
-        <f t="shared" ref="I89:J104" si="13">(I173-32)/180*100</f>
+        <f t="shared" ref="I89:J104" si="14">(I173-32)/180*100</f>
         <v>17.777777777777779</v>
       </c>
       <c r="J89" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>23.833333333333336</v>
       </c>
       <c r="K89" s="55">
@@ -4696,99 +4723,99 @@
         <v>193</v>
       </c>
       <c r="Q89" s="25">
-        <f t="shared" ref="Q89:AN99" si="14">Q173</f>
+        <f t="shared" ref="Q89:AN99" si="15">Q173</f>
         <v>3.8690000000000002</v>
       </c>
       <c r="R89" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37376</v>
       </c>
       <c r="S89" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="T89" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.798</v>
       </c>
       <c r="U89" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37591</v>
       </c>
       <c r="V89" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="W89" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.11</v>
       </c>
       <c r="X89" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37368</v>
       </c>
       <c r="Y89" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="Z89" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.89</v>
       </c>
       <c r="AA89" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36897</v>
       </c>
       <c r="AB89" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="AC89" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.38E-2</v>
       </c>
       <c r="AD89" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37211</v>
       </c>
       <c r="AE89" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="AF89" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="AG89" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36895</v>
       </c>
       <c r="AH89" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="AI89" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>69.349999999999994</v>
       </c>
       <c r="AJ89" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37576</v>
       </c>
       <c r="AK89" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="AL89" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.97</v>
       </c>
       <c r="AM89" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37566</v>
       </c>
       <c r="AN89" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
@@ -4797,39 +4824,39 @@
         <v>150</v>
       </c>
       <c r="B90" s="21">
-        <f t="shared" ref="B90:B112" si="15">B174-C90</f>
+        <f t="shared" ref="B90:B112" si="16">B174-C90</f>
         <v>1941</v>
       </c>
       <c r="C90" s="22">
-        <f t="shared" ref="C90:C112" si="16">C174</f>
+        <f t="shared" ref="C90:C112" si="17">C174</f>
         <v>240</v>
       </c>
       <c r="D90" s="23">
-        <f t="shared" ref="D90:D112" si="17">D174*0.2931</f>
+        <f t="shared" ref="D90:D112" si="18">D174*0.2931</f>
         <v>7630.2723000000005</v>
       </c>
       <c r="E90" s="24">
-        <f t="shared" ref="E90:E112" si="18">D90-F90</f>
+        <f t="shared" ref="E90:E112" si="19">D90-F90</f>
         <v>6069.8079000000007</v>
       </c>
       <c r="F90" s="24">
-        <f t="shared" ref="F90:F112" si="19">F174*0.2931</f>
+        <f t="shared" ref="F90:F112" si="20">F174*0.2931</f>
         <v>1560.4644000000001</v>
       </c>
       <c r="G90" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.2999999999999992E-3</v>
       </c>
       <c r="H90" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.4985200825309493</v>
       </c>
       <c r="I90" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>18.333333333333332</v>
       </c>
       <c r="J90" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>23.944444444444439</v>
       </c>
       <c r="K90" s="55">
@@ -4844,106 +4871,106 @@
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="N90">
-        <f t="shared" ref="N90:N112" si="20">N174*(14.696/29.921)*(6894.8/1)</f>
+        <f t="shared" ref="N90:N112" si="21">N174*(14.696/29.921)*(6894.8/1)</f>
         <v>101254.86534273588</v>
       </c>
       <c r="P90" s="10" t="s">
         <v>194</v>
       </c>
       <c r="Q90" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.141</v>
       </c>
       <c r="R90" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37376</v>
       </c>
       <c r="S90" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="T90" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.85</v>
       </c>
       <c r="U90" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37591</v>
       </c>
       <c r="V90" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="W90" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>26.89</v>
       </c>
       <c r="X90" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>38188</v>
       </c>
       <c r="Y90" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="Z90" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.89</v>
       </c>
       <c r="AA90" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36897</v>
       </c>
       <c r="AB90" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="AC90" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.8800000000000001E-2</v>
       </c>
       <c r="AD90" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37544</v>
       </c>
       <c r="AE90" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="AF90" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="AG90" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36895</v>
       </c>
       <c r="AH90" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="AI90" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>100.18</v>
       </c>
       <c r="AJ90" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37544</v>
       </c>
       <c r="AK90" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="AL90" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.97</v>
       </c>
       <c r="AM90" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37566</v>
       </c>
       <c r="AN90" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
@@ -4952,153 +4979,153 @@
         <v>151</v>
       </c>
       <c r="B91" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1897</v>
       </c>
       <c r="C91" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>237</v>
       </c>
       <c r="D91" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7550.2560000000003</v>
       </c>
       <c r="E91" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5881.3446000000004</v>
       </c>
       <c r="F91" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1668.9114000000002</v>
       </c>
       <c r="G91" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="H91" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.5380768509840674</v>
       </c>
       <c r="I91" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>17.777777777777779</v>
       </c>
       <c r="J91" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>23.833333333333336</v>
       </c>
       <c r="K91" s="55">
         <v>17.34</v>
       </c>
       <c r="L91" s="59">
-        <f t="shared" ref="L91:M106" si="21">L175</f>
+        <f t="shared" ref="L91:M106" si="22">L175</f>
         <v>1.14E-2</v>
       </c>
       <c r="M91" s="57">
+        <f t="shared" si="22"/>
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="N91">
         <f t="shared" si="21"/>
-        <v>9.7000000000000003E-3</v>
-      </c>
-      <c r="N91">
-        <f t="shared" si="20"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P91" s="10" t="s">
         <v>195</v>
       </c>
       <c r="Q91" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.1429999999999998</v>
       </c>
       <c r="R91" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37531</v>
       </c>
       <c r="S91" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="T91" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8010000000000002</v>
       </c>
       <c r="U91" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37591</v>
       </c>
       <c r="V91" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="W91" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31.61</v>
       </c>
       <c r="X91" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37810</v>
       </c>
       <c r="Y91" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="Z91" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.83</v>
       </c>
       <c r="AA91" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36897</v>
       </c>
       <c r="AB91" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="AC91" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.77E-2</v>
       </c>
       <c r="AD91" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37447</v>
       </c>
       <c r="AE91" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="AF91" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="AG91" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36895</v>
       </c>
       <c r="AH91" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="AI91" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>83.41</v>
       </c>
       <c r="AJ91" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>38262</v>
       </c>
       <c r="AK91" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="AL91" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.97</v>
       </c>
       <c r="AM91" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37566</v>
       </c>
       <c r="AN91" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
@@ -5107,153 +5134,153 @@
         <v>152</v>
       </c>
       <c r="B92" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1891</v>
       </c>
       <c r="C92" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>237</v>
       </c>
       <c r="D92" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7533.8424000000005</v>
       </c>
       <c r="E92" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5878.1205</v>
       </c>
       <c r="F92" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1655.7219000000002</v>
       </c>
       <c r="G92" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="H92" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.5403394736842109</v>
       </c>
       <c r="I92" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>17.777777777777779</v>
       </c>
       <c r="J92" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>23.833333333333336</v>
       </c>
       <c r="K92" s="55">
         <v>17.34</v>
       </c>
       <c r="L92" s="59">
+        <f t="shared" si="22"/>
+        <v>1.14E-2</v>
+      </c>
+      <c r="M92" s="57">
+        <f t="shared" si="22"/>
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="N92">
         <f t="shared" si="21"/>
-        <v>1.14E-2</v>
-      </c>
-      <c r="M92" s="57">
-        <f t="shared" si="21"/>
-        <v>9.7000000000000003E-3</v>
-      </c>
-      <c r="N92">
-        <f t="shared" si="20"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P92" s="10" t="s">
         <v>196</v>
       </c>
       <c r="Q92" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.109</v>
       </c>
       <c r="R92" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37789</v>
       </c>
       <c r="S92" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="T92" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.798</v>
       </c>
       <c r="U92" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37591</v>
       </c>
       <c r="V92" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="W92" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31.72</v>
       </c>
       <c r="X92" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>38176</v>
       </c>
       <c r="Y92" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="Z92" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.89</v>
       </c>
       <c r="AA92" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36897</v>
       </c>
       <c r="AB92" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="AC92" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.78E-2</v>
       </c>
       <c r="AD92" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37896</v>
       </c>
       <c r="AE92" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="AF92" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="AG92" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36895</v>
       </c>
       <c r="AH92" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="AI92" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>78.459999999999994</v>
       </c>
       <c r="AJ92" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>38262</v>
       </c>
       <c r="AK92" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="AL92" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.97</v>
       </c>
       <c r="AM92" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37566</v>
       </c>
       <c r="AN92" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
@@ -5262,153 +5289,153 @@
         <v>153</v>
       </c>
       <c r="B93" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1697</v>
       </c>
       <c r="C93" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>215</v>
       </c>
       <c r="D93" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6797.868300000001</v>
       </c>
       <c r="E93" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5675.2953000000007</v>
       </c>
       <c r="F93" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1122.5730000000001</v>
       </c>
       <c r="G93" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.8999999999999999E-3</v>
       </c>
       <c r="H93" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.5553704497907956</v>
       </c>
       <c r="I93" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>17.222222222222221</v>
       </c>
       <c r="J93" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>23.777777777777775</v>
       </c>
       <c r="K93" s="55">
         <v>16.850000000000001</v>
       </c>
       <c r="L93" s="59">
+        <f t="shared" si="22"/>
+        <v>1.03E-2</v>
+      </c>
+      <c r="M93" s="57">
+        <f t="shared" si="22"/>
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="N93">
         <f t="shared" si="21"/>
-        <v>1.03E-2</v>
-      </c>
-      <c r="M93" s="57">
-        <f t="shared" si="21"/>
-        <v>9.1000000000000004E-3</v>
-      </c>
-      <c r="N93">
-        <f t="shared" si="20"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P93" s="10" t="s">
         <v>197</v>
       </c>
       <c r="Q93" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.6210000000000004</v>
       </c>
       <c r="R93" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37531</v>
       </c>
       <c r="S93" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="T93" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.798</v>
       </c>
       <c r="U93" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37591</v>
       </c>
       <c r="V93" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="W93" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>31.61</v>
       </c>
       <c r="X93" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37810</v>
       </c>
       <c r="Y93" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="Z93" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.89</v>
       </c>
       <c r="AA93" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36897</v>
       </c>
       <c r="AB93" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="AC93" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.77E-2</v>
       </c>
       <c r="AD93" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37447</v>
       </c>
       <c r="AE93" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="AF93" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="AG93" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36895</v>
       </c>
       <c r="AH93" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="AI93" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>81.37</v>
       </c>
       <c r="AJ93" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>38248</v>
       </c>
       <c r="AK93" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="AL93" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.97</v>
       </c>
       <c r="AM93" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37566</v>
       </c>
       <c r="AN93" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
@@ -5417,153 +5444,153 @@
         <v>154</v>
       </c>
       <c r="B94" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2126</v>
       </c>
       <c r="C94" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>259</v>
       </c>
       <c r="D94" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8136.1629000000012</v>
       </c>
       <c r="E94" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6438.5277000000006</v>
       </c>
       <c r="F94" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1697.6352000000002</v>
       </c>
       <c r="G94" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="H94" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.4113890566037739</v>
       </c>
       <c r="I94" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>19.444444444444446</v>
       </c>
       <c r="J94" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.111111111111114</v>
       </c>
       <c r="K94" s="55">
         <v>17.3</v>
       </c>
       <c r="L94" s="59">
+        <f t="shared" si="22"/>
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="M94" s="57">
+        <f t="shared" si="22"/>
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="N94">
         <f t="shared" si="21"/>
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="M94" s="57">
-        <f t="shared" si="21"/>
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="N94">
-        <f t="shared" si="20"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P94" s="10" t="s">
         <v>198</v>
       </c>
       <c r="Q94" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.8889999999999998</v>
       </c>
       <c r="R94" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37738</v>
       </c>
       <c r="S94" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="T94" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.798</v>
       </c>
       <c r="U94" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>38322</v>
       </c>
       <c r="V94" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="W94" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>34.94</v>
       </c>
       <c r="X94" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37795</v>
       </c>
       <c r="Y94" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="Z94" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.89</v>
       </c>
       <c r="AA94" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36897</v>
       </c>
       <c r="AB94" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="AC94" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.9900000000000001E-2</v>
       </c>
       <c r="AD94" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37470</v>
       </c>
       <c r="AE94" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
       <c r="AF94" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="AG94" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36895</v>
       </c>
       <c r="AH94" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="AI94" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>81.12</v>
       </c>
       <c r="AJ94" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37840</v>
       </c>
       <c r="AK94" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
       <c r="AL94" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.97</v>
       </c>
       <c r="AM94" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37566</v>
       </c>
       <c r="AN94" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
@@ -5572,153 +5599,153 @@
         <v>155</v>
       </c>
       <c r="B95" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3198</v>
       </c>
       <c r="C95" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>352</v>
       </c>
       <c r="D95" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11075.955900000001</v>
       </c>
       <c r="E95" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8342.2121999999999</v>
       </c>
       <c r="F95" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2733.7437000000004</v>
       </c>
       <c r="G95" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.01</v>
       </c>
       <c r="H95" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.1199875774647889</v>
       </c>
       <c r="I95" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="J95" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24.944444444444446</v>
       </c>
       <c r="K95" s="55">
         <v>18.39</v>
       </c>
       <c r="L95" s="59">
+        <f t="shared" si="22"/>
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="M95" s="57">
+        <f t="shared" si="22"/>
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="N95">
         <f t="shared" si="21"/>
-        <v>1.3299999999999999E-2</v>
-      </c>
-      <c r="M95" s="57">
-        <f t="shared" si="21"/>
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="N95">
-        <f t="shared" si="20"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P95" s="10" t="s">
         <v>199</v>
       </c>
       <c r="Q95" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.4279999999999999</v>
       </c>
       <c r="R95" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37533</v>
       </c>
       <c r="S95" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="T95" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.7989999999999999</v>
       </c>
       <c r="U95" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37591</v>
       </c>
       <c r="V95" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="W95" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32.78</v>
       </c>
       <c r="X95" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37457</v>
       </c>
       <c r="Y95" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="Z95" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.89</v>
       </c>
       <c r="AA95" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36897</v>
       </c>
       <c r="AB95" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="AC95" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.38E-2</v>
       </c>
       <c r="AD95" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37211</v>
       </c>
       <c r="AE95" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="AF95" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="AG95" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36895</v>
       </c>
       <c r="AH95" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="AI95" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>69.349999999999994</v>
       </c>
       <c r="AJ95" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37576</v>
       </c>
       <c r="AK95" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="AL95" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.97</v>
       </c>
       <c r="AM95" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37566</v>
       </c>
       <c r="AN95" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
@@ -5727,153 +5754,153 @@
         <v>156</v>
       </c>
       <c r="B96" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3135</v>
       </c>
       <c r="C96" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>332</v>
       </c>
       <c r="D96" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10290.741000000002</v>
       </c>
       <c r="E96" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9069.9795000000013</v>
       </c>
       <c r="F96" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1220.7615000000001</v>
       </c>
       <c r="G96" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="H96" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.9681975771560434</v>
       </c>
       <c r="I96" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>27.222222222222221</v>
       </c>
       <c r="J96" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>25.277777777777779</v>
       </c>
       <c r="K96" s="55">
         <v>17.78</v>
       </c>
       <c r="L96" s="59">
+        <f t="shared" si="22"/>
+        <v>1.09E-2</v>
+      </c>
+      <c r="M96" s="57">
+        <f t="shared" si="22"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="N96">
         <f t="shared" si="21"/>
-        <v>1.09E-2</v>
-      </c>
-      <c r="M96" s="57">
-        <f t="shared" si="21"/>
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="N96">
-        <f t="shared" si="20"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P96" s="10" t="s">
         <v>200</v>
       </c>
       <c r="Q96" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.0880000000000001</v>
       </c>
       <c r="R96" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37789</v>
       </c>
       <c r="S96" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="T96" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.734</v>
       </c>
       <c r="U96" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37593</v>
       </c>
       <c r="V96" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="W96" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>27.56</v>
       </c>
       <c r="X96" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37880</v>
       </c>
       <c r="Y96" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="Z96" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.89</v>
       </c>
       <c r="AA96" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36897</v>
       </c>
       <c r="AB96" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="AC96" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="AD96" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37351</v>
       </c>
       <c r="AE96" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
       <c r="AF96" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="AG96" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36895</v>
       </c>
       <c r="AH96" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="AI96" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>85.57</v>
       </c>
       <c r="AJ96" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37351</v>
       </c>
       <c r="AK96" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
       <c r="AL96" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.97</v>
       </c>
       <c r="AM96" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37566</v>
       </c>
       <c r="AN96" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
@@ -5882,153 +5909,153 @@
         <v>157</v>
       </c>
       <c r="B97" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4528</v>
       </c>
       <c r="C97" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>469</v>
       </c>
       <c r="D97" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>14785.722600000001</v>
       </c>
       <c r="E97" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>11872.601700000001</v>
       </c>
       <c r="F97" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2913.1209000000003</v>
       </c>
       <c r="G97" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.9000000000000008E-3</v>
       </c>
       <c r="H97" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.958919871923154</v>
       </c>
       <c r="I97" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28.888888888888886</v>
       </c>
       <c r="J97" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>25.555555555555554</v>
       </c>
       <c r="K97" s="55">
         <v>18.36</v>
       </c>
       <c r="L97" s="59">
+        <f t="shared" si="22"/>
+        <v>1.17E-2</v>
+      </c>
+      <c r="M97" s="57">
+        <f t="shared" si="22"/>
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="N97">
         <f t="shared" si="21"/>
-        <v>1.17E-2</v>
-      </c>
-      <c r="M97" s="57">
-        <f t="shared" si="21"/>
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="N97">
-        <f t="shared" si="20"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P97" s="10" t="s">
         <v>201</v>
       </c>
       <c r="Q97" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.903</v>
       </c>
       <c r="R97" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37376</v>
       </c>
       <c r="S97" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="T97" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.798</v>
       </c>
       <c r="U97" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>38322</v>
       </c>
       <c r="V97" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="W97" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.11</v>
       </c>
       <c r="X97" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37368</v>
       </c>
       <c r="Y97" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="Z97" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.89</v>
       </c>
       <c r="AA97" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36897</v>
       </c>
       <c r="AB97" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="AC97" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.6899999999999998E-2</v>
       </c>
       <c r="AD97" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37348</v>
       </c>
       <c r="AE97" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AF97" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="AG97" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36895</v>
       </c>
       <c r="AH97" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="AI97" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>84.79</v>
       </c>
       <c r="AJ97" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37348</v>
       </c>
       <c r="AK97" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AL97" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.97</v>
       </c>
       <c r="AM97" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37566</v>
       </c>
       <c r="AN97" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
@@ -6037,153 +6064,153 @@
         <v>158</v>
       </c>
       <c r="B98" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4651</v>
       </c>
       <c r="C98" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>479</v>
       </c>
       <c r="D98" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>15339.974700000001</v>
       </c>
       <c r="E98" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>12039.0825</v>
       </c>
       <c r="F98" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3300.8922000000002</v>
       </c>
       <c r="G98" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.03E-2</v>
       </c>
       <c r="H98" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.990248479532164</v>
       </c>
       <c r="I98" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28.888888888888886</v>
       </c>
       <c r="J98" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>25.555555555555554</v>
       </c>
       <c r="K98" s="55">
         <v>18.68</v>
       </c>
       <c r="L98" s="59">
+        <f t="shared" si="22"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="M98" s="57">
+        <f t="shared" si="22"/>
+        <v>1.06E-2</v>
+      </c>
+      <c r="N98">
         <f t="shared" si="21"/>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="M98" s="57">
-        <f t="shared" si="21"/>
-        <v>1.06E-2</v>
-      </c>
-      <c r="N98">
-        <f t="shared" si="20"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P98" s="10" t="s">
         <v>202</v>
       </c>
       <c r="Q98" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.8069999999999999</v>
       </c>
       <c r="R98" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37762</v>
       </c>
       <c r="S98" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="T98" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.798</v>
       </c>
       <c r="U98" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>38322</v>
       </c>
       <c r="V98" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="W98" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.11</v>
       </c>
       <c r="X98" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37368</v>
       </c>
       <c r="Y98" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="Z98" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.89</v>
       </c>
       <c r="AA98" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36897</v>
       </c>
       <c r="AB98" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="AC98" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.47E-2</v>
       </c>
       <c r="AD98" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37712</v>
       </c>
       <c r="AE98" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
       <c r="AF98" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="AG98" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36895</v>
       </c>
       <c r="AH98" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="AI98" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>74.510000000000005</v>
       </c>
       <c r="AJ98" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37728</v>
       </c>
       <c r="AK98" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="AL98" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.97</v>
       </c>
       <c r="AM98" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37566</v>
       </c>
       <c r="AN98" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
@@ -6192,153 +6219,153 @@
         <v>159</v>
       </c>
       <c r="B99" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5434</v>
       </c>
       <c r="C99" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>537</v>
       </c>
       <c r="D99" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>17455.277400000003</v>
       </c>
       <c r="E99" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>12811.987200000003</v>
       </c>
       <c r="F99" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4643.2902000000004</v>
       </c>
       <c r="G99" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.09E-2</v>
       </c>
       <c r="H99" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.9233423882096807</v>
       </c>
       <c r="I99" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31.111111111111111</v>
       </c>
       <c r="J99" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>25.888888888888882</v>
       </c>
       <c r="K99" s="55">
         <v>19.48</v>
       </c>
       <c r="L99" s="59">
+        <f t="shared" si="22"/>
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="M99" s="57">
+        <f t="shared" si="22"/>
+        <v>1.15E-2</v>
+      </c>
+      <c r="N99">
         <f t="shared" si="21"/>
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="M99" s="57">
-        <f t="shared" si="21"/>
-        <v>1.15E-2</v>
-      </c>
-      <c r="N99">
-        <f t="shared" si="20"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P99" s="10" t="s">
         <v>203</v>
       </c>
       <c r="Q99" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.8050000000000002</v>
       </c>
       <c r="R99" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37918</v>
       </c>
       <c r="S99" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="T99" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.734</v>
       </c>
       <c r="U99" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37593</v>
       </c>
       <c r="V99" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="W99" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.11</v>
       </c>
       <c r="X99" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37368</v>
       </c>
       <c r="Y99" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="Z99" s="58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.89</v>
       </c>
       <c r="AA99" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>36897</v>
       </c>
       <c r="AB99" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="AC99" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="AD99" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37348</v>
       </c>
       <c r="AE99" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="AF99" s="53">
-        <f t="shared" ref="AF99:AN99" si="22">AF183</f>
+        <f t="shared" ref="AF99:AN99" si="23">AF183</f>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="AG99" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>36895</v>
       </c>
       <c r="AH99" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>24</v>
       </c>
       <c r="AI99" s="58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>78.430000000000007</v>
       </c>
       <c r="AJ99" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>37348</v>
       </c>
       <c r="AK99" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="AL99" s="58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>11.97</v>
       </c>
       <c r="AM99" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>37566</v>
       </c>
       <c r="AN99" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
     </row>
@@ -6347,153 +6374,153 @@
         <v>160</v>
       </c>
       <c r="B100" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5019</v>
       </c>
       <c r="C100" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>498</v>
       </c>
       <c r="D100" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>16215.171300000002</v>
       </c>
       <c r="E100" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>12612.093000000001</v>
       </c>
       <c r="F100" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3603.0783000000001</v>
       </c>
       <c r="G100" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="H100" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.9391283849918439</v>
       </c>
       <c r="I100" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>30.555555555555557</v>
       </c>
       <c r="J100" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>25.833333333333336</v>
       </c>
       <c r="K100" s="55">
         <v>19.23</v>
       </c>
       <c r="L100" s="59">
+        <f t="shared" si="22"/>
+        <v>1.34E-2</v>
+      </c>
+      <c r="M100" s="57">
+        <f t="shared" si="22"/>
+        <v>1.12E-2</v>
+      </c>
+      <c r="N100">
         <f t="shared" si="21"/>
-        <v>1.34E-2</v>
-      </c>
-      <c r="M100" s="57">
-        <f t="shared" si="21"/>
-        <v>1.12E-2</v>
-      </c>
-      <c r="N100">
-        <f t="shared" si="20"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P100" s="11" t="s">
         <v>204</v>
       </c>
       <c r="Q100" s="25">
-        <f t="shared" ref="Q100:AN108" si="23">Q184</f>
+        <f t="shared" ref="Q100:AN108" si="24">Q184</f>
         <v>3.774</v>
       </c>
       <c r="R100" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37526</v>
       </c>
       <c r="S100" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="T100" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.734</v>
       </c>
       <c r="U100" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37593</v>
       </c>
       <c r="V100" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="W100" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>25.11</v>
       </c>
       <c r="X100" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37368</v>
       </c>
       <c r="Y100" s="43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="Z100" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.89</v>
       </c>
       <c r="AA100" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>36897</v>
       </c>
       <c r="AB100" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="AC100" s="60">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.38E-2</v>
       </c>
       <c r="AD100" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37211</v>
       </c>
       <c r="AE100" s="43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="AF100" s="60">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="AG100" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>36895</v>
       </c>
       <c r="AH100" s="43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>24</v>
       </c>
       <c r="AI100" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>69.349999999999994</v>
       </c>
       <c r="AJ100" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37576</v>
       </c>
       <c r="AK100" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="AL100" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>11.97</v>
       </c>
       <c r="AM100" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37566</v>
       </c>
       <c r="AN100" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
     </row>
@@ -6502,117 +6529,117 @@
         <v>161</v>
       </c>
       <c r="B101" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6040</v>
       </c>
       <c r="C101" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>597</v>
       </c>
       <c r="D101" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>19722.992100000003</v>
       </c>
       <c r="E101" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>17139.022500000003</v>
       </c>
       <c r="F101" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2583.9696000000004</v>
       </c>
       <c r="G101" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.01E-2</v>
       </c>
       <c r="H101" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.9716727587765561</v>
       </c>
       <c r="I101" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31.111111111111111</v>
       </c>
       <c r="J101" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>25.944444444444446</v>
       </c>
       <c r="K101" s="55">
         <v>18.559999999999999</v>
       </c>
       <c r="L101" s="59">
+        <f t="shared" si="22"/>
+        <v>1.15E-2</v>
+      </c>
+      <c r="M101" s="57">
+        <f t="shared" si="22"/>
+        <v>1.03E-2</v>
+      </c>
+      <c r="N101">
         <f t="shared" si="21"/>
-        <v>1.15E-2</v>
-      </c>
-      <c r="M101" s="57">
-        <f t="shared" si="21"/>
-        <v>1.03E-2</v>
-      </c>
-      <c r="N101">
-        <f t="shared" si="20"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P101" s="10" t="s">
         <v>213</v>
       </c>
       <c r="Q101" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7.367</v>
       </c>
       <c r="R101" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38057</v>
       </c>
       <c r="S101" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="T101" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.6930000000000001</v>
       </c>
       <c r="U101" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37466</v>
       </c>
       <c r="V101" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="W101" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>25.11</v>
       </c>
       <c r="X101" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37002</v>
       </c>
       <c r="Y101" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="Z101" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.17</v>
       </c>
       <c r="AA101" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38341</v>
       </c>
       <c r="AB101" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="AC101" s="53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.1900000000000001E-2</v>
       </c>
       <c r="AD101" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38188</v>
       </c>
       <c r="AE101" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="AF101" s="53"/>
@@ -6630,117 +6657,117 @@
         <v>162</v>
       </c>
       <c r="B102" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6420</v>
       </c>
       <c r="C102" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>633</v>
       </c>
       <c r="D102" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20808.341400000001</v>
       </c>
       <c r="E102" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>17638.1718</v>
       </c>
       <c r="F102" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3170.1696000000002</v>
       </c>
       <c r="G102" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.01</v>
       </c>
       <c r="H102" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.9502823479370481</v>
       </c>
       <c r="I102" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>31.666666666666664</v>
       </c>
       <c r="J102" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>26.055555555555561</v>
       </c>
       <c r="K102" s="55">
         <v>18.600000000000001</v>
       </c>
       <c r="L102" s="59">
+        <f t="shared" si="22"/>
+        <v>1.21E-2</v>
+      </c>
+      <c r="M102" s="57">
+        <f t="shared" si="22"/>
+        <v>1.03E-2</v>
+      </c>
+      <c r="N102">
         <f t="shared" si="21"/>
-        <v>1.21E-2</v>
-      </c>
-      <c r="M102" s="57">
-        <f t="shared" si="21"/>
-        <v>1.03E-2</v>
-      </c>
-      <c r="N102">
-        <f t="shared" si="20"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P102" s="10" t="s">
         <v>214</v>
       </c>
       <c r="Q102" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7.367</v>
       </c>
       <c r="R102" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38057</v>
       </c>
       <c r="S102" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="T102" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.8170000000000002</v>
       </c>
       <c r="U102" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38082</v>
       </c>
       <c r="V102" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>17</v>
       </c>
       <c r="W102" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>25.11</v>
       </c>
       <c r="X102" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37002</v>
       </c>
       <c r="Y102" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="Z102" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.17</v>
       </c>
       <c r="AA102" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38341</v>
       </c>
       <c r="AB102" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="AC102" s="53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.1900000000000001E-2</v>
       </c>
       <c r="AD102" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37092</v>
       </c>
       <c r="AE102" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="AF102" s="53"/>
@@ -6758,117 +6785,117 @@
         <v>61</v>
       </c>
       <c r="B103" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7671</v>
       </c>
       <c r="C103" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>751</v>
       </c>
       <c r="D103" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>25387.149600000001</v>
       </c>
       <c r="E103" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>22196.463</v>
       </c>
       <c r="F103" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3190.6866000000005</v>
       </c>
       <c r="G103" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.7999999999999997E-3</v>
       </c>
       <c r="H103" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.0143848966991214</v>
       </c>
       <c r="I103" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>32.222222222222221</v>
       </c>
       <c r="J103" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>26.111111111111114</v>
       </c>
       <c r="K103" s="55">
         <v>18.46</v>
       </c>
       <c r="L103" s="59">
+        <f t="shared" si="22"/>
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="M103" s="57">
+        <f t="shared" si="22"/>
+        <v>1.01E-2</v>
+      </c>
+      <c r="N103">
         <f t="shared" si="21"/>
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="M103" s="57">
-        <f t="shared" si="21"/>
-        <v>1.01E-2</v>
-      </c>
-      <c r="N103">
-        <f t="shared" si="20"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P103" s="10" t="s">
         <v>206</v>
       </c>
       <c r="Q103" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.8959999999999999</v>
       </c>
       <c r="R103" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38062</v>
       </c>
       <c r="S103" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="T103" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.4630000000000001</v>
       </c>
       <c r="U103" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38082</v>
       </c>
       <c r="V103" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>17</v>
       </c>
       <c r="W103" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16.11</v>
       </c>
       <c r="X103" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37484</v>
       </c>
       <c r="Y103" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="Z103" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.11</v>
       </c>
       <c r="AA103" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38341</v>
       </c>
       <c r="AB103" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="AC103" s="53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="AD103" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38178</v>
       </c>
       <c r="AE103" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="AF103" s="53"/>
@@ -6886,117 +6913,117 @@
         <v>163</v>
       </c>
       <c r="B104" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8190</v>
       </c>
       <c r="C104" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>800</v>
       </c>
       <c r="D104" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>27581.003100000002</v>
       </c>
       <c r="E104" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>22527.9591</v>
       </c>
       <c r="F104" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5053.0440000000008</v>
       </c>
       <c r="G104" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.01</v>
       </c>
       <c r="H104" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.0679647497219134</v>
       </c>
       <c r="I104" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>32.222222222222221</v>
       </c>
       <c r="J104" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>26.166666666666664</v>
       </c>
       <c r="K104" s="55">
         <v>18.84</v>
       </c>
       <c r="L104" s="59">
+        <f t="shared" si="22"/>
+        <v>1.44E-2</v>
+      </c>
+      <c r="M104" s="57">
+        <f t="shared" si="22"/>
+        <v>1.06E-2</v>
+      </c>
+      <c r="N104">
         <f t="shared" si="21"/>
-        <v>1.44E-2</v>
-      </c>
-      <c r="M104" s="57">
-        <f t="shared" si="21"/>
-        <v>1.06E-2</v>
-      </c>
-      <c r="N104">
-        <f t="shared" si="20"/>
         <v>101254.86534273588</v>
       </c>
       <c r="P104" s="10" t="s">
         <v>207</v>
       </c>
       <c r="Q104" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6.2329999999999997</v>
       </c>
       <c r="R104" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38057</v>
       </c>
       <c r="S104" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="T104" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.5720000000000001</v>
       </c>
       <c r="U104" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37466</v>
       </c>
       <c r="V104" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="W104" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>20.11</v>
       </c>
       <c r="X104" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37002</v>
       </c>
       <c r="Y104" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="Z104" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.17</v>
       </c>
       <c r="AA104" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38341</v>
       </c>
       <c r="AB104" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="AC104" s="53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="AD104" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37776</v>
       </c>
       <c r="AE104" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="AF104" s="53"/>
@@ -7014,35 +7041,35 @@
         <v>164</v>
       </c>
       <c r="B105" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5715</v>
       </c>
       <c r="C105" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>561</v>
       </c>
       <c r="D105" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>18204.734100000001</v>
       </c>
       <c r="E105" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>13599.253800000002</v>
       </c>
       <c r="F105" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4605.4803000000002</v>
       </c>
       <c r="G105" s="53">
-        <f t="shared" ref="G105:H112" si="24">G189</f>
+        <f t="shared" ref="G105:H112" si="25">G189</f>
         <v>1.0699999999999999E-2</v>
       </c>
       <c r="H105" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.9006905831739962</v>
       </c>
       <c r="I105" s="55">
-        <f t="shared" ref="I105:J110" si="25">(I189-32)/180*100</f>
+        <f t="shared" ref="I105:J110" si="26">(I189-32)/180*100</f>
         <v>31.666666666666664</v>
       </c>
       <c r="J105" s="55">
@@ -7053,78 +7080,78 @@
         <v>19.350000000000001</v>
       </c>
       <c r="L105" s="59">
+        <f t="shared" si="22"/>
+        <v>1.46E-2</v>
+      </c>
+      <c r="M105" s="57">
+        <f t="shared" si="22"/>
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="N105">
         <f t="shared" si="21"/>
-        <v>1.46E-2</v>
-      </c>
-      <c r="M105" s="57">
-        <f t="shared" si="21"/>
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="N105">
-        <f t="shared" si="20"/>
         <v>101254.86534273588</v>
       </c>
       <c r="P105" s="10" t="s">
         <v>208</v>
       </c>
       <c r="Q105" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6.3250000000000002</v>
       </c>
       <c r="R105" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38089</v>
       </c>
       <c r="S105" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="T105" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.9390000000000001</v>
       </c>
       <c r="U105" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37832</v>
       </c>
       <c r="V105" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="W105" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>35.06</v>
       </c>
       <c r="X105" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37732</v>
       </c>
       <c r="Y105" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="Z105" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.17</v>
       </c>
       <c r="AA105" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38341</v>
       </c>
       <c r="AB105" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="AC105" s="53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="AD105" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38188</v>
       </c>
       <c r="AE105" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="AF105" s="53"/>
@@ -7142,117 +7169,117 @@
         <v>165</v>
       </c>
       <c r="B106" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5536</v>
       </c>
       <c r="C106" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>544</v>
       </c>
       <c r="D106" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>17933.323500000002</v>
       </c>
       <c r="E106" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>12829.866300000002</v>
       </c>
       <c r="F106" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5103.4572000000007</v>
       </c>
       <c r="G106" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.12E-2</v>
       </c>
       <c r="H106" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.9495597861842109</v>
       </c>
       <c r="I106" s="55">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>31.111111111111111</v>
       </c>
       <c r="J106" s="55">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>25.944444444444446</v>
       </c>
       <c r="K106" s="55">
         <v>19.75</v>
       </c>
       <c r="L106" s="59">
+        <f t="shared" si="22"/>
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="M106" s="57">
+        <f t="shared" si="22"/>
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="N106">
         <f t="shared" si="21"/>
-        <v>1.5699999999999999E-2</v>
-      </c>
-      <c r="M106" s="57">
-        <f t="shared" si="21"/>
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="N106">
-        <f t="shared" si="20"/>
         <v>101254.86534273588</v>
       </c>
       <c r="P106" s="10" t="s">
         <v>209</v>
       </c>
       <c r="Q106" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.9809999999999999</v>
       </c>
       <c r="R106" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38057</v>
       </c>
       <c r="S106" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="T106" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.4950000000000001</v>
       </c>
       <c r="U106" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37466</v>
       </c>
       <c r="V106" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="W106" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>25.06</v>
       </c>
       <c r="X106" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37002</v>
       </c>
       <c r="Y106" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="Z106" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.17</v>
       </c>
       <c r="AA106" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38341</v>
       </c>
       <c r="AB106" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="AC106" s="53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="AD106" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37092</v>
       </c>
       <c r="AE106" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="AF106" s="53"/>
@@ -7270,117 +7297,117 @@
         <v>166</v>
       </c>
       <c r="B107" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4711</v>
       </c>
       <c r="C107" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>481</v>
       </c>
       <c r="D107" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>16012.053000000002</v>
       </c>
       <c r="E107" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>11875.532700000002</v>
       </c>
       <c r="F107" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4136.5203000000001</v>
       </c>
       <c r="G107" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="H107" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.0839855546995381</v>
       </c>
       <c r="I107" s="55">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>28.333333333333332</v>
       </c>
       <c r="J107" s="55">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>25.5</v>
       </c>
       <c r="K107" s="55">
         <v>19.32</v>
       </c>
       <c r="L107" s="59">
-        <f t="shared" ref="L107:M112" si="26">L191</f>
+        <f t="shared" ref="L107:M112" si="27">L191</f>
         <v>1.43E-2</v>
       </c>
       <c r="M107" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.15E-2</v>
       </c>
       <c r="N107">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>101254.86534273588</v>
       </c>
       <c r="P107" s="10" t="s">
         <v>210</v>
       </c>
       <c r="Q107" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.456</v>
       </c>
       <c r="R107" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38107</v>
       </c>
       <c r="S107" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="T107" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.2610000000000001</v>
       </c>
       <c r="U107" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37831</v>
       </c>
       <c r="V107" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="W107" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15.11</v>
       </c>
       <c r="X107" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38138</v>
       </c>
       <c r="Y107" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="Z107" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.11</v>
       </c>
       <c r="AA107" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38341</v>
       </c>
       <c r="AB107" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="AC107" s="53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD107" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37776</v>
       </c>
       <c r="AE107" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="AF107" s="53"/>
@@ -7398,117 +7425,117 @@
         <v>167</v>
       </c>
       <c r="B108" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4859</v>
       </c>
       <c r="C108" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>504</v>
       </c>
       <c r="D108" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>17082.161100000001</v>
       </c>
       <c r="E108" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>11532.312600000001</v>
       </c>
       <c r="F108" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5549.848500000001</v>
       </c>
       <c r="G108" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.14E-2</v>
       </c>
       <c r="H108" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.1851876002237556</v>
       </c>
       <c r="I108" s="55">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>27.222222222222221</v>
       </c>
       <c r="J108" s="55">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>25.333333333333329</v>
       </c>
       <c r="K108" s="55">
         <v>19.760000000000002</v>
       </c>
       <c r="L108" s="59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.6400000000000001E-2</v>
       </c>
       <c r="M108" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.21E-2</v>
       </c>
       <c r="N108">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P108" s="11" t="s">
         <v>211</v>
       </c>
       <c r="Q108" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.2750000000000004</v>
       </c>
       <c r="R108" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38062</v>
       </c>
       <c r="S108" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="T108" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.72</v>
       </c>
       <c r="U108" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37831</v>
       </c>
       <c r="V108" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="W108" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>35</v>
       </c>
       <c r="X108" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37732</v>
       </c>
       <c r="Y108" s="43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="Z108" s="58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.17</v>
       </c>
       <c r="AA108" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38341</v>
       </c>
       <c r="AB108" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="AC108" s="60">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="AD108" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38188</v>
       </c>
       <c r="AE108" s="43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="AF108" s="60"/>
@@ -7526,54 +7553,54 @@
         <v>168</v>
       </c>
       <c r="B109" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3913</v>
       </c>
       <c r="C109" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>405</v>
       </c>
       <c r="D109" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>13435.410900000001</v>
       </c>
       <c r="E109" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9302.4078000000009</v>
       </c>
       <c r="F109" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4133.0031000000008</v>
       </c>
       <c r="G109" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="H109" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.1114893237610008</v>
       </c>
       <c r="I109" s="55">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>27.222222222222221</v>
       </c>
       <c r="J109" s="55">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>25.333333333333329</v>
       </c>
       <c r="K109" s="55">
         <v>19.760000000000002</v>
       </c>
       <c r="L109" s="59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.6400000000000001E-2</v>
       </c>
       <c r="M109" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.21E-2</v>
       </c>
       <c r="N109">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>101593.51037732697</v>
       </c>
     </row>
@@ -7582,54 +7609,54 @@
         <v>169</v>
       </c>
       <c r="B110" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3825</v>
       </c>
       <c r="C110" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>399</v>
       </c>
       <c r="D110" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>13280.361000000001</v>
       </c>
       <c r="E110" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8973.5496000000003</v>
       </c>
       <c r="F110" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4306.8114000000005</v>
       </c>
       <c r="G110" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.14E-2</v>
       </c>
       <c r="H110" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.1440248579545456</v>
       </c>
       <c r="I110" s="55">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>26.666666666666668</v>
       </c>
       <c r="J110" s="55">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>25.222222222222225</v>
       </c>
       <c r="K110" s="55">
         <v>19.8</v>
       </c>
       <c r="L110" s="59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.67E-2</v>
       </c>
       <c r="M110" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="N110">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>101593.51037732697</v>
       </c>
     </row>
@@ -7638,31 +7665,31 @@
         <v>170</v>
       </c>
       <c r="B111" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3750</v>
       </c>
       <c r="C111" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>395</v>
       </c>
       <c r="D111" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>13191.844800000001</v>
       </c>
       <c r="E111" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8787.4311000000016</v>
       </c>
       <c r="F111" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4404.4137000000001</v>
       </c>
       <c r="G111" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.15E-2</v>
       </c>
       <c r="H111" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.1825922316043429</v>
       </c>
       <c r="I111" s="55">
@@ -7677,15 +7704,15 @@
         <v>19.84</v>
       </c>
       <c r="L111" s="59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.6899999999999998E-2</v>
       </c>
       <c r="M111" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.23E-2</v>
       </c>
       <c r="N111">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>101593.51037732697</v>
       </c>
     </row>
@@ -7694,31 +7721,31 @@
         <v>171</v>
       </c>
       <c r="B112" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3880</v>
       </c>
       <c r="C112" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>407</v>
       </c>
       <c r="D112" s="42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>13724.407500000001</v>
       </c>
       <c r="E112" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8799.1550999999999</v>
       </c>
       <c r="F112" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4925.2524000000003</v>
       </c>
       <c r="G112" s="60">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.17E-2</v>
       </c>
       <c r="H112" s="61">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.2014013296011199</v>
       </c>
       <c r="I112" s="62">
@@ -7733,15 +7760,15 @@
         <v>20.14</v>
       </c>
       <c r="L112" s="59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.78E-2</v>
       </c>
       <c r="M112" s="57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="N112">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>101593.51037732697</v>
       </c>
     </row>
@@ -8714,7 +8741,7 @@
         <v>140204</v>
       </c>
       <c r="I147" s="25">
-        <f t="shared" ref="I147:I166" si="27">(F147)*0.2931/(C147)</f>
+        <f t="shared" ref="I147:I166" si="28">(F147)*0.2931/(C147)</f>
         <v>3.4174807958173976</v>
       </c>
       <c r="J147" s="95">
@@ -8807,7 +8834,7 @@
         <v>114839</v>
       </c>
       <c r="I148" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.4579699228422753</v>
       </c>
       <c r="J148" s="95">
@@ -8896,7 +8923,7 @@
         <v>127666</v>
       </c>
       <c r="I149" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.4941712952684894</v>
       </c>
       <c r="J149" s="95">
@@ -8985,7 +9012,7 @@
         <v>122737</v>
       </c>
       <c r="I150" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.4773384823372431</v>
       </c>
       <c r="J150" s="22">
@@ -9163,7 +9190,7 @@
         <v>84911</v>
       </c>
       <c r="I152" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.7006114787884403</v>
       </c>
       <c r="J152" s="95">
@@ -9252,7 +9279,7 @@
         <v>80172</v>
       </c>
       <c r="I153" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.2514047180206354</v>
       </c>
       <c r="J153" s="95">
@@ -9341,7 +9368,7 @@
         <v>65237</v>
       </c>
       <c r="I154" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.2124115306907832</v>
       </c>
       <c r="J154" s="95">
@@ -9519,7 +9546,7 @@
         <v>67927</v>
       </c>
       <c r="I156" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.2130314791943757</v>
       </c>
       <c r="J156" s="95">
@@ -9697,7 +9724,7 @@
         <v>62593</v>
       </c>
       <c r="I158" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.2274971390845071</v>
       </c>
       <c r="J158" s="95">
@@ -9782,7 +9809,7 @@
         <v>48097</v>
       </c>
       <c r="I159" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.1613855565949489</v>
       </c>
       <c r="J159" s="95">
@@ -9871,7 +9898,7 @@
         <v>108196</v>
       </c>
       <c r="I160" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.5773704725150606</v>
       </c>
       <c r="J160" s="95">
@@ -10130,7 +10157,7 @@
         <v>62032</v>
       </c>
       <c r="I163" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.5308881276320054</v>
       </c>
       <c r="J163" s="95">
@@ -10211,7 +10238,7 @@
         <v>207</v>
       </c>
       <c r="I164" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.969011377093016</v>
       </c>
       <c r="J164" s="95">
@@ -10292,7 +10319,7 @@
         <v>365</v>
       </c>
       <c r="I165" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.6747953348467655</v>
       </c>
       <c r="J165" s="95">
@@ -10373,7 +10400,7 @@
         <v>87</v>
       </c>
       <c r="I166" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.2333227816236629</v>
       </c>
       <c r="J166" s="107">
@@ -10947,7 +10974,7 @@
         <v>9.2999999999999992E-3</v>
       </c>
       <c r="H174" s="54">
-        <f t="shared" ref="H174:H196" si="28">D174*0.2931/B174</f>
+        <f t="shared" ref="H174:H196" si="29">D174*0.2931/B174</f>
         <v>3.4985200825309493</v>
       </c>
       <c r="I174" s="95">
@@ -11068,7 +11095,7 @@
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="H175" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.5380768509840674</v>
       </c>
       <c r="I175" s="95">
@@ -11189,7 +11216,7 @@
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="H176" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.5403394736842109</v>
       </c>
       <c r="I176" s="95">
@@ -11308,7 +11335,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
       <c r="H177" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.5553704497907956</v>
       </c>
       <c r="I177" s="95">
@@ -11427,7 +11454,7 @@
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="H178" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.4113890566037739</v>
       </c>
       <c r="I178" s="95">
@@ -11546,7 +11573,7 @@
         <v>0.01</v>
       </c>
       <c r="H179" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.1199875774647889</v>
       </c>
       <c r="I179" s="95">
@@ -11665,7 +11692,7 @@
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="H180" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.9681975771560434</v>
       </c>
       <c r="I180" s="95">
@@ -11784,7 +11811,7 @@
         <v>9.9000000000000008E-3</v>
       </c>
       <c r="H181" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.958919871923154</v>
       </c>
       <c r="I181" s="95">
@@ -11903,7 +11930,7 @@
         <v>1.03E-2</v>
       </c>
       <c r="H182" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.990248479532164</v>
       </c>
       <c r="I182" s="95">
@@ -12022,7 +12049,7 @@
         <v>1.09E-2</v>
       </c>
       <c r="H183" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.9233423882096807</v>
       </c>
       <c r="I183" s="95">
@@ -12141,7 +12168,7 @@
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="H184" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.9391283849918439</v>
       </c>
       <c r="I184" s="95">
@@ -12260,7 +12287,7 @@
         <v>1.01E-2</v>
       </c>
       <c r="H185" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.9716727587765561</v>
       </c>
       <c r="I185" s="95">
@@ -12337,22 +12364,22 @@
         <v>191</v>
       </c>
       <c r="AJ185" s="30">
-        <f t="shared" ref="AJ185:AK192" si="29">AJ269</f>
+        <f t="shared" ref="AJ185:AK192" si="30">AJ269</f>
         <v>0</v>
       </c>
       <c r="AK185" s="117">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AL185" s="21" t="s">
         <v>191</v>
       </c>
       <c r="AM185" s="30">
-        <f t="shared" ref="AM185:AN192" si="30">AM269</f>
+        <f t="shared" ref="AM185:AN192" si="31">AM269</f>
         <v>0</v>
       </c>
       <c r="AN185" s="117">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AO185" s="103"/>
@@ -12379,7 +12406,7 @@
         <v>0.01</v>
       </c>
       <c r="H186" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.9502823479370481</v>
       </c>
       <c r="I186" s="95">
@@ -12456,22 +12483,22 @@
         <v>191</v>
       </c>
       <c r="AJ186" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AK186" s="117">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AL186" s="21" t="s">
         <v>191</v>
       </c>
       <c r="AM186" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AN186" s="117">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AO186" s="103"/>
@@ -12498,7 +12525,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
       <c r="H187" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.0143848966991214</v>
       </c>
       <c r="I187" s="95">
@@ -12575,22 +12602,22 @@
         <v>191</v>
       </c>
       <c r="AJ187" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AK187" s="117">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AL187" s="21" t="s">
         <v>191</v>
       </c>
       <c r="AM187" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AN187" s="117">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AO187" s="103"/>
@@ -12617,7 +12644,7 @@
         <v>0.01</v>
       </c>
       <c r="H188" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.0679647497219134</v>
       </c>
       <c r="I188" s="95">
@@ -12694,22 +12721,22 @@
         <v>191</v>
       </c>
       <c r="AJ188" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AK188" s="117">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AL188" s="21" t="s">
         <v>191</v>
       </c>
       <c r="AM188" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AN188" s="117">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AO188" s="103"/>
@@ -12736,7 +12763,7 @@
         <v>1.0699999999999999E-2</v>
       </c>
       <c r="H189" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.9006905831739962</v>
       </c>
       <c r="I189" s="95">
@@ -12813,22 +12840,22 @@
         <v>191</v>
       </c>
       <c r="AJ189" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AK189" s="117">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AL189" s="21" t="s">
         <v>191</v>
       </c>
       <c r="AM189" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AN189" s="117">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AO189" s="103"/>
@@ -12855,7 +12882,7 @@
         <v>1.12E-2</v>
       </c>
       <c r="H190" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.9495597861842109</v>
       </c>
       <c r="I190" s="95">
@@ -12932,22 +12959,22 @@
         <v>191</v>
       </c>
       <c r="AJ190" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AK190" s="117">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AL190" s="21" t="s">
         <v>191</v>
       </c>
       <c r="AM190" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AN190" s="117">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AO190" s="103"/>
@@ -12974,7 +13001,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="H191" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.0839855546995381</v>
       </c>
       <c r="I191" s="95">
@@ -13051,22 +13078,22 @@
         <v>191</v>
       </c>
       <c r="AJ191" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AK191" s="117">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AL191" s="21" t="s">
         <v>191</v>
       </c>
       <c r="AM191" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AN191" s="117">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AO191" s="103"/>
@@ -13093,7 +13120,7 @@
         <v>1.14E-2</v>
       </c>
       <c r="H192" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.1851876002237556</v>
       </c>
       <c r="I192" s="95">
@@ -13170,22 +13197,22 @@
         <v>191</v>
       </c>
       <c r="AJ192" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AK192" s="123">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AL192" s="41" t="s">
         <v>191</v>
       </c>
       <c r="AM192" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AN192" s="123">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AO192" s="103"/>
@@ -13212,7 +13239,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="H193" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.1114893237610008</v>
       </c>
       <c r="I193" s="95">
@@ -13279,7 +13306,7 @@
         <v>1.14E-2</v>
       </c>
       <c r="H194" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.1440248579545456</v>
       </c>
       <c r="I194" s="95">
@@ -13346,7 +13373,7 @@
         <v>1.15E-2</v>
       </c>
       <c r="H195" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.1825922316043429</v>
       </c>
       <c r="I195" s="95">
@@ -13413,7 +13440,7 @@
         <v>1.17E-2</v>
       </c>
       <c r="H196" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.2014013296011199</v>
       </c>
       <c r="I196" s="132">
